--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urvdp\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E9D677-9E58-446B-89B6-4D704BB1B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +23,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -522,7 +521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1123,8 +1122,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1220,7 +1219,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1470,45 +1469,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:L2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{D1910216-15D3-49DB-B666-966712971290}" name="Telefon" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{B618FA26-BA39-4395-8A64-1C286D143CA7}" name="bestanden" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{CC9B056A-6EAE-4DEE-AE40-9DA6626FDA5C}" name="Teilnahmeschein" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="8"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="7" name="Note" dataDxfId="14"/>
+    <tableColumn id="8" name="LP" dataDxfId="13"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="10" name="Telefon" dataDxfId="11"/>
+    <tableColumn id="11" name="bestanden" dataDxfId="10"/>
+    <tableColumn id="9" name="Teilnahmeschein" dataDxfId="9"/>
+    <tableColumn id="6" name="Schein erhalten" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1800,32 +1799,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="39" customWidth="1"/>
     <col min="12" max="12" width="15" style="39" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" hidden="1"/>
+    <col min="13" max="13" width="45.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1915,7 +1914,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1923,7 +1922,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1931,7 +1930,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1939,7 +1938,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1947,7 +1946,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1955,7 +1954,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1963,7 +1962,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1971,7 +1970,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1988,7 +1987,7 @@
       <c r="G12" s="41"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1997,7 +1996,7 @@
       <c r="G13" s="41"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="G14" s="41"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2015,7 +2014,7 @@
       <c r="G15" s="41"/>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="G16" s="41"/>
       <c r="L16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2033,7 +2032,7 @@
       <c r="G17" s="41"/>
       <c r="L17" s="41"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2046,7 +2045,7 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2085,27 +2084,27 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2125,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2135,547 +2134,547 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" hidden="1"/>
-    <col min="16" max="16" width="5.109375" style="1" hidden="1"/>
-    <col min="17" max="17" width="6.6640625" style="2" hidden="1"/>
-    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.140625" style="1" hidden="1"/>
+    <col min="17" max="17" width="6.7109375" style="2" hidden="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
     <col min="19" max="19" width="16" style="1" hidden="1"/>
-    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
-    <col min="21" max="245" width="11.44140625" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.44140625" style="1" hidden="1"/>
-    <col min="247" max="247" width="11.44140625" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.6640625" style="1" hidden="1"/>
-    <col min="249" max="249" width="21.6640625" style="1" hidden="1"/>
-    <col min="250" max="252" width="11.44140625" style="1" hidden="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
+    <col min="21" max="245" width="11.42578125" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.42578125" style="1" hidden="1"/>
+    <col min="247" max="247" width="11.42578125" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.7109375" style="1" hidden="1"/>
+    <col min="249" max="249" width="21.7109375" style="1" hidden="1"/>
+    <col min="250" max="252" width="11.42578125" style="1" hidden="1"/>
     <col min="253" max="253" width="16" style="1" hidden="1"/>
-    <col min="254" max="254" width="20.44140625" style="1" hidden="1"/>
-    <col min="255" max="501" width="11.44140625" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.44140625" style="1" hidden="1"/>
-    <col min="503" max="503" width="11.44140625" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.6640625" style="1" hidden="1"/>
-    <col min="505" max="505" width="21.6640625" style="1" hidden="1"/>
-    <col min="506" max="508" width="11.44140625" style="1" hidden="1"/>
+    <col min="254" max="254" width="20.42578125" style="1" hidden="1"/>
+    <col min="255" max="501" width="11.42578125" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.42578125" style="1" hidden="1"/>
+    <col min="503" max="503" width="11.42578125" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.7109375" style="1" hidden="1"/>
+    <col min="505" max="505" width="21.7109375" style="1" hidden="1"/>
+    <col min="506" max="508" width="11.42578125" style="1" hidden="1"/>
     <col min="509" max="509" width="16" style="1" hidden="1"/>
-    <col min="510" max="510" width="20.44140625" style="1" hidden="1"/>
-    <col min="511" max="757" width="11.44140625" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.44140625" style="1" hidden="1"/>
-    <col min="759" max="759" width="11.44140625" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.6640625" style="1" hidden="1"/>
-    <col min="761" max="761" width="21.6640625" style="1" hidden="1"/>
-    <col min="762" max="764" width="11.44140625" style="1" hidden="1"/>
+    <col min="510" max="510" width="20.42578125" style="1" hidden="1"/>
+    <col min="511" max="757" width="11.42578125" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.42578125" style="1" hidden="1"/>
+    <col min="759" max="759" width="11.42578125" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.7109375" style="1" hidden="1"/>
+    <col min="761" max="761" width="21.7109375" style="1" hidden="1"/>
+    <col min="762" max="764" width="11.42578125" style="1" hidden="1"/>
     <col min="765" max="765" width="16" style="1" hidden="1"/>
-    <col min="766" max="766" width="20.44140625" style="1" hidden="1"/>
-    <col min="767" max="1013" width="11.44140625" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.44140625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="11.44140625" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.6640625" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="21.6640625" style="1" hidden="1"/>
-    <col min="1018" max="1020" width="11.44140625" style="1" hidden="1"/>
+    <col min="766" max="766" width="20.42578125" style="1" hidden="1"/>
+    <col min="767" max="1013" width="11.42578125" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.42578125" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="11.42578125" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.7109375" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="21.7109375" style="1" hidden="1"/>
+    <col min="1018" max="1020" width="11.42578125" style="1" hidden="1"/>
     <col min="1021" max="1021" width="16" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="20.44140625" style="1" hidden="1"/>
-    <col min="1023" max="1269" width="11.44140625" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.44140625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="11.44140625" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.6640625" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="21.6640625" style="1" hidden="1"/>
-    <col min="1274" max="1276" width="11.44140625" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="20.42578125" style="1" hidden="1"/>
+    <col min="1023" max="1269" width="11.42578125" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.42578125" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="11.42578125" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.7109375" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="21.7109375" style="1" hidden="1"/>
+    <col min="1274" max="1276" width="11.42578125" style="1" hidden="1"/>
     <col min="1277" max="1277" width="16" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="20.44140625" style="1" hidden="1"/>
-    <col min="1279" max="1525" width="11.44140625" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.44140625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="11.44140625" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.6640625" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="21.6640625" style="1" hidden="1"/>
-    <col min="1530" max="1532" width="11.44140625" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="20.42578125" style="1" hidden="1"/>
+    <col min="1279" max="1525" width="11.42578125" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.42578125" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="11.42578125" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.7109375" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="21.7109375" style="1" hidden="1"/>
+    <col min="1530" max="1532" width="11.42578125" style="1" hidden="1"/>
     <col min="1533" max="1533" width="16" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="20.44140625" style="1" hidden="1"/>
-    <col min="1535" max="1781" width="11.44140625" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.44140625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="11.44140625" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.6640625" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="21.6640625" style="1" hidden="1"/>
-    <col min="1786" max="1788" width="11.44140625" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="20.42578125" style="1" hidden="1"/>
+    <col min="1535" max="1781" width="11.42578125" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.42578125" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="11.42578125" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.7109375" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="21.7109375" style="1" hidden="1"/>
+    <col min="1786" max="1788" width="11.42578125" style="1" hidden="1"/>
     <col min="1789" max="1789" width="16" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="20.44140625" style="1" hidden="1"/>
-    <col min="1791" max="2037" width="11.44140625" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.44140625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="11.44140625" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.6640625" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="21.6640625" style="1" hidden="1"/>
-    <col min="2042" max="2044" width="11.44140625" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="20.42578125" style="1" hidden="1"/>
+    <col min="1791" max="2037" width="11.42578125" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.42578125" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="11.42578125" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.7109375" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="21.7109375" style="1" hidden="1"/>
+    <col min="2042" max="2044" width="11.42578125" style="1" hidden="1"/>
     <col min="2045" max="2045" width="16" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="20.44140625" style="1" hidden="1"/>
-    <col min="2047" max="2293" width="11.44140625" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.44140625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="11.44140625" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.6640625" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="21.6640625" style="1" hidden="1"/>
-    <col min="2298" max="2300" width="11.44140625" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="20.42578125" style="1" hidden="1"/>
+    <col min="2047" max="2293" width="11.42578125" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.42578125" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="11.42578125" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.7109375" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="21.7109375" style="1" hidden="1"/>
+    <col min="2298" max="2300" width="11.42578125" style="1" hidden="1"/>
     <col min="2301" max="2301" width="16" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="20.44140625" style="1" hidden="1"/>
-    <col min="2303" max="2549" width="11.44140625" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.44140625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="11.44140625" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.6640625" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="21.6640625" style="1" hidden="1"/>
-    <col min="2554" max="2556" width="11.44140625" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="20.42578125" style="1" hidden="1"/>
+    <col min="2303" max="2549" width="11.42578125" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.42578125" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="11.42578125" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.7109375" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="21.7109375" style="1" hidden="1"/>
+    <col min="2554" max="2556" width="11.42578125" style="1" hidden="1"/>
     <col min="2557" max="2557" width="16" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="20.44140625" style="1" hidden="1"/>
-    <col min="2559" max="2805" width="11.44140625" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.44140625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="11.44140625" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.6640625" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="21.6640625" style="1" hidden="1"/>
-    <col min="2810" max="2812" width="11.44140625" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="20.42578125" style="1" hidden="1"/>
+    <col min="2559" max="2805" width="11.42578125" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.42578125" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="11.42578125" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.7109375" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="21.7109375" style="1" hidden="1"/>
+    <col min="2810" max="2812" width="11.42578125" style="1" hidden="1"/>
     <col min="2813" max="2813" width="16" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="20.44140625" style="1" hidden="1"/>
-    <col min="2815" max="3061" width="11.44140625" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.44140625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="11.44140625" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.6640625" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="21.6640625" style="1" hidden="1"/>
-    <col min="3066" max="3068" width="11.44140625" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="20.42578125" style="1" hidden="1"/>
+    <col min="2815" max="3061" width="11.42578125" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.42578125" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="11.42578125" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.7109375" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="21.7109375" style="1" hidden="1"/>
+    <col min="3066" max="3068" width="11.42578125" style="1" hidden="1"/>
     <col min="3069" max="3069" width="16" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="20.44140625" style="1" hidden="1"/>
-    <col min="3071" max="3317" width="11.44140625" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.44140625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="11.44140625" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.6640625" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="21.6640625" style="1" hidden="1"/>
-    <col min="3322" max="3324" width="11.44140625" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="20.42578125" style="1" hidden="1"/>
+    <col min="3071" max="3317" width="11.42578125" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.42578125" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="11.42578125" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.7109375" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="21.7109375" style="1" hidden="1"/>
+    <col min="3322" max="3324" width="11.42578125" style="1" hidden="1"/>
     <col min="3325" max="3325" width="16" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="20.44140625" style="1" hidden="1"/>
-    <col min="3327" max="3573" width="11.44140625" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.44140625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="11.44140625" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.6640625" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="21.6640625" style="1" hidden="1"/>
-    <col min="3578" max="3580" width="11.44140625" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="20.42578125" style="1" hidden="1"/>
+    <col min="3327" max="3573" width="11.42578125" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.42578125" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="11.42578125" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.7109375" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="21.7109375" style="1" hidden="1"/>
+    <col min="3578" max="3580" width="11.42578125" style="1" hidden="1"/>
     <col min="3581" max="3581" width="16" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="20.44140625" style="1" hidden="1"/>
-    <col min="3583" max="3829" width="11.44140625" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.44140625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="11.44140625" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.6640625" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="21.6640625" style="1" hidden="1"/>
-    <col min="3834" max="3836" width="11.44140625" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="20.42578125" style="1" hidden="1"/>
+    <col min="3583" max="3829" width="11.42578125" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.42578125" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="11.42578125" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.7109375" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="21.7109375" style="1" hidden="1"/>
+    <col min="3834" max="3836" width="11.42578125" style="1" hidden="1"/>
     <col min="3837" max="3837" width="16" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="20.44140625" style="1" hidden="1"/>
-    <col min="3839" max="4085" width="11.44140625" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.44140625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="11.44140625" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.6640625" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="21.6640625" style="1" hidden="1"/>
-    <col min="4090" max="4092" width="11.44140625" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="20.42578125" style="1" hidden="1"/>
+    <col min="3839" max="4085" width="11.42578125" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.42578125" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="11.42578125" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.7109375" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="21.7109375" style="1" hidden="1"/>
+    <col min="4090" max="4092" width="11.42578125" style="1" hidden="1"/>
     <col min="4093" max="4093" width="16" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="20.44140625" style="1" hidden="1"/>
-    <col min="4095" max="4341" width="11.44140625" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.44140625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="11.44140625" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.6640625" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="21.6640625" style="1" hidden="1"/>
-    <col min="4346" max="4348" width="11.44140625" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="20.42578125" style="1" hidden="1"/>
+    <col min="4095" max="4341" width="11.42578125" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.42578125" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="11.42578125" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.7109375" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="21.7109375" style="1" hidden="1"/>
+    <col min="4346" max="4348" width="11.42578125" style="1" hidden="1"/>
     <col min="4349" max="4349" width="16" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="20.44140625" style="1" hidden="1"/>
-    <col min="4351" max="4597" width="11.44140625" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.44140625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="11.44140625" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.6640625" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="21.6640625" style="1" hidden="1"/>
-    <col min="4602" max="4604" width="11.44140625" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="20.42578125" style="1" hidden="1"/>
+    <col min="4351" max="4597" width="11.42578125" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.42578125" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="11.42578125" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.7109375" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="21.7109375" style="1" hidden="1"/>
+    <col min="4602" max="4604" width="11.42578125" style="1" hidden="1"/>
     <col min="4605" max="4605" width="16" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="20.44140625" style="1" hidden="1"/>
-    <col min="4607" max="4853" width="11.44140625" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.44140625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="11.44140625" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.6640625" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="21.6640625" style="1" hidden="1"/>
-    <col min="4858" max="4860" width="11.44140625" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="20.42578125" style="1" hidden="1"/>
+    <col min="4607" max="4853" width="11.42578125" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.42578125" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="11.42578125" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.7109375" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="21.7109375" style="1" hidden="1"/>
+    <col min="4858" max="4860" width="11.42578125" style="1" hidden="1"/>
     <col min="4861" max="4861" width="16" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="20.44140625" style="1" hidden="1"/>
-    <col min="4863" max="5109" width="11.44140625" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.44140625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="11.44140625" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.6640625" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="21.6640625" style="1" hidden="1"/>
-    <col min="5114" max="5116" width="11.44140625" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="20.42578125" style="1" hidden="1"/>
+    <col min="4863" max="5109" width="11.42578125" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.42578125" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="11.42578125" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.7109375" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="21.7109375" style="1" hidden="1"/>
+    <col min="5114" max="5116" width="11.42578125" style="1" hidden="1"/>
     <col min="5117" max="5117" width="16" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="20.44140625" style="1" hidden="1"/>
-    <col min="5119" max="5365" width="11.44140625" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.44140625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="11.44140625" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.6640625" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="21.6640625" style="1" hidden="1"/>
-    <col min="5370" max="5372" width="11.44140625" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="20.42578125" style="1" hidden="1"/>
+    <col min="5119" max="5365" width="11.42578125" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.42578125" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="11.42578125" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.7109375" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="21.7109375" style="1" hidden="1"/>
+    <col min="5370" max="5372" width="11.42578125" style="1" hidden="1"/>
     <col min="5373" max="5373" width="16" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="20.44140625" style="1" hidden="1"/>
-    <col min="5375" max="5621" width="11.44140625" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.44140625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="11.44140625" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.6640625" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="21.6640625" style="1" hidden="1"/>
-    <col min="5626" max="5628" width="11.44140625" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="20.42578125" style="1" hidden="1"/>
+    <col min="5375" max="5621" width="11.42578125" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.42578125" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="11.42578125" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.7109375" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="21.7109375" style="1" hidden="1"/>
+    <col min="5626" max="5628" width="11.42578125" style="1" hidden="1"/>
     <col min="5629" max="5629" width="16" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="20.44140625" style="1" hidden="1"/>
-    <col min="5631" max="5877" width="11.44140625" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.44140625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="11.44140625" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.6640625" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="21.6640625" style="1" hidden="1"/>
-    <col min="5882" max="5884" width="11.44140625" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="20.42578125" style="1" hidden="1"/>
+    <col min="5631" max="5877" width="11.42578125" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.42578125" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="11.42578125" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.7109375" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="21.7109375" style="1" hidden="1"/>
+    <col min="5882" max="5884" width="11.42578125" style="1" hidden="1"/>
     <col min="5885" max="5885" width="16" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="20.44140625" style="1" hidden="1"/>
-    <col min="5887" max="6133" width="11.44140625" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.44140625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="11.44140625" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.6640625" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="21.6640625" style="1" hidden="1"/>
-    <col min="6138" max="6140" width="11.44140625" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="20.42578125" style="1" hidden="1"/>
+    <col min="5887" max="6133" width="11.42578125" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.42578125" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="11.42578125" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.7109375" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="21.7109375" style="1" hidden="1"/>
+    <col min="6138" max="6140" width="11.42578125" style="1" hidden="1"/>
     <col min="6141" max="6141" width="16" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="20.44140625" style="1" hidden="1"/>
-    <col min="6143" max="6389" width="11.44140625" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.44140625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="11.44140625" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.6640625" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="21.6640625" style="1" hidden="1"/>
-    <col min="6394" max="6396" width="11.44140625" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="20.42578125" style="1" hidden="1"/>
+    <col min="6143" max="6389" width="11.42578125" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.42578125" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="11.42578125" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.7109375" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="21.7109375" style="1" hidden="1"/>
+    <col min="6394" max="6396" width="11.42578125" style="1" hidden="1"/>
     <col min="6397" max="6397" width="16" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="20.44140625" style="1" hidden="1"/>
-    <col min="6399" max="6645" width="11.44140625" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.44140625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="11.44140625" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.6640625" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="21.6640625" style="1" hidden="1"/>
-    <col min="6650" max="6652" width="11.44140625" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="20.42578125" style="1" hidden="1"/>
+    <col min="6399" max="6645" width="11.42578125" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.42578125" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="11.42578125" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.7109375" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="21.7109375" style="1" hidden="1"/>
+    <col min="6650" max="6652" width="11.42578125" style="1" hidden="1"/>
     <col min="6653" max="6653" width="16" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="20.44140625" style="1" hidden="1"/>
-    <col min="6655" max="6901" width="11.44140625" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.44140625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="11.44140625" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.6640625" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="21.6640625" style="1" hidden="1"/>
-    <col min="6906" max="6908" width="11.44140625" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="20.42578125" style="1" hidden="1"/>
+    <col min="6655" max="6901" width="11.42578125" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.42578125" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="11.42578125" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.7109375" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="21.7109375" style="1" hidden="1"/>
+    <col min="6906" max="6908" width="11.42578125" style="1" hidden="1"/>
     <col min="6909" max="6909" width="16" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="20.44140625" style="1" hidden="1"/>
-    <col min="6911" max="7157" width="11.44140625" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.44140625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="11.44140625" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.6640625" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="21.6640625" style="1" hidden="1"/>
-    <col min="7162" max="7164" width="11.44140625" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="20.42578125" style="1" hidden="1"/>
+    <col min="6911" max="7157" width="11.42578125" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.42578125" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="11.42578125" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.7109375" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="21.7109375" style="1" hidden="1"/>
+    <col min="7162" max="7164" width="11.42578125" style="1" hidden="1"/>
     <col min="7165" max="7165" width="16" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="20.44140625" style="1" hidden="1"/>
-    <col min="7167" max="7413" width="11.44140625" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.44140625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="11.44140625" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.6640625" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="21.6640625" style="1" hidden="1"/>
-    <col min="7418" max="7420" width="11.44140625" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="20.42578125" style="1" hidden="1"/>
+    <col min="7167" max="7413" width="11.42578125" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.42578125" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="11.42578125" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.7109375" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="21.7109375" style="1" hidden="1"/>
+    <col min="7418" max="7420" width="11.42578125" style="1" hidden="1"/>
     <col min="7421" max="7421" width="16" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="20.44140625" style="1" hidden="1"/>
-    <col min="7423" max="7669" width="11.44140625" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.44140625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="11.44140625" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.6640625" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="21.6640625" style="1" hidden="1"/>
-    <col min="7674" max="7676" width="11.44140625" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="20.42578125" style="1" hidden="1"/>
+    <col min="7423" max="7669" width="11.42578125" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.42578125" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="11.42578125" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.7109375" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="21.7109375" style="1" hidden="1"/>
+    <col min="7674" max="7676" width="11.42578125" style="1" hidden="1"/>
     <col min="7677" max="7677" width="16" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="20.44140625" style="1" hidden="1"/>
-    <col min="7679" max="7925" width="11.44140625" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.44140625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="11.44140625" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.6640625" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="21.6640625" style="1" hidden="1"/>
-    <col min="7930" max="7932" width="11.44140625" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="20.42578125" style="1" hidden="1"/>
+    <col min="7679" max="7925" width="11.42578125" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.42578125" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="11.42578125" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.7109375" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="21.7109375" style="1" hidden="1"/>
+    <col min="7930" max="7932" width="11.42578125" style="1" hidden="1"/>
     <col min="7933" max="7933" width="16" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="20.44140625" style="1" hidden="1"/>
-    <col min="7935" max="8181" width="11.44140625" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.44140625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="11.44140625" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.6640625" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="21.6640625" style="1" hidden="1"/>
-    <col min="8186" max="8188" width="11.44140625" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="20.42578125" style="1" hidden="1"/>
+    <col min="7935" max="8181" width="11.42578125" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.42578125" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="11.42578125" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.7109375" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="21.7109375" style="1" hidden="1"/>
+    <col min="8186" max="8188" width="11.42578125" style="1" hidden="1"/>
     <col min="8189" max="8189" width="16" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="20.44140625" style="1" hidden="1"/>
-    <col min="8191" max="8437" width="11.44140625" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.44140625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="11.44140625" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.6640625" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="21.6640625" style="1" hidden="1"/>
-    <col min="8442" max="8444" width="11.44140625" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="20.42578125" style="1" hidden="1"/>
+    <col min="8191" max="8437" width="11.42578125" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.42578125" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="11.42578125" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.7109375" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="21.7109375" style="1" hidden="1"/>
+    <col min="8442" max="8444" width="11.42578125" style="1" hidden="1"/>
     <col min="8445" max="8445" width="16" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="20.44140625" style="1" hidden="1"/>
-    <col min="8447" max="8693" width="11.44140625" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.44140625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="11.44140625" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.6640625" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="21.6640625" style="1" hidden="1"/>
-    <col min="8698" max="8700" width="11.44140625" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="20.42578125" style="1" hidden="1"/>
+    <col min="8447" max="8693" width="11.42578125" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.42578125" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="11.42578125" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.7109375" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="21.7109375" style="1" hidden="1"/>
+    <col min="8698" max="8700" width="11.42578125" style="1" hidden="1"/>
     <col min="8701" max="8701" width="16" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="20.44140625" style="1" hidden="1"/>
-    <col min="8703" max="8949" width="11.44140625" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.44140625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="11.44140625" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.6640625" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="21.6640625" style="1" hidden="1"/>
-    <col min="8954" max="8956" width="11.44140625" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="20.42578125" style="1" hidden="1"/>
+    <col min="8703" max="8949" width="11.42578125" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.42578125" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="11.42578125" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.7109375" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="21.7109375" style="1" hidden="1"/>
+    <col min="8954" max="8956" width="11.42578125" style="1" hidden="1"/>
     <col min="8957" max="8957" width="16" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="20.44140625" style="1" hidden="1"/>
-    <col min="8959" max="9205" width="11.44140625" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.44140625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="11.44140625" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.6640625" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="21.6640625" style="1" hidden="1"/>
-    <col min="9210" max="9212" width="11.44140625" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="20.42578125" style="1" hidden="1"/>
+    <col min="8959" max="9205" width="11.42578125" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.42578125" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="11.42578125" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.7109375" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="21.7109375" style="1" hidden="1"/>
+    <col min="9210" max="9212" width="11.42578125" style="1" hidden="1"/>
     <col min="9213" max="9213" width="16" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="20.44140625" style="1" hidden="1"/>
-    <col min="9215" max="9461" width="11.44140625" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.44140625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="11.44140625" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.6640625" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="21.6640625" style="1" hidden="1"/>
-    <col min="9466" max="9468" width="11.44140625" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="20.42578125" style="1" hidden="1"/>
+    <col min="9215" max="9461" width="11.42578125" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.42578125" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="11.42578125" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.7109375" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="21.7109375" style="1" hidden="1"/>
+    <col min="9466" max="9468" width="11.42578125" style="1" hidden="1"/>
     <col min="9469" max="9469" width="16" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="20.44140625" style="1" hidden="1"/>
-    <col min="9471" max="9717" width="11.44140625" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.44140625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="11.44140625" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.6640625" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="21.6640625" style="1" hidden="1"/>
-    <col min="9722" max="9724" width="11.44140625" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="20.42578125" style="1" hidden="1"/>
+    <col min="9471" max="9717" width="11.42578125" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.42578125" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="11.42578125" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.7109375" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="21.7109375" style="1" hidden="1"/>
+    <col min="9722" max="9724" width="11.42578125" style="1" hidden="1"/>
     <col min="9725" max="9725" width="16" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="20.44140625" style="1" hidden="1"/>
-    <col min="9727" max="9973" width="11.44140625" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.44140625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="11.44140625" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.6640625" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="21.6640625" style="1" hidden="1"/>
-    <col min="9978" max="9980" width="11.44140625" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="20.42578125" style="1" hidden="1"/>
+    <col min="9727" max="9973" width="11.42578125" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.42578125" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="11.42578125" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.7109375" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="21.7109375" style="1" hidden="1"/>
+    <col min="9978" max="9980" width="11.42578125" style="1" hidden="1"/>
     <col min="9981" max="9981" width="16" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="20.44140625" style="1" hidden="1"/>
-    <col min="9983" max="10229" width="11.44140625" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.44140625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="11.44140625" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.6640625" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="21.6640625" style="1" hidden="1"/>
-    <col min="10234" max="10236" width="11.44140625" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="20.42578125" style="1" hidden="1"/>
+    <col min="9983" max="10229" width="11.42578125" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.42578125" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="11.42578125" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.7109375" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="21.7109375" style="1" hidden="1"/>
+    <col min="10234" max="10236" width="11.42578125" style="1" hidden="1"/>
     <col min="10237" max="10237" width="16" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="20.44140625" style="1" hidden="1"/>
-    <col min="10239" max="10485" width="11.44140625" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.44140625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="11.44140625" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.6640625" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="21.6640625" style="1" hidden="1"/>
-    <col min="10490" max="10492" width="11.44140625" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="20.42578125" style="1" hidden="1"/>
+    <col min="10239" max="10485" width="11.42578125" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.42578125" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="11.42578125" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.7109375" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="21.7109375" style="1" hidden="1"/>
+    <col min="10490" max="10492" width="11.42578125" style="1" hidden="1"/>
     <col min="10493" max="10493" width="16" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="20.44140625" style="1" hidden="1"/>
-    <col min="10495" max="10741" width="11.44140625" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.44140625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="11.44140625" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.6640625" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="21.6640625" style="1" hidden="1"/>
-    <col min="10746" max="10748" width="11.44140625" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="20.42578125" style="1" hidden="1"/>
+    <col min="10495" max="10741" width="11.42578125" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.42578125" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="11.42578125" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.7109375" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="21.7109375" style="1" hidden="1"/>
+    <col min="10746" max="10748" width="11.42578125" style="1" hidden="1"/>
     <col min="10749" max="10749" width="16" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="20.44140625" style="1" hidden="1"/>
-    <col min="10751" max="10997" width="11.44140625" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.44140625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="11.44140625" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.6640625" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="21.6640625" style="1" hidden="1"/>
-    <col min="11002" max="11004" width="11.44140625" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="20.42578125" style="1" hidden="1"/>
+    <col min="10751" max="10997" width="11.42578125" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.42578125" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="11.42578125" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.7109375" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="21.7109375" style="1" hidden="1"/>
+    <col min="11002" max="11004" width="11.42578125" style="1" hidden="1"/>
     <col min="11005" max="11005" width="16" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="20.44140625" style="1" hidden="1"/>
-    <col min="11007" max="11253" width="11.44140625" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.44140625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="11.44140625" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.6640625" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="21.6640625" style="1" hidden="1"/>
-    <col min="11258" max="11260" width="11.44140625" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="20.42578125" style="1" hidden="1"/>
+    <col min="11007" max="11253" width="11.42578125" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.42578125" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="11.42578125" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.7109375" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="21.7109375" style="1" hidden="1"/>
+    <col min="11258" max="11260" width="11.42578125" style="1" hidden="1"/>
     <col min="11261" max="11261" width="16" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="20.44140625" style="1" hidden="1"/>
-    <col min="11263" max="11509" width="11.44140625" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.44140625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="11.44140625" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.6640625" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="21.6640625" style="1" hidden="1"/>
-    <col min="11514" max="11516" width="11.44140625" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="20.42578125" style="1" hidden="1"/>
+    <col min="11263" max="11509" width="11.42578125" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.42578125" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="11.42578125" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.7109375" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="21.7109375" style="1" hidden="1"/>
+    <col min="11514" max="11516" width="11.42578125" style="1" hidden="1"/>
     <col min="11517" max="11517" width="16" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="20.44140625" style="1" hidden="1"/>
-    <col min="11519" max="11765" width="11.44140625" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.44140625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="11.44140625" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.6640625" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="21.6640625" style="1" hidden="1"/>
-    <col min="11770" max="11772" width="11.44140625" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="20.42578125" style="1" hidden="1"/>
+    <col min="11519" max="11765" width="11.42578125" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.42578125" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="11.42578125" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.7109375" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="21.7109375" style="1" hidden="1"/>
+    <col min="11770" max="11772" width="11.42578125" style="1" hidden="1"/>
     <col min="11773" max="11773" width="16" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="20.44140625" style="1" hidden="1"/>
-    <col min="11775" max="12021" width="11.44140625" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.44140625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="11.44140625" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.6640625" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="21.6640625" style="1" hidden="1"/>
-    <col min="12026" max="12028" width="11.44140625" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="20.42578125" style="1" hidden="1"/>
+    <col min="11775" max="12021" width="11.42578125" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.42578125" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="11.42578125" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.7109375" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="21.7109375" style="1" hidden="1"/>
+    <col min="12026" max="12028" width="11.42578125" style="1" hidden="1"/>
     <col min="12029" max="12029" width="16" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="20.44140625" style="1" hidden="1"/>
-    <col min="12031" max="12277" width="11.44140625" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.44140625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="11.44140625" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.6640625" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="21.6640625" style="1" hidden="1"/>
-    <col min="12282" max="12284" width="11.44140625" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="20.42578125" style="1" hidden="1"/>
+    <col min="12031" max="12277" width="11.42578125" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.42578125" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="11.42578125" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.7109375" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="21.7109375" style="1" hidden="1"/>
+    <col min="12282" max="12284" width="11.42578125" style="1" hidden="1"/>
     <col min="12285" max="12285" width="16" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="20.44140625" style="1" hidden="1"/>
-    <col min="12287" max="12533" width="11.44140625" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.44140625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="11.44140625" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.6640625" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="21.6640625" style="1" hidden="1"/>
-    <col min="12538" max="12540" width="11.44140625" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="20.42578125" style="1" hidden="1"/>
+    <col min="12287" max="12533" width="11.42578125" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.42578125" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="11.42578125" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.7109375" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="21.7109375" style="1" hidden="1"/>
+    <col min="12538" max="12540" width="11.42578125" style="1" hidden="1"/>
     <col min="12541" max="12541" width="16" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="20.44140625" style="1" hidden="1"/>
-    <col min="12543" max="12789" width="11.44140625" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.44140625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="11.44140625" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.6640625" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="21.6640625" style="1" hidden="1"/>
-    <col min="12794" max="12796" width="11.44140625" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="20.42578125" style="1" hidden="1"/>
+    <col min="12543" max="12789" width="11.42578125" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.42578125" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="11.42578125" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.7109375" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="21.7109375" style="1" hidden="1"/>
+    <col min="12794" max="12796" width="11.42578125" style="1" hidden="1"/>
     <col min="12797" max="12797" width="16" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="20.44140625" style="1" hidden="1"/>
-    <col min="12799" max="13045" width="11.44140625" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.44140625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="11.44140625" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.6640625" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="21.6640625" style="1" hidden="1"/>
-    <col min="13050" max="13052" width="11.44140625" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="20.42578125" style="1" hidden="1"/>
+    <col min="12799" max="13045" width="11.42578125" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.42578125" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="11.42578125" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.7109375" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="21.7109375" style="1" hidden="1"/>
+    <col min="13050" max="13052" width="11.42578125" style="1" hidden="1"/>
     <col min="13053" max="13053" width="16" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="20.44140625" style="1" hidden="1"/>
-    <col min="13055" max="13301" width="11.44140625" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.44140625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="11.44140625" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.6640625" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="21.6640625" style="1" hidden="1"/>
-    <col min="13306" max="13308" width="11.44140625" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="20.42578125" style="1" hidden="1"/>
+    <col min="13055" max="13301" width="11.42578125" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.42578125" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="11.42578125" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.7109375" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="21.7109375" style="1" hidden="1"/>
+    <col min="13306" max="13308" width="11.42578125" style="1" hidden="1"/>
     <col min="13309" max="13309" width="16" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="20.44140625" style="1" hidden="1"/>
-    <col min="13311" max="13557" width="11.44140625" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.44140625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="11.44140625" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.6640625" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="21.6640625" style="1" hidden="1"/>
-    <col min="13562" max="13564" width="11.44140625" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="20.42578125" style="1" hidden="1"/>
+    <col min="13311" max="13557" width="11.42578125" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.42578125" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="11.42578125" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.7109375" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="21.7109375" style="1" hidden="1"/>
+    <col min="13562" max="13564" width="11.42578125" style="1" hidden="1"/>
     <col min="13565" max="13565" width="16" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="20.44140625" style="1" hidden="1"/>
-    <col min="13567" max="13813" width="11.44140625" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.44140625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="11.44140625" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.6640625" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="21.6640625" style="1" hidden="1"/>
-    <col min="13818" max="13820" width="11.44140625" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="20.42578125" style="1" hidden="1"/>
+    <col min="13567" max="13813" width="11.42578125" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.42578125" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="11.42578125" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.7109375" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="21.7109375" style="1" hidden="1"/>
+    <col min="13818" max="13820" width="11.42578125" style="1" hidden="1"/>
     <col min="13821" max="13821" width="16" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="20.44140625" style="1" hidden="1"/>
-    <col min="13823" max="14069" width="11.44140625" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.44140625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="11.44140625" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.6640625" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="21.6640625" style="1" hidden="1"/>
-    <col min="14074" max="14076" width="11.44140625" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="20.42578125" style="1" hidden="1"/>
+    <col min="13823" max="14069" width="11.42578125" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.42578125" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="11.42578125" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.7109375" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="21.7109375" style="1" hidden="1"/>
+    <col min="14074" max="14076" width="11.42578125" style="1" hidden="1"/>
     <col min="14077" max="14077" width="16" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="20.44140625" style="1" hidden="1"/>
-    <col min="14079" max="14325" width="11.44140625" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.44140625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="11.44140625" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.6640625" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="21.6640625" style="1" hidden="1"/>
-    <col min="14330" max="14332" width="11.44140625" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="20.42578125" style="1" hidden="1"/>
+    <col min="14079" max="14325" width="11.42578125" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.42578125" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="11.42578125" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.7109375" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="21.7109375" style="1" hidden="1"/>
+    <col min="14330" max="14332" width="11.42578125" style="1" hidden="1"/>
     <col min="14333" max="14333" width="16" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="20.44140625" style="1" hidden="1"/>
-    <col min="14335" max="14581" width="11.44140625" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.44140625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="11.44140625" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.6640625" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="21.6640625" style="1" hidden="1"/>
-    <col min="14586" max="14588" width="11.44140625" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="20.42578125" style="1" hidden="1"/>
+    <col min="14335" max="14581" width="11.42578125" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.42578125" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="11.42578125" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.7109375" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="21.7109375" style="1" hidden="1"/>
+    <col min="14586" max="14588" width="11.42578125" style="1" hidden="1"/>
     <col min="14589" max="14589" width="16" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="20.44140625" style="1" hidden="1"/>
-    <col min="14591" max="14837" width="11.44140625" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.44140625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="11.44140625" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.6640625" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="21.6640625" style="1" hidden="1"/>
-    <col min="14842" max="14844" width="11.44140625" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="20.42578125" style="1" hidden="1"/>
+    <col min="14591" max="14837" width="11.42578125" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.42578125" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="11.42578125" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.7109375" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="21.7109375" style="1" hidden="1"/>
+    <col min="14842" max="14844" width="11.42578125" style="1" hidden="1"/>
     <col min="14845" max="14845" width="16" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="20.44140625" style="1" hidden="1"/>
-    <col min="14847" max="15093" width="11.44140625" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.44140625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="11.44140625" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.6640625" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="21.6640625" style="1" hidden="1"/>
-    <col min="15098" max="15100" width="11.44140625" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="20.42578125" style="1" hidden="1"/>
+    <col min="14847" max="15093" width="11.42578125" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.42578125" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="11.42578125" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.7109375" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="21.7109375" style="1" hidden="1"/>
+    <col min="15098" max="15100" width="11.42578125" style="1" hidden="1"/>
     <col min="15101" max="15101" width="16" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="20.44140625" style="1" hidden="1"/>
-    <col min="15103" max="15349" width="11.44140625" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.44140625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="11.44140625" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.6640625" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="21.6640625" style="1" hidden="1"/>
-    <col min="15354" max="15356" width="11.44140625" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="20.42578125" style="1" hidden="1"/>
+    <col min="15103" max="15349" width="11.42578125" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.42578125" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="11.42578125" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.7109375" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="21.7109375" style="1" hidden="1"/>
+    <col min="15354" max="15356" width="11.42578125" style="1" hidden="1"/>
     <col min="15357" max="15357" width="16" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="20.44140625" style="1" hidden="1"/>
-    <col min="15359" max="15605" width="11.44140625" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.44140625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="11.44140625" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.6640625" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="21.6640625" style="1" hidden="1"/>
-    <col min="15610" max="15612" width="11.44140625" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="20.42578125" style="1" hidden="1"/>
+    <col min="15359" max="15605" width="11.42578125" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.42578125" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="11.42578125" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.7109375" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="21.7109375" style="1" hidden="1"/>
+    <col min="15610" max="15612" width="11.42578125" style="1" hidden="1"/>
     <col min="15613" max="15613" width="16" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="20.44140625" style="1" hidden="1"/>
-    <col min="15615" max="15861" width="11.44140625" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.44140625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="11.44140625" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.6640625" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="21.6640625" style="1" hidden="1"/>
-    <col min="15866" max="15868" width="11.44140625" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="20.42578125" style="1" hidden="1"/>
+    <col min="15615" max="15861" width="11.42578125" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.42578125" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="11.42578125" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.7109375" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="21.7109375" style="1" hidden="1"/>
+    <col min="15866" max="15868" width="11.42578125" style="1" hidden="1"/>
     <col min="15869" max="15869" width="16" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="20.44140625" style="1" hidden="1"/>
-    <col min="15871" max="16117" width="11.44140625" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.44140625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="11.44140625" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.6640625" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="21.6640625" style="1" hidden="1"/>
-    <col min="16122" max="16124" width="11.44140625" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="20.42578125" style="1" hidden="1"/>
+    <col min="15871" max="16117" width="11.42578125" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.42578125" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="11.42578125" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.7109375" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="21.7109375" style="1" hidden="1"/>
+    <col min="16122" max="16124" width="11.42578125" style="1" hidden="1"/>
     <col min="16125" max="16125" width="16" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="20.44140625" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.44140625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="15.6640625" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="21.6640625" style="1" hidden="1"/>
-    <col min="16134" max="16136" width="11.44140625" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="20.42578125" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="15.7109375" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="21.7109375" style="1" hidden="1"/>
+    <col min="16134" max="16136" width="11.42578125" style="1" hidden="1"/>
     <col min="16137" max="16137" width="16" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="20.44140625" style="1" hidden="1"/>
-    <col min="16140" max="16141" width="11.44140625" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="20.42578125" style="1" hidden="1"/>
+    <col min="16140" max="16141" width="11.42578125" style="1" hidden="1"/>
     <col min="16142" max="16142" width="16" style="1" hidden="1"/>
-    <col min="16143" max="16145" width="20.44140625" style="1" hidden="1"/>
-    <col min="16146" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16143" max="16145" width="20.42578125" style="1" hidden="1"/>
+    <col min="16146" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2797,7 +2796,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2866,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2935,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3004,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3073,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3142,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3211,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3280,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3349,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3418,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3487,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3556,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3625,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3694,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3763,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3832,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3901,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3970,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4039,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4108,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4177,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4246,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4315,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4384,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4453,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4471,7 +4470,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4488,7 +4487,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4509,7 +4508,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4525,7 +4524,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4547,7 +4546,7 @@
       <c r="M31" s="31"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4567,7 +4566,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4587,7 +4586,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4607,7 +4606,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4627,7 +4626,7 @@
       <c r="M35" s="31"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4647,7 +4646,7 @@
       <c r="M36" s="31"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4667,52 +4666,52 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4722,7 +4721,7 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4740,27 +4739,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4776,7 +4775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4811,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4844,7 +4843,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4876,7 +4875,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4908,7 +4907,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4940,7 +4939,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4972,7 +4971,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5004,7 +5003,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5036,7 +5035,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5100,7 +5099,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5132,7 +5131,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5164,7 +5163,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5196,7 +5195,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5228,7 +5227,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5260,7 +5259,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5292,7 +5291,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5324,7 +5323,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5356,7 +5355,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5388,7 +5387,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5420,7 +5419,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5452,7 +5451,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5484,7 +5483,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5516,7 +5515,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5548,7 +5547,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5580,7 +5579,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5612,7 +5611,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5628,7 +5627,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5647,7 +5646,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5677,7 +5676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5687,15 +5686,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5709,7 +5708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5832,31 +5831,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5874,8 +5873,9 @@
       <c r="L1" s="93"/>
       <c r="M1" s="93"/>
       <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="93"/>
+    </row>
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -5896,8 +5896,9 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="95"/>
+    </row>
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5937,11 +5938,12 @@
       <c r="M3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5993,12 +5995,16 @@
         <f>Notenliste!E2</f>
         <v>attendance.sanitized_grade</v>
       </c>
-      <c r="N4" s="19" t="str">
+      <c r="N4" s="17" t="str">
+        <f>Notenliste!I2</f>
+        <v>attendance.ects_points</v>
+      </c>
+      <c r="O4" s="19" t="str">
         <f>UPPER(Notenliste!L2)</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6050,12 +6056,16 @@
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="17">
+        <f>Notenliste!I3</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="19" t="str">
         <f>UPPER(Notenliste!L3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6107,12 +6117,16 @@
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="17">
+        <f>Notenliste!I4</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="str">
         <f>UPPER(Notenliste!L4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6164,12 +6178,16 @@
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="19" t="str">
+      <c r="N7" s="17">
+        <f>Notenliste!I5</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="19" t="str">
         <f>UPPER(Notenliste!L5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6221,12 +6239,16 @@
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="17">
+        <f>Notenliste!I6</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="19" t="str">
         <f>UPPER(Notenliste!L6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6278,12 +6300,16 @@
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="19" t="str">
+      <c r="N9" s="17">
+        <f>Notenliste!I7</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="19" t="str">
         <f>UPPER(Notenliste!L7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6335,12 +6361,16 @@
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="19" t="str">
+      <c r="N10" s="17">
+        <f>Notenliste!I8</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="19" t="str">
         <f>UPPER(Notenliste!L8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6392,12 +6422,16 @@
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="19" t="str">
+      <c r="N11" s="17">
+        <f>Notenliste!I9</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="str">
         <f>UPPER(Notenliste!L9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6449,12 +6483,16 @@
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="19" t="str">
+      <c r="N12" s="17">
+        <f>Notenliste!I10</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="19" t="str">
         <f>UPPER(Notenliste!L10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6506,12 +6544,16 @@
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="19" t="str">
+      <c r="N13" s="17">
+        <f>Notenliste!I11</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="str">
         <f>UPPER(Notenliste!L11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6563,12 +6605,16 @@
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="19" t="str">
+      <c r="N14" s="17">
+        <f>Notenliste!I12</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="19" t="str">
         <f>UPPER(Notenliste!L12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6620,12 +6666,16 @@
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="19" t="str">
+      <c r="N15" s="17">
+        <f>Notenliste!I13</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="19" t="str">
         <f>UPPER(Notenliste!L13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6677,12 +6727,16 @@
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="19" t="str">
+      <c r="N16" s="17">
+        <f>Notenliste!I14</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="19" t="str">
         <f>UPPER(Notenliste!L14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6734,12 +6788,16 @@
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="19" t="str">
+      <c r="N17" s="17">
+        <f>Notenliste!I15</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="19" t="str">
         <f>UPPER(Notenliste!L15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6791,12 +6849,16 @@
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="19" t="str">
+      <c r="N18" s="17">
+        <f>Notenliste!I16</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="19" t="str">
         <f>UPPER(Notenliste!L16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6848,12 +6910,16 @@
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="19" t="str">
+      <c r="N19" s="17">
+        <f>Notenliste!I17</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19" t="str">
         <f>UPPER(Notenliste!L17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6905,12 +6971,16 @@
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="19" t="str">
+      <c r="N20" s="17">
+        <f>Notenliste!I18</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19" t="str">
         <f>UPPER(Notenliste!L18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6962,12 +7032,16 @@
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="19" t="str">
+      <c r="N21" s="17">
+        <f>Notenliste!I19</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="19" t="str">
         <f>UPPER(Notenliste!L19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7019,12 +7093,16 @@
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="19" t="str">
+      <c r="N22" s="17">
+        <f>Notenliste!I20</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="19" t="str">
         <f>UPPER(Notenliste!L20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7076,12 +7154,16 @@
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="19" t="str">
+      <c r="N23" s="17">
+        <f>Notenliste!I21</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="19" t="str">
         <f>UPPER(Notenliste!L21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7133,12 +7215,16 @@
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="19" t="str">
+      <c r="N24" s="17">
+        <f>Notenliste!I22</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19" t="str">
         <f>UPPER(Notenliste!L22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7190,12 +7276,16 @@
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="19" t="str">
+      <c r="N25" s="17">
+        <f>Notenliste!I23</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="19" t="str">
         <f>UPPER(Notenliste!L23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7247,12 +7337,16 @@
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="19" t="str">
+      <c r="N26" s="17">
+        <f>Notenliste!I24</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="19" t="str">
         <f>UPPER(Notenliste!L24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7304,12 +7398,16 @@
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="19" t="str">
+      <c r="N27" s="17">
+        <f>Notenliste!I25</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="19" t="str">
         <f>UPPER(Notenliste!L25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7361,12 +7459,16 @@
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="19" t="str">
+      <c r="N28" s="17">
+        <f>Notenliste!I26</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="19" t="str">
         <f>UPPER(Notenliste!L26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -7386,9 +7488,10 @@
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
-      <c r="N29" s="60"/>
-    </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="58"/>
+      <c r="O29" s="60"/>
+    </row>
+    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
         <v>41</v>
       </c>
@@ -7405,8 +7508,9 @@
       <c r="L30" s="96"/>
       <c r="M30" s="96"/>
       <c r="N30" s="96"/>
-    </row>
-    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="96"/>
+    </row>
+    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -7421,8 +7525,9 @@
       <c r="L31" s="96"/>
       <c r="M31" s="96"/>
       <c r="N31" s="96"/>
-    </row>
-    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="96"/>
+    </row>
+    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -7437,8 +7542,9 @@
       <c r="L32" s="96"/>
       <c r="M32" s="96"/>
       <c r="N32" s="96"/>
-    </row>
-    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="96"/>
+    </row>
+    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -7453,8 +7559,9 @@
       <c r="L33" s="96"/>
       <c r="M33" s="96"/>
       <c r="N33" s="96"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O33" s="96"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -7469,15 +7576,16 @@
       <c r="L34" s="96"/>
       <c r="M34" s="96"/>
       <c r="N34" s="96"/>
-      <c r="O34" s="61"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="A30:N34"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="A30:O34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.9055118110236221" bottom="1.1023622047244095" header="0.70866141732283472" footer="0.55118110236220474"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7495,7 +7603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7505,24 +7613,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7551,7 +7659,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
@@ -7579,7 +7687,7 @@
       <c r="W2" s="99"/>
       <c r="X2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7608,7 +7716,7 @@
       <c r="W3" s="101"/>
       <c r="X3" s="101"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
@@ -7650,7 +7758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -7704,7 +7812,7 @@
       <c r="W5" s="98"/>
       <c r="X5" s="98"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7744,7 +7852,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7784,7 +7892,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7824,7 +7932,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7864,7 +7972,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -7904,7 +8012,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -7944,7 +8052,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -7984,7 +8092,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8024,7 +8132,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8064,7 +8172,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8104,7 +8212,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8144,7 +8252,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8184,7 +8292,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8224,7 +8332,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8264,7 +8372,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8304,7 +8412,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8344,7 +8452,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8384,7 +8492,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8424,7 +8532,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8464,7 +8572,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8504,7 +8612,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8544,7 +8652,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8584,7 +8692,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8624,7 +8732,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8664,7 +8772,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8735,25 +8843,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8779,7 +8887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8797,7 +8905,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8815,7 +8923,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8833,7 +8941,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8851,7 +8959,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8869,7 +8977,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8887,7 +8995,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -8905,7 +9013,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -8923,7 +9031,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -8941,7 +9049,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -8959,7 +9067,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -8977,7 +9085,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -8995,7 +9103,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9013,7 +9121,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9031,7 +9139,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9049,7 +9157,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9067,7 +9175,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9085,7 +9193,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9103,7 +9211,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9121,7 +9229,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9139,7 +9247,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9157,7 +9265,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9175,7 +9283,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9193,7 +9301,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9211,7 +9319,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9232,21 +9340,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -9264,26 +9372,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -9300,7 +9408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -9317,7 +9425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -9334,7 +9442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -9349,7 +9457,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -9364,7 +9472,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -9379,7 +9487,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -9394,7 +9502,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -9409,7 +9517,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -9424,7 +9532,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -9435,7 +9543,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -9446,7 +9554,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -9457,7 +9565,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -9468,7 +9576,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -9479,7 +9587,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -9490,7 +9598,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9501,7 +9609,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9510,7 +9618,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urvdp\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DBA79A-AA46-448B-A54A-24CEA4E240D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -23,12 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -517,11 +518,14 @@
   <si>
     <t>bestanden statt Note</t>
   </si>
+  <si>
+    <t>Leistungs-punkte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1122,8 +1126,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1219,7 +1223,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1469,45 +1473,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="7" name="Note" dataDxfId="14"/>
-    <tableColumn id="8" name="LP" dataDxfId="13"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="10" name="Telefon" dataDxfId="11"/>
-    <tableColumn id="11" name="bestanden" dataDxfId="10"/>
-    <tableColumn id="9" name="Teilnahmeschein" dataDxfId="9"/>
-    <tableColumn id="6" name="Schein erhalten" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Telefon" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="bestanden" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Teilnahmeschein" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1799,32 +1803,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="39" customWidth="1"/>
     <col min="12" max="12" width="15" style="39" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="13" max="13" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1914,7 +1918,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1922,7 +1926,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1930,7 +1934,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1938,7 +1942,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1946,7 +1950,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1962,7 +1966,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1970,7 +1974,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1978,7 +1982,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1987,7 +1991,7 @@
       <c r="G12" s="41"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1996,7 +2000,7 @@
       <c r="G13" s="41"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2005,7 +2009,7 @@
       <c r="G14" s="41"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2014,7 +2018,7 @@
       <c r="G15" s="41"/>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2023,7 +2027,7 @@
       <c r="G16" s="41"/>
       <c r="L16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="G17" s="41"/>
       <c r="L17" s="41"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2058,7 +2062,7 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2071,7 +2075,7 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2084,27 +2088,27 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2124,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2134,547 +2138,547 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" hidden="1"/>
-    <col min="16" max="16" width="5.140625" style="1" hidden="1"/>
-    <col min="17" max="17" width="6.7109375" style="2" hidden="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.109375" style="1" hidden="1"/>
+    <col min="17" max="17" width="6.6640625" style="2" hidden="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
     <col min="19" max="19" width="16" style="1" hidden="1"/>
-    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
-    <col min="21" max="245" width="11.42578125" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.42578125" style="1" hidden="1"/>
-    <col min="247" max="247" width="11.42578125" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.7109375" style="1" hidden="1"/>
-    <col min="249" max="249" width="21.7109375" style="1" hidden="1"/>
-    <col min="250" max="252" width="11.42578125" style="1" hidden="1"/>
+    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
+    <col min="21" max="245" width="11.44140625" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.44140625" style="1" hidden="1"/>
+    <col min="247" max="247" width="11.44140625" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.6640625" style="1" hidden="1"/>
+    <col min="249" max="249" width="21.6640625" style="1" hidden="1"/>
+    <col min="250" max="252" width="11.44140625" style="1" hidden="1"/>
     <col min="253" max="253" width="16" style="1" hidden="1"/>
-    <col min="254" max="254" width="20.42578125" style="1" hidden="1"/>
-    <col min="255" max="501" width="11.42578125" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.42578125" style="1" hidden="1"/>
-    <col min="503" max="503" width="11.42578125" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.7109375" style="1" hidden="1"/>
-    <col min="505" max="505" width="21.7109375" style="1" hidden="1"/>
-    <col min="506" max="508" width="11.42578125" style="1" hidden="1"/>
+    <col min="254" max="254" width="20.44140625" style="1" hidden="1"/>
+    <col min="255" max="501" width="11.44140625" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.44140625" style="1" hidden="1"/>
+    <col min="503" max="503" width="11.44140625" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.6640625" style="1" hidden="1"/>
+    <col min="505" max="505" width="21.6640625" style="1" hidden="1"/>
+    <col min="506" max="508" width="11.44140625" style="1" hidden="1"/>
     <col min="509" max="509" width="16" style="1" hidden="1"/>
-    <col min="510" max="510" width="20.42578125" style="1" hidden="1"/>
-    <col min="511" max="757" width="11.42578125" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.42578125" style="1" hidden="1"/>
-    <col min="759" max="759" width="11.42578125" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.7109375" style="1" hidden="1"/>
-    <col min="761" max="761" width="21.7109375" style="1" hidden="1"/>
-    <col min="762" max="764" width="11.42578125" style="1" hidden="1"/>
+    <col min="510" max="510" width="20.44140625" style="1" hidden="1"/>
+    <col min="511" max="757" width="11.44140625" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.44140625" style="1" hidden="1"/>
+    <col min="759" max="759" width="11.44140625" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.6640625" style="1" hidden="1"/>
+    <col min="761" max="761" width="21.6640625" style="1" hidden="1"/>
+    <col min="762" max="764" width="11.44140625" style="1" hidden="1"/>
     <col min="765" max="765" width="16" style="1" hidden="1"/>
-    <col min="766" max="766" width="20.42578125" style="1" hidden="1"/>
-    <col min="767" max="1013" width="11.42578125" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.42578125" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="11.42578125" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.7109375" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="21.7109375" style="1" hidden="1"/>
-    <col min="1018" max="1020" width="11.42578125" style="1" hidden="1"/>
+    <col min="766" max="766" width="20.44140625" style="1" hidden="1"/>
+    <col min="767" max="1013" width="11.44140625" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.44140625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="11.44140625" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.6640625" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="21.6640625" style="1" hidden="1"/>
+    <col min="1018" max="1020" width="11.44140625" style="1" hidden="1"/>
     <col min="1021" max="1021" width="16" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="20.42578125" style="1" hidden="1"/>
-    <col min="1023" max="1269" width="11.42578125" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.42578125" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="11.42578125" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.7109375" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="21.7109375" style="1" hidden="1"/>
-    <col min="1274" max="1276" width="11.42578125" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="20.44140625" style="1" hidden="1"/>
+    <col min="1023" max="1269" width="11.44140625" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.44140625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="11.44140625" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.6640625" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="21.6640625" style="1" hidden="1"/>
+    <col min="1274" max="1276" width="11.44140625" style="1" hidden="1"/>
     <col min="1277" max="1277" width="16" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="20.42578125" style="1" hidden="1"/>
-    <col min="1279" max="1525" width="11.42578125" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.42578125" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="11.42578125" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.7109375" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="21.7109375" style="1" hidden="1"/>
-    <col min="1530" max="1532" width="11.42578125" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="20.44140625" style="1" hidden="1"/>
+    <col min="1279" max="1525" width="11.44140625" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.44140625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="11.44140625" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.6640625" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="21.6640625" style="1" hidden="1"/>
+    <col min="1530" max="1532" width="11.44140625" style="1" hidden="1"/>
     <col min="1533" max="1533" width="16" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="20.42578125" style="1" hidden="1"/>
-    <col min="1535" max="1781" width="11.42578125" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.42578125" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="11.42578125" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.7109375" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="21.7109375" style="1" hidden="1"/>
-    <col min="1786" max="1788" width="11.42578125" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="20.44140625" style="1" hidden="1"/>
+    <col min="1535" max="1781" width="11.44140625" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.44140625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="11.44140625" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.6640625" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="21.6640625" style="1" hidden="1"/>
+    <col min="1786" max="1788" width="11.44140625" style="1" hidden="1"/>
     <col min="1789" max="1789" width="16" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="20.42578125" style="1" hidden="1"/>
-    <col min="1791" max="2037" width="11.42578125" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.42578125" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="11.42578125" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.7109375" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="21.7109375" style="1" hidden="1"/>
-    <col min="2042" max="2044" width="11.42578125" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="20.44140625" style="1" hidden="1"/>
+    <col min="1791" max="2037" width="11.44140625" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.44140625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="11.44140625" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.6640625" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="21.6640625" style="1" hidden="1"/>
+    <col min="2042" max="2044" width="11.44140625" style="1" hidden="1"/>
     <col min="2045" max="2045" width="16" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="20.42578125" style="1" hidden="1"/>
-    <col min="2047" max="2293" width="11.42578125" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.42578125" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="11.42578125" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.7109375" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="21.7109375" style="1" hidden="1"/>
-    <col min="2298" max="2300" width="11.42578125" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="20.44140625" style="1" hidden="1"/>
+    <col min="2047" max="2293" width="11.44140625" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.44140625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="11.44140625" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.6640625" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="21.6640625" style="1" hidden="1"/>
+    <col min="2298" max="2300" width="11.44140625" style="1" hidden="1"/>
     <col min="2301" max="2301" width="16" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="20.42578125" style="1" hidden="1"/>
-    <col min="2303" max="2549" width="11.42578125" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.42578125" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="11.42578125" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.7109375" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="21.7109375" style="1" hidden="1"/>
-    <col min="2554" max="2556" width="11.42578125" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="20.44140625" style="1" hidden="1"/>
+    <col min="2303" max="2549" width="11.44140625" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.44140625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="11.44140625" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.6640625" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="21.6640625" style="1" hidden="1"/>
+    <col min="2554" max="2556" width="11.44140625" style="1" hidden="1"/>
     <col min="2557" max="2557" width="16" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="20.42578125" style="1" hidden="1"/>
-    <col min="2559" max="2805" width="11.42578125" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.42578125" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="11.42578125" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.7109375" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="21.7109375" style="1" hidden="1"/>
-    <col min="2810" max="2812" width="11.42578125" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="20.44140625" style="1" hidden="1"/>
+    <col min="2559" max="2805" width="11.44140625" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.44140625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="11.44140625" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.6640625" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="21.6640625" style="1" hidden="1"/>
+    <col min="2810" max="2812" width="11.44140625" style="1" hidden="1"/>
     <col min="2813" max="2813" width="16" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="20.42578125" style="1" hidden="1"/>
-    <col min="2815" max="3061" width="11.42578125" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.42578125" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="11.42578125" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.7109375" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="21.7109375" style="1" hidden="1"/>
-    <col min="3066" max="3068" width="11.42578125" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="20.44140625" style="1" hidden="1"/>
+    <col min="2815" max="3061" width="11.44140625" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.44140625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="11.44140625" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.6640625" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="21.6640625" style="1" hidden="1"/>
+    <col min="3066" max="3068" width="11.44140625" style="1" hidden="1"/>
     <col min="3069" max="3069" width="16" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="20.42578125" style="1" hidden="1"/>
-    <col min="3071" max="3317" width="11.42578125" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.42578125" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="11.42578125" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.7109375" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="21.7109375" style="1" hidden="1"/>
-    <col min="3322" max="3324" width="11.42578125" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="20.44140625" style="1" hidden="1"/>
+    <col min="3071" max="3317" width="11.44140625" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.44140625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="11.44140625" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.6640625" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="21.6640625" style="1" hidden="1"/>
+    <col min="3322" max="3324" width="11.44140625" style="1" hidden="1"/>
     <col min="3325" max="3325" width="16" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="20.42578125" style="1" hidden="1"/>
-    <col min="3327" max="3573" width="11.42578125" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.42578125" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="11.42578125" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.7109375" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="21.7109375" style="1" hidden="1"/>
-    <col min="3578" max="3580" width="11.42578125" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="20.44140625" style="1" hidden="1"/>
+    <col min="3327" max="3573" width="11.44140625" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.44140625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="11.44140625" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.6640625" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="21.6640625" style="1" hidden="1"/>
+    <col min="3578" max="3580" width="11.44140625" style="1" hidden="1"/>
     <col min="3581" max="3581" width="16" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="20.42578125" style="1" hidden="1"/>
-    <col min="3583" max="3829" width="11.42578125" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.42578125" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="11.42578125" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.7109375" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="21.7109375" style="1" hidden="1"/>
-    <col min="3834" max="3836" width="11.42578125" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="20.44140625" style="1" hidden="1"/>
+    <col min="3583" max="3829" width="11.44140625" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.44140625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="11.44140625" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.6640625" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="21.6640625" style="1" hidden="1"/>
+    <col min="3834" max="3836" width="11.44140625" style="1" hidden="1"/>
     <col min="3837" max="3837" width="16" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="20.42578125" style="1" hidden="1"/>
-    <col min="3839" max="4085" width="11.42578125" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.42578125" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="11.42578125" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.7109375" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="21.7109375" style="1" hidden="1"/>
-    <col min="4090" max="4092" width="11.42578125" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="20.44140625" style="1" hidden="1"/>
+    <col min="3839" max="4085" width="11.44140625" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.44140625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="11.44140625" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.6640625" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="21.6640625" style="1" hidden="1"/>
+    <col min="4090" max="4092" width="11.44140625" style="1" hidden="1"/>
     <col min="4093" max="4093" width="16" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="20.42578125" style="1" hidden="1"/>
-    <col min="4095" max="4341" width="11.42578125" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.42578125" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="11.42578125" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.7109375" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="21.7109375" style="1" hidden="1"/>
-    <col min="4346" max="4348" width="11.42578125" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="20.44140625" style="1" hidden="1"/>
+    <col min="4095" max="4341" width="11.44140625" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.44140625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="11.44140625" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.6640625" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="21.6640625" style="1" hidden="1"/>
+    <col min="4346" max="4348" width="11.44140625" style="1" hidden="1"/>
     <col min="4349" max="4349" width="16" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="20.42578125" style="1" hidden="1"/>
-    <col min="4351" max="4597" width="11.42578125" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.42578125" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="11.42578125" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.7109375" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="21.7109375" style="1" hidden="1"/>
-    <col min="4602" max="4604" width="11.42578125" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="20.44140625" style="1" hidden="1"/>
+    <col min="4351" max="4597" width="11.44140625" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.44140625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="11.44140625" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.6640625" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="21.6640625" style="1" hidden="1"/>
+    <col min="4602" max="4604" width="11.44140625" style="1" hidden="1"/>
     <col min="4605" max="4605" width="16" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="20.42578125" style="1" hidden="1"/>
-    <col min="4607" max="4853" width="11.42578125" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.42578125" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="11.42578125" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.7109375" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="21.7109375" style="1" hidden="1"/>
-    <col min="4858" max="4860" width="11.42578125" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="20.44140625" style="1" hidden="1"/>
+    <col min="4607" max="4853" width="11.44140625" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.44140625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="11.44140625" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.6640625" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="21.6640625" style="1" hidden="1"/>
+    <col min="4858" max="4860" width="11.44140625" style="1" hidden="1"/>
     <col min="4861" max="4861" width="16" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="20.42578125" style="1" hidden="1"/>
-    <col min="4863" max="5109" width="11.42578125" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.42578125" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="11.42578125" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.7109375" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="21.7109375" style="1" hidden="1"/>
-    <col min="5114" max="5116" width="11.42578125" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="20.44140625" style="1" hidden="1"/>
+    <col min="4863" max="5109" width="11.44140625" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.44140625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="11.44140625" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.6640625" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="21.6640625" style="1" hidden="1"/>
+    <col min="5114" max="5116" width="11.44140625" style="1" hidden="1"/>
     <col min="5117" max="5117" width="16" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="20.42578125" style="1" hidden="1"/>
-    <col min="5119" max="5365" width="11.42578125" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.42578125" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="11.42578125" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.7109375" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="21.7109375" style="1" hidden="1"/>
-    <col min="5370" max="5372" width="11.42578125" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="20.44140625" style="1" hidden="1"/>
+    <col min="5119" max="5365" width="11.44140625" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.44140625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="11.44140625" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.6640625" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="21.6640625" style="1" hidden="1"/>
+    <col min="5370" max="5372" width="11.44140625" style="1" hidden="1"/>
     <col min="5373" max="5373" width="16" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="20.42578125" style="1" hidden="1"/>
-    <col min="5375" max="5621" width="11.42578125" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.42578125" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="11.42578125" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.7109375" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="21.7109375" style="1" hidden="1"/>
-    <col min="5626" max="5628" width="11.42578125" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="20.44140625" style="1" hidden="1"/>
+    <col min="5375" max="5621" width="11.44140625" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.44140625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="11.44140625" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.6640625" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="21.6640625" style="1" hidden="1"/>
+    <col min="5626" max="5628" width="11.44140625" style="1" hidden="1"/>
     <col min="5629" max="5629" width="16" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="20.42578125" style="1" hidden="1"/>
-    <col min="5631" max="5877" width="11.42578125" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.42578125" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="11.42578125" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.7109375" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="21.7109375" style="1" hidden="1"/>
-    <col min="5882" max="5884" width="11.42578125" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="20.44140625" style="1" hidden="1"/>
+    <col min="5631" max="5877" width="11.44140625" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.44140625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="11.44140625" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.6640625" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="21.6640625" style="1" hidden="1"/>
+    <col min="5882" max="5884" width="11.44140625" style="1" hidden="1"/>
     <col min="5885" max="5885" width="16" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="20.42578125" style="1" hidden="1"/>
-    <col min="5887" max="6133" width="11.42578125" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.42578125" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="11.42578125" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.7109375" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="21.7109375" style="1" hidden="1"/>
-    <col min="6138" max="6140" width="11.42578125" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="20.44140625" style="1" hidden="1"/>
+    <col min="5887" max="6133" width="11.44140625" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.44140625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="11.44140625" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.6640625" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="21.6640625" style="1" hidden="1"/>
+    <col min="6138" max="6140" width="11.44140625" style="1" hidden="1"/>
     <col min="6141" max="6141" width="16" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="20.42578125" style="1" hidden="1"/>
-    <col min="6143" max="6389" width="11.42578125" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.42578125" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="11.42578125" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.7109375" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="21.7109375" style="1" hidden="1"/>
-    <col min="6394" max="6396" width="11.42578125" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="20.44140625" style="1" hidden="1"/>
+    <col min="6143" max="6389" width="11.44140625" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.44140625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="11.44140625" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.6640625" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="21.6640625" style="1" hidden="1"/>
+    <col min="6394" max="6396" width="11.44140625" style="1" hidden="1"/>
     <col min="6397" max="6397" width="16" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="20.42578125" style="1" hidden="1"/>
-    <col min="6399" max="6645" width="11.42578125" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.42578125" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="11.42578125" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.7109375" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="21.7109375" style="1" hidden="1"/>
-    <col min="6650" max="6652" width="11.42578125" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="20.44140625" style="1" hidden="1"/>
+    <col min="6399" max="6645" width="11.44140625" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.44140625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="11.44140625" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.6640625" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="21.6640625" style="1" hidden="1"/>
+    <col min="6650" max="6652" width="11.44140625" style="1" hidden="1"/>
     <col min="6653" max="6653" width="16" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="20.42578125" style="1" hidden="1"/>
-    <col min="6655" max="6901" width="11.42578125" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.42578125" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="11.42578125" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.7109375" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="21.7109375" style="1" hidden="1"/>
-    <col min="6906" max="6908" width="11.42578125" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="20.44140625" style="1" hidden="1"/>
+    <col min="6655" max="6901" width="11.44140625" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.44140625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="11.44140625" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.6640625" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="21.6640625" style="1" hidden="1"/>
+    <col min="6906" max="6908" width="11.44140625" style="1" hidden="1"/>
     <col min="6909" max="6909" width="16" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="20.42578125" style="1" hidden="1"/>
-    <col min="6911" max="7157" width="11.42578125" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.42578125" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="11.42578125" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.7109375" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="21.7109375" style="1" hidden="1"/>
-    <col min="7162" max="7164" width="11.42578125" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="20.44140625" style="1" hidden="1"/>
+    <col min="6911" max="7157" width="11.44140625" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.44140625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="11.44140625" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.6640625" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="21.6640625" style="1" hidden="1"/>
+    <col min="7162" max="7164" width="11.44140625" style="1" hidden="1"/>
     <col min="7165" max="7165" width="16" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="20.42578125" style="1" hidden="1"/>
-    <col min="7167" max="7413" width="11.42578125" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.42578125" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="11.42578125" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.7109375" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="21.7109375" style="1" hidden="1"/>
-    <col min="7418" max="7420" width="11.42578125" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="20.44140625" style="1" hidden="1"/>
+    <col min="7167" max="7413" width="11.44140625" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.44140625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="11.44140625" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.6640625" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="21.6640625" style="1" hidden="1"/>
+    <col min="7418" max="7420" width="11.44140625" style="1" hidden="1"/>
     <col min="7421" max="7421" width="16" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="20.42578125" style="1" hidden="1"/>
-    <col min="7423" max="7669" width="11.42578125" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.42578125" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="11.42578125" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.7109375" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="21.7109375" style="1" hidden="1"/>
-    <col min="7674" max="7676" width="11.42578125" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="20.44140625" style="1" hidden="1"/>
+    <col min="7423" max="7669" width="11.44140625" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.44140625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="11.44140625" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.6640625" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="21.6640625" style="1" hidden="1"/>
+    <col min="7674" max="7676" width="11.44140625" style="1" hidden="1"/>
     <col min="7677" max="7677" width="16" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="20.42578125" style="1" hidden="1"/>
-    <col min="7679" max="7925" width="11.42578125" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.42578125" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="11.42578125" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.7109375" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="21.7109375" style="1" hidden="1"/>
-    <col min="7930" max="7932" width="11.42578125" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="20.44140625" style="1" hidden="1"/>
+    <col min="7679" max="7925" width="11.44140625" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.44140625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="11.44140625" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.6640625" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="21.6640625" style="1" hidden="1"/>
+    <col min="7930" max="7932" width="11.44140625" style="1" hidden="1"/>
     <col min="7933" max="7933" width="16" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="20.42578125" style="1" hidden="1"/>
-    <col min="7935" max="8181" width="11.42578125" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.42578125" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="11.42578125" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.7109375" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="21.7109375" style="1" hidden="1"/>
-    <col min="8186" max="8188" width="11.42578125" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="20.44140625" style="1" hidden="1"/>
+    <col min="7935" max="8181" width="11.44140625" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.44140625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="11.44140625" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.6640625" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="21.6640625" style="1" hidden="1"/>
+    <col min="8186" max="8188" width="11.44140625" style="1" hidden="1"/>
     <col min="8189" max="8189" width="16" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="20.42578125" style="1" hidden="1"/>
-    <col min="8191" max="8437" width="11.42578125" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.42578125" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="11.42578125" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.7109375" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="21.7109375" style="1" hidden="1"/>
-    <col min="8442" max="8444" width="11.42578125" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="20.44140625" style="1" hidden="1"/>
+    <col min="8191" max="8437" width="11.44140625" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.44140625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="11.44140625" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.6640625" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="21.6640625" style="1" hidden="1"/>
+    <col min="8442" max="8444" width="11.44140625" style="1" hidden="1"/>
     <col min="8445" max="8445" width="16" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="20.42578125" style="1" hidden="1"/>
-    <col min="8447" max="8693" width="11.42578125" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.42578125" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="11.42578125" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.7109375" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="21.7109375" style="1" hidden="1"/>
-    <col min="8698" max="8700" width="11.42578125" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="20.44140625" style="1" hidden="1"/>
+    <col min="8447" max="8693" width="11.44140625" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.44140625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="11.44140625" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.6640625" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="21.6640625" style="1" hidden="1"/>
+    <col min="8698" max="8700" width="11.44140625" style="1" hidden="1"/>
     <col min="8701" max="8701" width="16" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="20.42578125" style="1" hidden="1"/>
-    <col min="8703" max="8949" width="11.42578125" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.42578125" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="11.42578125" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.7109375" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="21.7109375" style="1" hidden="1"/>
-    <col min="8954" max="8956" width="11.42578125" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="20.44140625" style="1" hidden="1"/>
+    <col min="8703" max="8949" width="11.44140625" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.44140625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="11.44140625" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.6640625" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="21.6640625" style="1" hidden="1"/>
+    <col min="8954" max="8956" width="11.44140625" style="1" hidden="1"/>
     <col min="8957" max="8957" width="16" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="20.42578125" style="1" hidden="1"/>
-    <col min="8959" max="9205" width="11.42578125" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.42578125" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="11.42578125" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.7109375" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="21.7109375" style="1" hidden="1"/>
-    <col min="9210" max="9212" width="11.42578125" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="20.44140625" style="1" hidden="1"/>
+    <col min="8959" max="9205" width="11.44140625" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.44140625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="11.44140625" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.6640625" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="21.6640625" style="1" hidden="1"/>
+    <col min="9210" max="9212" width="11.44140625" style="1" hidden="1"/>
     <col min="9213" max="9213" width="16" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="20.42578125" style="1" hidden="1"/>
-    <col min="9215" max="9461" width="11.42578125" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.42578125" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="11.42578125" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.7109375" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="21.7109375" style="1" hidden="1"/>
-    <col min="9466" max="9468" width="11.42578125" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="20.44140625" style="1" hidden="1"/>
+    <col min="9215" max="9461" width="11.44140625" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.44140625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="11.44140625" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.6640625" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="21.6640625" style="1" hidden="1"/>
+    <col min="9466" max="9468" width="11.44140625" style="1" hidden="1"/>
     <col min="9469" max="9469" width="16" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="20.42578125" style="1" hidden="1"/>
-    <col min="9471" max="9717" width="11.42578125" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.42578125" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="11.42578125" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.7109375" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="21.7109375" style="1" hidden="1"/>
-    <col min="9722" max="9724" width="11.42578125" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="20.44140625" style="1" hidden="1"/>
+    <col min="9471" max="9717" width="11.44140625" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.44140625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="11.44140625" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.6640625" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="21.6640625" style="1" hidden="1"/>
+    <col min="9722" max="9724" width="11.44140625" style="1" hidden="1"/>
     <col min="9725" max="9725" width="16" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="20.42578125" style="1" hidden="1"/>
-    <col min="9727" max="9973" width="11.42578125" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.42578125" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="11.42578125" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.7109375" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="21.7109375" style="1" hidden="1"/>
-    <col min="9978" max="9980" width="11.42578125" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="20.44140625" style="1" hidden="1"/>
+    <col min="9727" max="9973" width="11.44140625" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.44140625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="11.44140625" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.6640625" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="21.6640625" style="1" hidden="1"/>
+    <col min="9978" max="9980" width="11.44140625" style="1" hidden="1"/>
     <col min="9981" max="9981" width="16" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="20.42578125" style="1" hidden="1"/>
-    <col min="9983" max="10229" width="11.42578125" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.42578125" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="11.42578125" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.7109375" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="21.7109375" style="1" hidden="1"/>
-    <col min="10234" max="10236" width="11.42578125" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="20.44140625" style="1" hidden="1"/>
+    <col min="9983" max="10229" width="11.44140625" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.44140625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="11.44140625" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.6640625" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="21.6640625" style="1" hidden="1"/>
+    <col min="10234" max="10236" width="11.44140625" style="1" hidden="1"/>
     <col min="10237" max="10237" width="16" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="20.42578125" style="1" hidden="1"/>
-    <col min="10239" max="10485" width="11.42578125" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.42578125" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="11.42578125" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.7109375" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="21.7109375" style="1" hidden="1"/>
-    <col min="10490" max="10492" width="11.42578125" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="20.44140625" style="1" hidden="1"/>
+    <col min="10239" max="10485" width="11.44140625" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.44140625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="11.44140625" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.6640625" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="21.6640625" style="1" hidden="1"/>
+    <col min="10490" max="10492" width="11.44140625" style="1" hidden="1"/>
     <col min="10493" max="10493" width="16" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="20.42578125" style="1" hidden="1"/>
-    <col min="10495" max="10741" width="11.42578125" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.42578125" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="11.42578125" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.7109375" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="21.7109375" style="1" hidden="1"/>
-    <col min="10746" max="10748" width="11.42578125" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="20.44140625" style="1" hidden="1"/>
+    <col min="10495" max="10741" width="11.44140625" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.44140625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="11.44140625" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.6640625" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="21.6640625" style="1" hidden="1"/>
+    <col min="10746" max="10748" width="11.44140625" style="1" hidden="1"/>
     <col min="10749" max="10749" width="16" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="20.42578125" style="1" hidden="1"/>
-    <col min="10751" max="10997" width="11.42578125" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.42578125" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="11.42578125" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.7109375" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="21.7109375" style="1" hidden="1"/>
-    <col min="11002" max="11004" width="11.42578125" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="20.44140625" style="1" hidden="1"/>
+    <col min="10751" max="10997" width="11.44140625" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.44140625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="11.44140625" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.6640625" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="21.6640625" style="1" hidden="1"/>
+    <col min="11002" max="11004" width="11.44140625" style="1" hidden="1"/>
     <col min="11005" max="11005" width="16" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="20.42578125" style="1" hidden="1"/>
-    <col min="11007" max="11253" width="11.42578125" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.42578125" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="11.42578125" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.7109375" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="21.7109375" style="1" hidden="1"/>
-    <col min="11258" max="11260" width="11.42578125" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="20.44140625" style="1" hidden="1"/>
+    <col min="11007" max="11253" width="11.44140625" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.44140625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="11.44140625" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.6640625" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="21.6640625" style="1" hidden="1"/>
+    <col min="11258" max="11260" width="11.44140625" style="1" hidden="1"/>
     <col min="11261" max="11261" width="16" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="20.42578125" style="1" hidden="1"/>
-    <col min="11263" max="11509" width="11.42578125" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.42578125" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="11.42578125" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.7109375" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="21.7109375" style="1" hidden="1"/>
-    <col min="11514" max="11516" width="11.42578125" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="20.44140625" style="1" hidden="1"/>
+    <col min="11263" max="11509" width="11.44140625" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.44140625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="11.44140625" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.6640625" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="21.6640625" style="1" hidden="1"/>
+    <col min="11514" max="11516" width="11.44140625" style="1" hidden="1"/>
     <col min="11517" max="11517" width="16" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="20.42578125" style="1" hidden="1"/>
-    <col min="11519" max="11765" width="11.42578125" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.42578125" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="11.42578125" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.7109375" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="21.7109375" style="1" hidden="1"/>
-    <col min="11770" max="11772" width="11.42578125" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="20.44140625" style="1" hidden="1"/>
+    <col min="11519" max="11765" width="11.44140625" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.44140625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="11.44140625" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.6640625" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="21.6640625" style="1" hidden="1"/>
+    <col min="11770" max="11772" width="11.44140625" style="1" hidden="1"/>
     <col min="11773" max="11773" width="16" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="20.42578125" style="1" hidden="1"/>
-    <col min="11775" max="12021" width="11.42578125" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.42578125" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="11.42578125" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.7109375" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="21.7109375" style="1" hidden="1"/>
-    <col min="12026" max="12028" width="11.42578125" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="20.44140625" style="1" hidden="1"/>
+    <col min="11775" max="12021" width="11.44140625" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.44140625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="11.44140625" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.6640625" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="21.6640625" style="1" hidden="1"/>
+    <col min="12026" max="12028" width="11.44140625" style="1" hidden="1"/>
     <col min="12029" max="12029" width="16" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="20.42578125" style="1" hidden="1"/>
-    <col min="12031" max="12277" width="11.42578125" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.42578125" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="11.42578125" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.7109375" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="21.7109375" style="1" hidden="1"/>
-    <col min="12282" max="12284" width="11.42578125" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="20.44140625" style="1" hidden="1"/>
+    <col min="12031" max="12277" width="11.44140625" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.44140625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="11.44140625" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.6640625" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="21.6640625" style="1" hidden="1"/>
+    <col min="12282" max="12284" width="11.44140625" style="1" hidden="1"/>
     <col min="12285" max="12285" width="16" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="20.42578125" style="1" hidden="1"/>
-    <col min="12287" max="12533" width="11.42578125" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.42578125" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="11.42578125" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.7109375" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="21.7109375" style="1" hidden="1"/>
-    <col min="12538" max="12540" width="11.42578125" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="20.44140625" style="1" hidden="1"/>
+    <col min="12287" max="12533" width="11.44140625" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.44140625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="11.44140625" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.6640625" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="21.6640625" style="1" hidden="1"/>
+    <col min="12538" max="12540" width="11.44140625" style="1" hidden="1"/>
     <col min="12541" max="12541" width="16" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="20.42578125" style="1" hidden="1"/>
-    <col min="12543" max="12789" width="11.42578125" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.42578125" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="11.42578125" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.7109375" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="21.7109375" style="1" hidden="1"/>
-    <col min="12794" max="12796" width="11.42578125" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="20.44140625" style="1" hidden="1"/>
+    <col min="12543" max="12789" width="11.44140625" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.44140625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="11.44140625" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.6640625" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="21.6640625" style="1" hidden="1"/>
+    <col min="12794" max="12796" width="11.44140625" style="1" hidden="1"/>
     <col min="12797" max="12797" width="16" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="20.42578125" style="1" hidden="1"/>
-    <col min="12799" max="13045" width="11.42578125" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.42578125" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="11.42578125" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.7109375" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="21.7109375" style="1" hidden="1"/>
-    <col min="13050" max="13052" width="11.42578125" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="20.44140625" style="1" hidden="1"/>
+    <col min="12799" max="13045" width="11.44140625" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.44140625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="11.44140625" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.6640625" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="21.6640625" style="1" hidden="1"/>
+    <col min="13050" max="13052" width="11.44140625" style="1" hidden="1"/>
     <col min="13053" max="13053" width="16" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="20.42578125" style="1" hidden="1"/>
-    <col min="13055" max="13301" width="11.42578125" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.42578125" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="11.42578125" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.7109375" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="21.7109375" style="1" hidden="1"/>
-    <col min="13306" max="13308" width="11.42578125" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="20.44140625" style="1" hidden="1"/>
+    <col min="13055" max="13301" width="11.44140625" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.44140625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="11.44140625" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.6640625" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="21.6640625" style="1" hidden="1"/>
+    <col min="13306" max="13308" width="11.44140625" style="1" hidden="1"/>
     <col min="13309" max="13309" width="16" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="20.42578125" style="1" hidden="1"/>
-    <col min="13311" max="13557" width="11.42578125" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.42578125" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="11.42578125" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.7109375" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="21.7109375" style="1" hidden="1"/>
-    <col min="13562" max="13564" width="11.42578125" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="20.44140625" style="1" hidden="1"/>
+    <col min="13311" max="13557" width="11.44140625" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.44140625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="11.44140625" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.6640625" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="21.6640625" style="1" hidden="1"/>
+    <col min="13562" max="13564" width="11.44140625" style="1" hidden="1"/>
     <col min="13565" max="13565" width="16" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="20.42578125" style="1" hidden="1"/>
-    <col min="13567" max="13813" width="11.42578125" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.42578125" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="11.42578125" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.7109375" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="21.7109375" style="1" hidden="1"/>
-    <col min="13818" max="13820" width="11.42578125" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="20.44140625" style="1" hidden="1"/>
+    <col min="13567" max="13813" width="11.44140625" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.44140625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="11.44140625" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.6640625" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="21.6640625" style="1" hidden="1"/>
+    <col min="13818" max="13820" width="11.44140625" style="1" hidden="1"/>
     <col min="13821" max="13821" width="16" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="20.42578125" style="1" hidden="1"/>
-    <col min="13823" max="14069" width="11.42578125" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.42578125" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="11.42578125" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.7109375" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="21.7109375" style="1" hidden="1"/>
-    <col min="14074" max="14076" width="11.42578125" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="20.44140625" style="1" hidden="1"/>
+    <col min="13823" max="14069" width="11.44140625" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.44140625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="11.44140625" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.6640625" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="21.6640625" style="1" hidden="1"/>
+    <col min="14074" max="14076" width="11.44140625" style="1" hidden="1"/>
     <col min="14077" max="14077" width="16" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="20.42578125" style="1" hidden="1"/>
-    <col min="14079" max="14325" width="11.42578125" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.42578125" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="11.42578125" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.7109375" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="21.7109375" style="1" hidden="1"/>
-    <col min="14330" max="14332" width="11.42578125" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="20.44140625" style="1" hidden="1"/>
+    <col min="14079" max="14325" width="11.44140625" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.44140625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="11.44140625" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.6640625" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="21.6640625" style="1" hidden="1"/>
+    <col min="14330" max="14332" width="11.44140625" style="1" hidden="1"/>
     <col min="14333" max="14333" width="16" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="20.42578125" style="1" hidden="1"/>
-    <col min="14335" max="14581" width="11.42578125" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.42578125" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="11.42578125" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.7109375" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="21.7109375" style="1" hidden="1"/>
-    <col min="14586" max="14588" width="11.42578125" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="20.44140625" style="1" hidden="1"/>
+    <col min="14335" max="14581" width="11.44140625" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.44140625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="11.44140625" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.6640625" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="21.6640625" style="1" hidden="1"/>
+    <col min="14586" max="14588" width="11.44140625" style="1" hidden="1"/>
     <col min="14589" max="14589" width="16" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="20.42578125" style="1" hidden="1"/>
-    <col min="14591" max="14837" width="11.42578125" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.42578125" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="11.42578125" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.7109375" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="21.7109375" style="1" hidden="1"/>
-    <col min="14842" max="14844" width="11.42578125" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="20.44140625" style="1" hidden="1"/>
+    <col min="14591" max="14837" width="11.44140625" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.44140625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="11.44140625" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.6640625" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="21.6640625" style="1" hidden="1"/>
+    <col min="14842" max="14844" width="11.44140625" style="1" hidden="1"/>
     <col min="14845" max="14845" width="16" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="20.42578125" style="1" hidden="1"/>
-    <col min="14847" max="15093" width="11.42578125" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.42578125" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="11.42578125" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.7109375" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="21.7109375" style="1" hidden="1"/>
-    <col min="15098" max="15100" width="11.42578125" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="20.44140625" style="1" hidden="1"/>
+    <col min="14847" max="15093" width="11.44140625" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.44140625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="11.44140625" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.6640625" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="21.6640625" style="1" hidden="1"/>
+    <col min="15098" max="15100" width="11.44140625" style="1" hidden="1"/>
     <col min="15101" max="15101" width="16" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="20.42578125" style="1" hidden="1"/>
-    <col min="15103" max="15349" width="11.42578125" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.42578125" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="11.42578125" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.7109375" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="21.7109375" style="1" hidden="1"/>
-    <col min="15354" max="15356" width="11.42578125" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="20.44140625" style="1" hidden="1"/>
+    <col min="15103" max="15349" width="11.44140625" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.44140625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="11.44140625" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.6640625" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="21.6640625" style="1" hidden="1"/>
+    <col min="15354" max="15356" width="11.44140625" style="1" hidden="1"/>
     <col min="15357" max="15357" width="16" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="20.42578125" style="1" hidden="1"/>
-    <col min="15359" max="15605" width="11.42578125" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.42578125" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="11.42578125" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.7109375" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="21.7109375" style="1" hidden="1"/>
-    <col min="15610" max="15612" width="11.42578125" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="20.44140625" style="1" hidden="1"/>
+    <col min="15359" max="15605" width="11.44140625" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.44140625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="11.44140625" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.6640625" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="21.6640625" style="1" hidden="1"/>
+    <col min="15610" max="15612" width="11.44140625" style="1" hidden="1"/>
     <col min="15613" max="15613" width="16" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="20.42578125" style="1" hidden="1"/>
-    <col min="15615" max="15861" width="11.42578125" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.42578125" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="11.42578125" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.7109375" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="21.7109375" style="1" hidden="1"/>
-    <col min="15866" max="15868" width="11.42578125" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="20.44140625" style="1" hidden="1"/>
+    <col min="15615" max="15861" width="11.44140625" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.44140625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="11.44140625" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.6640625" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="21.6640625" style="1" hidden="1"/>
+    <col min="15866" max="15868" width="11.44140625" style="1" hidden="1"/>
     <col min="15869" max="15869" width="16" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="20.42578125" style="1" hidden="1"/>
-    <col min="15871" max="16117" width="11.42578125" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.42578125" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="11.42578125" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.7109375" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="21.7109375" style="1" hidden="1"/>
-    <col min="16122" max="16124" width="11.42578125" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="20.44140625" style="1" hidden="1"/>
+    <col min="15871" max="16117" width="11.44140625" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.44140625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="11.44140625" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.6640625" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="21.6640625" style="1" hidden="1"/>
+    <col min="16122" max="16124" width="11.44140625" style="1" hidden="1"/>
     <col min="16125" max="16125" width="16" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="20.42578125" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.42578125" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="15.7109375" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="21.7109375" style="1" hidden="1"/>
-    <col min="16134" max="16136" width="11.42578125" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="20.44140625" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="15.6640625" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="21.6640625" style="1" hidden="1"/>
+    <col min="16134" max="16136" width="11.44140625" style="1" hidden="1"/>
     <col min="16137" max="16137" width="16" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="20.42578125" style="1" hidden="1"/>
-    <col min="16140" max="16141" width="11.42578125" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="20.44140625" style="1" hidden="1"/>
+    <col min="16140" max="16141" width="11.44140625" style="1" hidden="1"/>
     <col min="16142" max="16142" width="16" style="1" hidden="1"/>
-    <col min="16143" max="16145" width="20.42578125" style="1" hidden="1"/>
-    <col min="16146" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16143" max="16145" width="20.44140625" style="1" hidden="1"/>
+    <col min="16146" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2796,7 +2800,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2865,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2934,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3003,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3072,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3141,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3210,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3279,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3348,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3417,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3486,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3555,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3624,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3693,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3762,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3831,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3900,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3969,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4038,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4107,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4176,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4245,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4314,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4383,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4452,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4470,7 +4474,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4487,7 +4491,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4508,7 +4512,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4524,7 +4528,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4546,7 +4550,7 @@
       <c r="M31" s="31"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4566,7 +4570,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4586,7 +4590,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4606,7 +4610,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4626,7 +4630,7 @@
       <c r="M35" s="31"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +4650,7 @@
       <c r="M36" s="31"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4666,52 +4670,52 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4721,7 +4725,7 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4739,27 +4743,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4775,7 +4779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4815,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4843,7 +4847,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4875,7 +4879,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4907,7 +4911,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4939,7 +4943,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4971,7 +4975,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5003,7 +5007,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5035,7 +5039,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5067,7 +5071,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5099,7 +5103,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5131,7 +5135,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5163,7 +5167,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5195,7 +5199,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5227,7 +5231,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5259,7 +5263,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5291,7 +5295,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5323,7 +5327,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5355,7 +5359,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5387,7 +5391,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5419,7 +5423,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5451,7 +5455,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5483,7 +5487,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5515,7 +5519,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5547,7 +5551,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5579,7 +5583,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5611,7 +5615,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5627,7 +5631,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5646,7 +5650,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5676,7 +5680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5686,15 +5690,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5708,7 +5712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5831,31 +5835,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.6640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5875,7 +5879,7 @@
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
-    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="94" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -5898,7 +5902,7 @@
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5938,12 +5942,14 @@
       <c r="M3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="O3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
@@ -6065,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
@@ -6126,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
@@ -6187,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6212,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
@@ -6248,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
@@ -6309,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
@@ -6370,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
@@ -6431,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6456,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
@@ -6492,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
@@ -6553,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
@@ -6614,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
@@ -6675,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
@@ -6736,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
@@ -6797,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
@@ -6858,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
@@ -6919,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7005,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
@@ -7041,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
@@ -7102,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7127,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
@@ -7163,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7188,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
@@ -7224,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
@@ -7285,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7310,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
@@ -7346,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
@@ -7407,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -7491,7 +7497,7 @@
       <c r="N29" s="58"/>
       <c r="O29" s="60"/>
     </row>
-    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="96" t="s">
         <v>41</v>
       </c>
@@ -7510,7 +7516,7 @@
       <c r="N30" s="96"/>
       <c r="O30" s="96"/>
     </row>
-    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -7527,7 +7533,7 @@
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
     </row>
-    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -7544,7 +7550,7 @@
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
     </row>
-    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -7561,7 +7567,7 @@
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -7603,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7613,24 +7619,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7659,7 +7665,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
@@ -7687,7 +7693,7 @@
       <c r="W2" s="99"/>
       <c r="X2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7716,7 +7722,7 @@
       <c r="W3" s="101"/>
       <c r="X3" s="101"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -7812,7 +7818,7 @@
       <c r="W5" s="98"/>
       <c r="X5" s="98"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7852,7 +7858,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7892,7 +7898,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7932,7 +7938,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7972,7 +7978,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8012,7 +8018,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8052,7 +8058,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8092,7 +8098,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8132,7 +8138,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8172,7 +8178,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8212,7 +8218,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8252,7 +8258,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8292,7 +8298,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8332,7 +8338,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8372,7 +8378,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8412,7 +8418,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8452,7 +8458,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8492,7 +8498,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8532,7 +8538,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8572,7 +8578,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8612,7 +8618,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8652,7 +8658,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8692,7 +8698,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8732,7 +8738,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8772,7 +8778,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8843,25 +8849,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8905,7 +8911,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8923,7 +8929,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8941,7 +8947,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8959,7 +8965,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8977,7 +8983,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8995,7 +9001,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9013,7 +9019,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9031,7 +9037,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9049,7 +9055,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9067,7 +9073,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9085,7 +9091,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9103,7 +9109,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9121,7 +9127,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9139,7 +9145,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9157,7 +9163,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9175,7 +9181,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9193,7 +9199,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9211,7 +9217,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9229,7 +9235,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9247,7 +9253,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9265,7 +9271,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9283,7 +9289,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9301,7 +9307,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9319,7 +9325,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9340,21 +9346,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -9372,26 +9378,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -9425,7 +9431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -9442,7 +9448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -9457,7 +9463,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -9472,7 +9478,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -9487,7 +9493,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -9502,7 +9508,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -9517,7 +9523,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -9532,7 +9538,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -9543,7 +9549,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -9554,7 +9560,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -9565,7 +9571,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -9576,7 +9582,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -9587,7 +9593,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -9598,7 +9604,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9609,7 +9615,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9618,7 +9624,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DBA79A-AA46-448B-A54A-24CEA4E240D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +23,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -525,7 +524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1126,8 +1125,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1223,7 +1222,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,45 +1472,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:L2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Telefon" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="bestanden" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Teilnahmeschein" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="8"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="7" name="Note" dataDxfId="14"/>
+    <tableColumn id="8" name="LP" dataDxfId="13"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="10" name="Telefon" dataDxfId="11"/>
+    <tableColumn id="11" name="bestanden" dataDxfId="10"/>
+    <tableColumn id="9" name="Teilnahmeschein" dataDxfId="9"/>
+    <tableColumn id="6" name="Schein erhalten" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,32 +1802,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="39" customWidth="1"/>
     <col min="12" max="12" width="15" style="39" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" hidden="1"/>
+    <col min="13" max="13" width="45.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1918,7 +1917,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1934,7 +1933,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1942,7 +1941,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1958,7 +1957,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1966,7 +1965,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1974,7 +1973,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1991,7 +1990,7 @@
       <c r="G12" s="41"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="G13" s="41"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="G14" s="41"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2018,7 +2017,7 @@
       <c r="G15" s="41"/>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="G16" s="41"/>
       <c r="L16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="G17" s="41"/>
       <c r="L17" s="41"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2049,7 +2048,7 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2062,7 +2061,7 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2075,7 +2074,7 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2088,27 +2087,27 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2128,557 +2127,557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVY59"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" hidden="1"/>
-    <col min="16" max="16" width="5.109375" style="1" hidden="1"/>
-    <col min="17" max="17" width="6.6640625" style="2" hidden="1"/>
-    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.140625" style="1" hidden="1"/>
+    <col min="17" max="17" width="6.7109375" style="2" hidden="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
     <col min="19" max="19" width="16" style="1" hidden="1"/>
-    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
-    <col min="21" max="245" width="11.44140625" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.44140625" style="1" hidden="1"/>
-    <col min="247" max="247" width="11.44140625" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.6640625" style="1" hidden="1"/>
-    <col min="249" max="249" width="21.6640625" style="1" hidden="1"/>
-    <col min="250" max="252" width="11.44140625" style="1" hidden="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
+    <col min="21" max="245" width="11.42578125" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.42578125" style="1" hidden="1"/>
+    <col min="247" max="247" width="11.42578125" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.7109375" style="1" hidden="1"/>
+    <col min="249" max="249" width="21.7109375" style="1" hidden="1"/>
+    <col min="250" max="252" width="11.42578125" style="1" hidden="1"/>
     <col min="253" max="253" width="16" style="1" hidden="1"/>
-    <col min="254" max="254" width="20.44140625" style="1" hidden="1"/>
-    <col min="255" max="501" width="11.44140625" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.44140625" style="1" hidden="1"/>
-    <col min="503" max="503" width="11.44140625" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.6640625" style="1" hidden="1"/>
-    <col min="505" max="505" width="21.6640625" style="1" hidden="1"/>
-    <col min="506" max="508" width="11.44140625" style="1" hidden="1"/>
+    <col min="254" max="254" width="20.42578125" style="1" hidden="1"/>
+    <col min="255" max="501" width="11.42578125" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.42578125" style="1" hidden="1"/>
+    <col min="503" max="503" width="11.42578125" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.7109375" style="1" hidden="1"/>
+    <col min="505" max="505" width="21.7109375" style="1" hidden="1"/>
+    <col min="506" max="508" width="11.42578125" style="1" hidden="1"/>
     <col min="509" max="509" width="16" style="1" hidden="1"/>
-    <col min="510" max="510" width="20.44140625" style="1" hidden="1"/>
-    <col min="511" max="757" width="11.44140625" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.44140625" style="1" hidden="1"/>
-    <col min="759" max="759" width="11.44140625" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.6640625" style="1" hidden="1"/>
-    <col min="761" max="761" width="21.6640625" style="1" hidden="1"/>
-    <col min="762" max="764" width="11.44140625" style="1" hidden="1"/>
+    <col min="510" max="510" width="20.42578125" style="1" hidden="1"/>
+    <col min="511" max="757" width="11.42578125" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.42578125" style="1" hidden="1"/>
+    <col min="759" max="759" width="11.42578125" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.7109375" style="1" hidden="1"/>
+    <col min="761" max="761" width="21.7109375" style="1" hidden="1"/>
+    <col min="762" max="764" width="11.42578125" style="1" hidden="1"/>
     <col min="765" max="765" width="16" style="1" hidden="1"/>
-    <col min="766" max="766" width="20.44140625" style="1" hidden="1"/>
-    <col min="767" max="1013" width="11.44140625" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.44140625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="11.44140625" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.6640625" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="21.6640625" style="1" hidden="1"/>
-    <col min="1018" max="1020" width="11.44140625" style="1" hidden="1"/>
+    <col min="766" max="766" width="20.42578125" style="1" hidden="1"/>
+    <col min="767" max="1013" width="11.42578125" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.42578125" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="11.42578125" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.7109375" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="21.7109375" style="1" hidden="1"/>
+    <col min="1018" max="1020" width="11.42578125" style="1" hidden="1"/>
     <col min="1021" max="1021" width="16" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="20.44140625" style="1" hidden="1"/>
-    <col min="1023" max="1269" width="11.44140625" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.44140625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="11.44140625" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.6640625" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="21.6640625" style="1" hidden="1"/>
-    <col min="1274" max="1276" width="11.44140625" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="20.42578125" style="1" hidden="1"/>
+    <col min="1023" max="1269" width="11.42578125" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.42578125" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="11.42578125" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.7109375" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="21.7109375" style="1" hidden="1"/>
+    <col min="1274" max="1276" width="11.42578125" style="1" hidden="1"/>
     <col min="1277" max="1277" width="16" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="20.44140625" style="1" hidden="1"/>
-    <col min="1279" max="1525" width="11.44140625" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.44140625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="11.44140625" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.6640625" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="21.6640625" style="1" hidden="1"/>
-    <col min="1530" max="1532" width="11.44140625" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="20.42578125" style="1" hidden="1"/>
+    <col min="1279" max="1525" width="11.42578125" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.42578125" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="11.42578125" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.7109375" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="21.7109375" style="1" hidden="1"/>
+    <col min="1530" max="1532" width="11.42578125" style="1" hidden="1"/>
     <col min="1533" max="1533" width="16" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="20.44140625" style="1" hidden="1"/>
-    <col min="1535" max="1781" width="11.44140625" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.44140625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="11.44140625" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.6640625" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="21.6640625" style="1" hidden="1"/>
-    <col min="1786" max="1788" width="11.44140625" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="20.42578125" style="1" hidden="1"/>
+    <col min="1535" max="1781" width="11.42578125" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.42578125" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="11.42578125" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.7109375" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="21.7109375" style="1" hidden="1"/>
+    <col min="1786" max="1788" width="11.42578125" style="1" hidden="1"/>
     <col min="1789" max="1789" width="16" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="20.44140625" style="1" hidden="1"/>
-    <col min="1791" max="2037" width="11.44140625" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.44140625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="11.44140625" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.6640625" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="21.6640625" style="1" hidden="1"/>
-    <col min="2042" max="2044" width="11.44140625" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="20.42578125" style="1" hidden="1"/>
+    <col min="1791" max="2037" width="11.42578125" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.42578125" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="11.42578125" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.7109375" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="21.7109375" style="1" hidden="1"/>
+    <col min="2042" max="2044" width="11.42578125" style="1" hidden="1"/>
     <col min="2045" max="2045" width="16" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="20.44140625" style="1" hidden="1"/>
-    <col min="2047" max="2293" width="11.44140625" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.44140625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="11.44140625" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.6640625" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="21.6640625" style="1" hidden="1"/>
-    <col min="2298" max="2300" width="11.44140625" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="20.42578125" style="1" hidden="1"/>
+    <col min="2047" max="2293" width="11.42578125" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.42578125" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="11.42578125" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.7109375" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="21.7109375" style="1" hidden="1"/>
+    <col min="2298" max="2300" width="11.42578125" style="1" hidden="1"/>
     <col min="2301" max="2301" width="16" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="20.44140625" style="1" hidden="1"/>
-    <col min="2303" max="2549" width="11.44140625" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.44140625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="11.44140625" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.6640625" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="21.6640625" style="1" hidden="1"/>
-    <col min="2554" max="2556" width="11.44140625" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="20.42578125" style="1" hidden="1"/>
+    <col min="2303" max="2549" width="11.42578125" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.42578125" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="11.42578125" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.7109375" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="21.7109375" style="1" hidden="1"/>
+    <col min="2554" max="2556" width="11.42578125" style="1" hidden="1"/>
     <col min="2557" max="2557" width="16" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="20.44140625" style="1" hidden="1"/>
-    <col min="2559" max="2805" width="11.44140625" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.44140625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="11.44140625" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.6640625" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="21.6640625" style="1" hidden="1"/>
-    <col min="2810" max="2812" width="11.44140625" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="20.42578125" style="1" hidden="1"/>
+    <col min="2559" max="2805" width="11.42578125" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.42578125" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="11.42578125" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.7109375" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="21.7109375" style="1" hidden="1"/>
+    <col min="2810" max="2812" width="11.42578125" style="1" hidden="1"/>
     <col min="2813" max="2813" width="16" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="20.44140625" style="1" hidden="1"/>
-    <col min="2815" max="3061" width="11.44140625" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.44140625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="11.44140625" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.6640625" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="21.6640625" style="1" hidden="1"/>
-    <col min="3066" max="3068" width="11.44140625" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="20.42578125" style="1" hidden="1"/>
+    <col min="2815" max="3061" width="11.42578125" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.42578125" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="11.42578125" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.7109375" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="21.7109375" style="1" hidden="1"/>
+    <col min="3066" max="3068" width="11.42578125" style="1" hidden="1"/>
     <col min="3069" max="3069" width="16" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="20.44140625" style="1" hidden="1"/>
-    <col min="3071" max="3317" width="11.44140625" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.44140625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="11.44140625" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.6640625" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="21.6640625" style="1" hidden="1"/>
-    <col min="3322" max="3324" width="11.44140625" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="20.42578125" style="1" hidden="1"/>
+    <col min="3071" max="3317" width="11.42578125" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.42578125" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="11.42578125" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.7109375" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="21.7109375" style="1" hidden="1"/>
+    <col min="3322" max="3324" width="11.42578125" style="1" hidden="1"/>
     <col min="3325" max="3325" width="16" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="20.44140625" style="1" hidden="1"/>
-    <col min="3327" max="3573" width="11.44140625" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.44140625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="11.44140625" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.6640625" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="21.6640625" style="1" hidden="1"/>
-    <col min="3578" max="3580" width="11.44140625" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="20.42578125" style="1" hidden="1"/>
+    <col min="3327" max="3573" width="11.42578125" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.42578125" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="11.42578125" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.7109375" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="21.7109375" style="1" hidden="1"/>
+    <col min="3578" max="3580" width="11.42578125" style="1" hidden="1"/>
     <col min="3581" max="3581" width="16" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="20.44140625" style="1" hidden="1"/>
-    <col min="3583" max="3829" width="11.44140625" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.44140625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="11.44140625" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.6640625" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="21.6640625" style="1" hidden="1"/>
-    <col min="3834" max="3836" width="11.44140625" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="20.42578125" style="1" hidden="1"/>
+    <col min="3583" max="3829" width="11.42578125" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.42578125" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="11.42578125" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.7109375" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="21.7109375" style="1" hidden="1"/>
+    <col min="3834" max="3836" width="11.42578125" style="1" hidden="1"/>
     <col min="3837" max="3837" width="16" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="20.44140625" style="1" hidden="1"/>
-    <col min="3839" max="4085" width="11.44140625" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.44140625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="11.44140625" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.6640625" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="21.6640625" style="1" hidden="1"/>
-    <col min="4090" max="4092" width="11.44140625" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="20.42578125" style="1" hidden="1"/>
+    <col min="3839" max="4085" width="11.42578125" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.42578125" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="11.42578125" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.7109375" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="21.7109375" style="1" hidden="1"/>
+    <col min="4090" max="4092" width="11.42578125" style="1" hidden="1"/>
     <col min="4093" max="4093" width="16" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="20.44140625" style="1" hidden="1"/>
-    <col min="4095" max="4341" width="11.44140625" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.44140625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="11.44140625" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.6640625" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="21.6640625" style="1" hidden="1"/>
-    <col min="4346" max="4348" width="11.44140625" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="20.42578125" style="1" hidden="1"/>
+    <col min="4095" max="4341" width="11.42578125" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.42578125" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="11.42578125" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.7109375" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="21.7109375" style="1" hidden="1"/>
+    <col min="4346" max="4348" width="11.42578125" style="1" hidden="1"/>
     <col min="4349" max="4349" width="16" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="20.44140625" style="1" hidden="1"/>
-    <col min="4351" max="4597" width="11.44140625" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.44140625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="11.44140625" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.6640625" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="21.6640625" style="1" hidden="1"/>
-    <col min="4602" max="4604" width="11.44140625" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="20.42578125" style="1" hidden="1"/>
+    <col min="4351" max="4597" width="11.42578125" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.42578125" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="11.42578125" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.7109375" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="21.7109375" style="1" hidden="1"/>
+    <col min="4602" max="4604" width="11.42578125" style="1" hidden="1"/>
     <col min="4605" max="4605" width="16" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="20.44140625" style="1" hidden="1"/>
-    <col min="4607" max="4853" width="11.44140625" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.44140625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="11.44140625" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.6640625" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="21.6640625" style="1" hidden="1"/>
-    <col min="4858" max="4860" width="11.44140625" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="20.42578125" style="1" hidden="1"/>
+    <col min="4607" max="4853" width="11.42578125" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.42578125" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="11.42578125" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.7109375" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="21.7109375" style="1" hidden="1"/>
+    <col min="4858" max="4860" width="11.42578125" style="1" hidden="1"/>
     <col min="4861" max="4861" width="16" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="20.44140625" style="1" hidden="1"/>
-    <col min="4863" max="5109" width="11.44140625" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.44140625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="11.44140625" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.6640625" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="21.6640625" style="1" hidden="1"/>
-    <col min="5114" max="5116" width="11.44140625" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="20.42578125" style="1" hidden="1"/>
+    <col min="4863" max="5109" width="11.42578125" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.42578125" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="11.42578125" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.7109375" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="21.7109375" style="1" hidden="1"/>
+    <col min="5114" max="5116" width="11.42578125" style="1" hidden="1"/>
     <col min="5117" max="5117" width="16" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="20.44140625" style="1" hidden="1"/>
-    <col min="5119" max="5365" width="11.44140625" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.44140625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="11.44140625" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.6640625" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="21.6640625" style="1" hidden="1"/>
-    <col min="5370" max="5372" width="11.44140625" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="20.42578125" style="1" hidden="1"/>
+    <col min="5119" max="5365" width="11.42578125" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.42578125" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="11.42578125" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.7109375" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="21.7109375" style="1" hidden="1"/>
+    <col min="5370" max="5372" width="11.42578125" style="1" hidden="1"/>
     <col min="5373" max="5373" width="16" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="20.44140625" style="1" hidden="1"/>
-    <col min="5375" max="5621" width="11.44140625" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.44140625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="11.44140625" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.6640625" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="21.6640625" style="1" hidden="1"/>
-    <col min="5626" max="5628" width="11.44140625" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="20.42578125" style="1" hidden="1"/>
+    <col min="5375" max="5621" width="11.42578125" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.42578125" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="11.42578125" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.7109375" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="21.7109375" style="1" hidden="1"/>
+    <col min="5626" max="5628" width="11.42578125" style="1" hidden="1"/>
     <col min="5629" max="5629" width="16" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="20.44140625" style="1" hidden="1"/>
-    <col min="5631" max="5877" width="11.44140625" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.44140625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="11.44140625" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.6640625" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="21.6640625" style="1" hidden="1"/>
-    <col min="5882" max="5884" width="11.44140625" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="20.42578125" style="1" hidden="1"/>
+    <col min="5631" max="5877" width="11.42578125" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.42578125" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="11.42578125" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.7109375" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="21.7109375" style="1" hidden="1"/>
+    <col min="5882" max="5884" width="11.42578125" style="1" hidden="1"/>
     <col min="5885" max="5885" width="16" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="20.44140625" style="1" hidden="1"/>
-    <col min="5887" max="6133" width="11.44140625" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.44140625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="11.44140625" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.6640625" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="21.6640625" style="1" hidden="1"/>
-    <col min="6138" max="6140" width="11.44140625" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="20.42578125" style="1" hidden="1"/>
+    <col min="5887" max="6133" width="11.42578125" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.42578125" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="11.42578125" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.7109375" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="21.7109375" style="1" hidden="1"/>
+    <col min="6138" max="6140" width="11.42578125" style="1" hidden="1"/>
     <col min="6141" max="6141" width="16" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="20.44140625" style="1" hidden="1"/>
-    <col min="6143" max="6389" width="11.44140625" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.44140625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="11.44140625" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.6640625" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="21.6640625" style="1" hidden="1"/>
-    <col min="6394" max="6396" width="11.44140625" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="20.42578125" style="1" hidden="1"/>
+    <col min="6143" max="6389" width="11.42578125" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.42578125" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="11.42578125" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.7109375" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="21.7109375" style="1" hidden="1"/>
+    <col min="6394" max="6396" width="11.42578125" style="1" hidden="1"/>
     <col min="6397" max="6397" width="16" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="20.44140625" style="1" hidden="1"/>
-    <col min="6399" max="6645" width="11.44140625" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.44140625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="11.44140625" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.6640625" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="21.6640625" style="1" hidden="1"/>
-    <col min="6650" max="6652" width="11.44140625" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="20.42578125" style="1" hidden="1"/>
+    <col min="6399" max="6645" width="11.42578125" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.42578125" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="11.42578125" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.7109375" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="21.7109375" style="1" hidden="1"/>
+    <col min="6650" max="6652" width="11.42578125" style="1" hidden="1"/>
     <col min="6653" max="6653" width="16" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="20.44140625" style="1" hidden="1"/>
-    <col min="6655" max="6901" width="11.44140625" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.44140625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="11.44140625" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.6640625" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="21.6640625" style="1" hidden="1"/>
-    <col min="6906" max="6908" width="11.44140625" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="20.42578125" style="1" hidden="1"/>
+    <col min="6655" max="6901" width="11.42578125" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.42578125" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="11.42578125" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.7109375" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="21.7109375" style="1" hidden="1"/>
+    <col min="6906" max="6908" width="11.42578125" style="1" hidden="1"/>
     <col min="6909" max="6909" width="16" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="20.44140625" style="1" hidden="1"/>
-    <col min="6911" max="7157" width="11.44140625" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.44140625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="11.44140625" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.6640625" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="21.6640625" style="1" hidden="1"/>
-    <col min="7162" max="7164" width="11.44140625" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="20.42578125" style="1" hidden="1"/>
+    <col min="6911" max="7157" width="11.42578125" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.42578125" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="11.42578125" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.7109375" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="21.7109375" style="1" hidden="1"/>
+    <col min="7162" max="7164" width="11.42578125" style="1" hidden="1"/>
     <col min="7165" max="7165" width="16" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="20.44140625" style="1" hidden="1"/>
-    <col min="7167" max="7413" width="11.44140625" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.44140625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="11.44140625" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.6640625" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="21.6640625" style="1" hidden="1"/>
-    <col min="7418" max="7420" width="11.44140625" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="20.42578125" style="1" hidden="1"/>
+    <col min="7167" max="7413" width="11.42578125" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.42578125" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="11.42578125" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.7109375" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="21.7109375" style="1" hidden="1"/>
+    <col min="7418" max="7420" width="11.42578125" style="1" hidden="1"/>
     <col min="7421" max="7421" width="16" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="20.44140625" style="1" hidden="1"/>
-    <col min="7423" max="7669" width="11.44140625" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.44140625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="11.44140625" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.6640625" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="21.6640625" style="1" hidden="1"/>
-    <col min="7674" max="7676" width="11.44140625" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="20.42578125" style="1" hidden="1"/>
+    <col min="7423" max="7669" width="11.42578125" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.42578125" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="11.42578125" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.7109375" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="21.7109375" style="1" hidden="1"/>
+    <col min="7674" max="7676" width="11.42578125" style="1" hidden="1"/>
     <col min="7677" max="7677" width="16" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="20.44140625" style="1" hidden="1"/>
-    <col min="7679" max="7925" width="11.44140625" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.44140625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="11.44140625" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.6640625" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="21.6640625" style="1" hidden="1"/>
-    <col min="7930" max="7932" width="11.44140625" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="20.42578125" style="1" hidden="1"/>
+    <col min="7679" max="7925" width="11.42578125" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.42578125" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="11.42578125" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.7109375" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="21.7109375" style="1" hidden="1"/>
+    <col min="7930" max="7932" width="11.42578125" style="1" hidden="1"/>
     <col min="7933" max="7933" width="16" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="20.44140625" style="1" hidden="1"/>
-    <col min="7935" max="8181" width="11.44140625" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.44140625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="11.44140625" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.6640625" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="21.6640625" style="1" hidden="1"/>
-    <col min="8186" max="8188" width="11.44140625" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="20.42578125" style="1" hidden="1"/>
+    <col min="7935" max="8181" width="11.42578125" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.42578125" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="11.42578125" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.7109375" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="21.7109375" style="1" hidden="1"/>
+    <col min="8186" max="8188" width="11.42578125" style="1" hidden="1"/>
     <col min="8189" max="8189" width="16" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="20.44140625" style="1" hidden="1"/>
-    <col min="8191" max="8437" width="11.44140625" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.44140625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="11.44140625" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.6640625" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="21.6640625" style="1" hidden="1"/>
-    <col min="8442" max="8444" width="11.44140625" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="20.42578125" style="1" hidden="1"/>
+    <col min="8191" max="8437" width="11.42578125" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.42578125" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="11.42578125" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.7109375" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="21.7109375" style="1" hidden="1"/>
+    <col min="8442" max="8444" width="11.42578125" style="1" hidden="1"/>
     <col min="8445" max="8445" width="16" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="20.44140625" style="1" hidden="1"/>
-    <col min="8447" max="8693" width="11.44140625" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.44140625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="11.44140625" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.6640625" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="21.6640625" style="1" hidden="1"/>
-    <col min="8698" max="8700" width="11.44140625" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="20.42578125" style="1" hidden="1"/>
+    <col min="8447" max="8693" width="11.42578125" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.42578125" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="11.42578125" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.7109375" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="21.7109375" style="1" hidden="1"/>
+    <col min="8698" max="8700" width="11.42578125" style="1" hidden="1"/>
     <col min="8701" max="8701" width="16" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="20.44140625" style="1" hidden="1"/>
-    <col min="8703" max="8949" width="11.44140625" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.44140625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="11.44140625" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.6640625" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="21.6640625" style="1" hidden="1"/>
-    <col min="8954" max="8956" width="11.44140625" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="20.42578125" style="1" hidden="1"/>
+    <col min="8703" max="8949" width="11.42578125" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.42578125" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="11.42578125" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.7109375" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="21.7109375" style="1" hidden="1"/>
+    <col min="8954" max="8956" width="11.42578125" style="1" hidden="1"/>
     <col min="8957" max="8957" width="16" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="20.44140625" style="1" hidden="1"/>
-    <col min="8959" max="9205" width="11.44140625" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.44140625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="11.44140625" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.6640625" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="21.6640625" style="1" hidden="1"/>
-    <col min="9210" max="9212" width="11.44140625" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="20.42578125" style="1" hidden="1"/>
+    <col min="8959" max="9205" width="11.42578125" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.42578125" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="11.42578125" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.7109375" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="21.7109375" style="1" hidden="1"/>
+    <col min="9210" max="9212" width="11.42578125" style="1" hidden="1"/>
     <col min="9213" max="9213" width="16" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="20.44140625" style="1" hidden="1"/>
-    <col min="9215" max="9461" width="11.44140625" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.44140625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="11.44140625" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.6640625" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="21.6640625" style="1" hidden="1"/>
-    <col min="9466" max="9468" width="11.44140625" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="20.42578125" style="1" hidden="1"/>
+    <col min="9215" max="9461" width="11.42578125" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.42578125" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="11.42578125" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.7109375" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="21.7109375" style="1" hidden="1"/>
+    <col min="9466" max="9468" width="11.42578125" style="1" hidden="1"/>
     <col min="9469" max="9469" width="16" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="20.44140625" style="1" hidden="1"/>
-    <col min="9471" max="9717" width="11.44140625" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.44140625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="11.44140625" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.6640625" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="21.6640625" style="1" hidden="1"/>
-    <col min="9722" max="9724" width="11.44140625" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="20.42578125" style="1" hidden="1"/>
+    <col min="9471" max="9717" width="11.42578125" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.42578125" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="11.42578125" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.7109375" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="21.7109375" style="1" hidden="1"/>
+    <col min="9722" max="9724" width="11.42578125" style="1" hidden="1"/>
     <col min="9725" max="9725" width="16" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="20.44140625" style="1" hidden="1"/>
-    <col min="9727" max="9973" width="11.44140625" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.44140625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="11.44140625" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.6640625" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="21.6640625" style="1" hidden="1"/>
-    <col min="9978" max="9980" width="11.44140625" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="20.42578125" style="1" hidden="1"/>
+    <col min="9727" max="9973" width="11.42578125" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.42578125" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="11.42578125" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.7109375" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="21.7109375" style="1" hidden="1"/>
+    <col min="9978" max="9980" width="11.42578125" style="1" hidden="1"/>
     <col min="9981" max="9981" width="16" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="20.44140625" style="1" hidden="1"/>
-    <col min="9983" max="10229" width="11.44140625" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.44140625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="11.44140625" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.6640625" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="21.6640625" style="1" hidden="1"/>
-    <col min="10234" max="10236" width="11.44140625" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="20.42578125" style="1" hidden="1"/>
+    <col min="9983" max="10229" width="11.42578125" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.42578125" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="11.42578125" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.7109375" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="21.7109375" style="1" hidden="1"/>
+    <col min="10234" max="10236" width="11.42578125" style="1" hidden="1"/>
     <col min="10237" max="10237" width="16" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="20.44140625" style="1" hidden="1"/>
-    <col min="10239" max="10485" width="11.44140625" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.44140625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="11.44140625" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.6640625" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="21.6640625" style="1" hidden="1"/>
-    <col min="10490" max="10492" width="11.44140625" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="20.42578125" style="1" hidden="1"/>
+    <col min="10239" max="10485" width="11.42578125" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.42578125" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="11.42578125" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.7109375" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="21.7109375" style="1" hidden="1"/>
+    <col min="10490" max="10492" width="11.42578125" style="1" hidden="1"/>
     <col min="10493" max="10493" width="16" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="20.44140625" style="1" hidden="1"/>
-    <col min="10495" max="10741" width="11.44140625" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.44140625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="11.44140625" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.6640625" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="21.6640625" style="1" hidden="1"/>
-    <col min="10746" max="10748" width="11.44140625" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="20.42578125" style="1" hidden="1"/>
+    <col min="10495" max="10741" width="11.42578125" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.42578125" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="11.42578125" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.7109375" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="21.7109375" style="1" hidden="1"/>
+    <col min="10746" max="10748" width="11.42578125" style="1" hidden="1"/>
     <col min="10749" max="10749" width="16" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="20.44140625" style="1" hidden="1"/>
-    <col min="10751" max="10997" width="11.44140625" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.44140625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="11.44140625" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.6640625" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="21.6640625" style="1" hidden="1"/>
-    <col min="11002" max="11004" width="11.44140625" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="20.42578125" style="1" hidden="1"/>
+    <col min="10751" max="10997" width="11.42578125" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.42578125" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="11.42578125" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.7109375" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="21.7109375" style="1" hidden="1"/>
+    <col min="11002" max="11004" width="11.42578125" style="1" hidden="1"/>
     <col min="11005" max="11005" width="16" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="20.44140625" style="1" hidden="1"/>
-    <col min="11007" max="11253" width="11.44140625" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.44140625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="11.44140625" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.6640625" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="21.6640625" style="1" hidden="1"/>
-    <col min="11258" max="11260" width="11.44140625" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="20.42578125" style="1" hidden="1"/>
+    <col min="11007" max="11253" width="11.42578125" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.42578125" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="11.42578125" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.7109375" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="21.7109375" style="1" hidden="1"/>
+    <col min="11258" max="11260" width="11.42578125" style="1" hidden="1"/>
     <col min="11261" max="11261" width="16" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="20.44140625" style="1" hidden="1"/>
-    <col min="11263" max="11509" width="11.44140625" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.44140625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="11.44140625" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.6640625" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="21.6640625" style="1" hidden="1"/>
-    <col min="11514" max="11516" width="11.44140625" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="20.42578125" style="1" hidden="1"/>
+    <col min="11263" max="11509" width="11.42578125" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.42578125" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="11.42578125" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.7109375" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="21.7109375" style="1" hidden="1"/>
+    <col min="11514" max="11516" width="11.42578125" style="1" hidden="1"/>
     <col min="11517" max="11517" width="16" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="20.44140625" style="1" hidden="1"/>
-    <col min="11519" max="11765" width="11.44140625" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.44140625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="11.44140625" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.6640625" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="21.6640625" style="1" hidden="1"/>
-    <col min="11770" max="11772" width="11.44140625" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="20.42578125" style="1" hidden="1"/>
+    <col min="11519" max="11765" width="11.42578125" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.42578125" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="11.42578125" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.7109375" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="21.7109375" style="1" hidden="1"/>
+    <col min="11770" max="11772" width="11.42578125" style="1" hidden="1"/>
     <col min="11773" max="11773" width="16" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="20.44140625" style="1" hidden="1"/>
-    <col min="11775" max="12021" width="11.44140625" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.44140625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="11.44140625" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.6640625" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="21.6640625" style="1" hidden="1"/>
-    <col min="12026" max="12028" width="11.44140625" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="20.42578125" style="1" hidden="1"/>
+    <col min="11775" max="12021" width="11.42578125" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.42578125" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="11.42578125" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.7109375" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="21.7109375" style="1" hidden="1"/>
+    <col min="12026" max="12028" width="11.42578125" style="1" hidden="1"/>
     <col min="12029" max="12029" width="16" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="20.44140625" style="1" hidden="1"/>
-    <col min="12031" max="12277" width="11.44140625" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.44140625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="11.44140625" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.6640625" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="21.6640625" style="1" hidden="1"/>
-    <col min="12282" max="12284" width="11.44140625" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="20.42578125" style="1" hidden="1"/>
+    <col min="12031" max="12277" width="11.42578125" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.42578125" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="11.42578125" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.7109375" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="21.7109375" style="1" hidden="1"/>
+    <col min="12282" max="12284" width="11.42578125" style="1" hidden="1"/>
     <col min="12285" max="12285" width="16" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="20.44140625" style="1" hidden="1"/>
-    <col min="12287" max="12533" width="11.44140625" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.44140625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="11.44140625" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.6640625" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="21.6640625" style="1" hidden="1"/>
-    <col min="12538" max="12540" width="11.44140625" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="20.42578125" style="1" hidden="1"/>
+    <col min="12287" max="12533" width="11.42578125" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.42578125" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="11.42578125" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.7109375" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="21.7109375" style="1" hidden="1"/>
+    <col min="12538" max="12540" width="11.42578125" style="1" hidden="1"/>
     <col min="12541" max="12541" width="16" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="20.44140625" style="1" hidden="1"/>
-    <col min="12543" max="12789" width="11.44140625" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.44140625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="11.44140625" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.6640625" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="21.6640625" style="1" hidden="1"/>
-    <col min="12794" max="12796" width="11.44140625" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="20.42578125" style="1" hidden="1"/>
+    <col min="12543" max="12789" width="11.42578125" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.42578125" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="11.42578125" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.7109375" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="21.7109375" style="1" hidden="1"/>
+    <col min="12794" max="12796" width="11.42578125" style="1" hidden="1"/>
     <col min="12797" max="12797" width="16" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="20.44140625" style="1" hidden="1"/>
-    <col min="12799" max="13045" width="11.44140625" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.44140625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="11.44140625" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.6640625" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="21.6640625" style="1" hidden="1"/>
-    <col min="13050" max="13052" width="11.44140625" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="20.42578125" style="1" hidden="1"/>
+    <col min="12799" max="13045" width="11.42578125" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.42578125" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="11.42578125" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.7109375" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="21.7109375" style="1" hidden="1"/>
+    <col min="13050" max="13052" width="11.42578125" style="1" hidden="1"/>
     <col min="13053" max="13053" width="16" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="20.44140625" style="1" hidden="1"/>
-    <col min="13055" max="13301" width="11.44140625" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.44140625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="11.44140625" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.6640625" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="21.6640625" style="1" hidden="1"/>
-    <col min="13306" max="13308" width="11.44140625" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="20.42578125" style="1" hidden="1"/>
+    <col min="13055" max="13301" width="11.42578125" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.42578125" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="11.42578125" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.7109375" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="21.7109375" style="1" hidden="1"/>
+    <col min="13306" max="13308" width="11.42578125" style="1" hidden="1"/>
     <col min="13309" max="13309" width="16" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="20.44140625" style="1" hidden="1"/>
-    <col min="13311" max="13557" width="11.44140625" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.44140625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="11.44140625" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.6640625" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="21.6640625" style="1" hidden="1"/>
-    <col min="13562" max="13564" width="11.44140625" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="20.42578125" style="1" hidden="1"/>
+    <col min="13311" max="13557" width="11.42578125" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.42578125" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="11.42578125" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.7109375" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="21.7109375" style="1" hidden="1"/>
+    <col min="13562" max="13564" width="11.42578125" style="1" hidden="1"/>
     <col min="13565" max="13565" width="16" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="20.44140625" style="1" hidden="1"/>
-    <col min="13567" max="13813" width="11.44140625" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.44140625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="11.44140625" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.6640625" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="21.6640625" style="1" hidden="1"/>
-    <col min="13818" max="13820" width="11.44140625" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="20.42578125" style="1" hidden="1"/>
+    <col min="13567" max="13813" width="11.42578125" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.42578125" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="11.42578125" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.7109375" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="21.7109375" style="1" hidden="1"/>
+    <col min="13818" max="13820" width="11.42578125" style="1" hidden="1"/>
     <col min="13821" max="13821" width="16" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="20.44140625" style="1" hidden="1"/>
-    <col min="13823" max="14069" width="11.44140625" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.44140625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="11.44140625" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.6640625" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="21.6640625" style="1" hidden="1"/>
-    <col min="14074" max="14076" width="11.44140625" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="20.42578125" style="1" hidden="1"/>
+    <col min="13823" max="14069" width="11.42578125" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.42578125" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="11.42578125" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.7109375" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="21.7109375" style="1" hidden="1"/>
+    <col min="14074" max="14076" width="11.42578125" style="1" hidden="1"/>
     <col min="14077" max="14077" width="16" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="20.44140625" style="1" hidden="1"/>
-    <col min="14079" max="14325" width="11.44140625" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.44140625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="11.44140625" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.6640625" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="21.6640625" style="1" hidden="1"/>
-    <col min="14330" max="14332" width="11.44140625" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="20.42578125" style="1" hidden="1"/>
+    <col min="14079" max="14325" width="11.42578125" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.42578125" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="11.42578125" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.7109375" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="21.7109375" style="1" hidden="1"/>
+    <col min="14330" max="14332" width="11.42578125" style="1" hidden="1"/>
     <col min="14333" max="14333" width="16" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="20.44140625" style="1" hidden="1"/>
-    <col min="14335" max="14581" width="11.44140625" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.44140625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="11.44140625" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.6640625" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="21.6640625" style="1" hidden="1"/>
-    <col min="14586" max="14588" width="11.44140625" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="20.42578125" style="1" hidden="1"/>
+    <col min="14335" max="14581" width="11.42578125" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.42578125" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="11.42578125" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.7109375" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="21.7109375" style="1" hidden="1"/>
+    <col min="14586" max="14588" width="11.42578125" style="1" hidden="1"/>
     <col min="14589" max="14589" width="16" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="20.44140625" style="1" hidden="1"/>
-    <col min="14591" max="14837" width="11.44140625" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.44140625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="11.44140625" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.6640625" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="21.6640625" style="1" hidden="1"/>
-    <col min="14842" max="14844" width="11.44140625" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="20.42578125" style="1" hidden="1"/>
+    <col min="14591" max="14837" width="11.42578125" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.42578125" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="11.42578125" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.7109375" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="21.7109375" style="1" hidden="1"/>
+    <col min="14842" max="14844" width="11.42578125" style="1" hidden="1"/>
     <col min="14845" max="14845" width="16" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="20.44140625" style="1" hidden="1"/>
-    <col min="14847" max="15093" width="11.44140625" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.44140625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="11.44140625" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.6640625" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="21.6640625" style="1" hidden="1"/>
-    <col min="15098" max="15100" width="11.44140625" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="20.42578125" style="1" hidden="1"/>
+    <col min="14847" max="15093" width="11.42578125" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.42578125" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="11.42578125" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.7109375" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="21.7109375" style="1" hidden="1"/>
+    <col min="15098" max="15100" width="11.42578125" style="1" hidden="1"/>
     <col min="15101" max="15101" width="16" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="20.44140625" style="1" hidden="1"/>
-    <col min="15103" max="15349" width="11.44140625" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.44140625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="11.44140625" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.6640625" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="21.6640625" style="1" hidden="1"/>
-    <col min="15354" max="15356" width="11.44140625" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="20.42578125" style="1" hidden="1"/>
+    <col min="15103" max="15349" width="11.42578125" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.42578125" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="11.42578125" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.7109375" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="21.7109375" style="1" hidden="1"/>
+    <col min="15354" max="15356" width="11.42578125" style="1" hidden="1"/>
     <col min="15357" max="15357" width="16" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="20.44140625" style="1" hidden="1"/>
-    <col min="15359" max="15605" width="11.44140625" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.44140625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="11.44140625" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.6640625" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="21.6640625" style="1" hidden="1"/>
-    <col min="15610" max="15612" width="11.44140625" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="20.42578125" style="1" hidden="1"/>
+    <col min="15359" max="15605" width="11.42578125" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.42578125" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="11.42578125" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.7109375" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="21.7109375" style="1" hidden="1"/>
+    <col min="15610" max="15612" width="11.42578125" style="1" hidden="1"/>
     <col min="15613" max="15613" width="16" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="20.44140625" style="1" hidden="1"/>
-    <col min="15615" max="15861" width="11.44140625" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.44140625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="11.44140625" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.6640625" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="21.6640625" style="1" hidden="1"/>
-    <col min="15866" max="15868" width="11.44140625" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="20.42578125" style="1" hidden="1"/>
+    <col min="15615" max="15861" width="11.42578125" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.42578125" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="11.42578125" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.7109375" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="21.7109375" style="1" hidden="1"/>
+    <col min="15866" max="15868" width="11.42578125" style="1" hidden="1"/>
     <col min="15869" max="15869" width="16" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="20.44140625" style="1" hidden="1"/>
-    <col min="15871" max="16117" width="11.44140625" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.44140625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="11.44140625" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.6640625" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="21.6640625" style="1" hidden="1"/>
-    <col min="16122" max="16124" width="11.44140625" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="20.42578125" style="1" hidden="1"/>
+    <col min="15871" max="16117" width="11.42578125" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.42578125" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="11.42578125" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.7109375" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="21.7109375" style="1" hidden="1"/>
+    <col min="16122" max="16124" width="11.42578125" style="1" hidden="1"/>
     <col min="16125" max="16125" width="16" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="20.44140625" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.44140625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="15.6640625" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="21.6640625" style="1" hidden="1"/>
-    <col min="16134" max="16136" width="11.44140625" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="20.42578125" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="15.7109375" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="21.7109375" style="1" hidden="1"/>
+    <col min="16134" max="16136" width="11.42578125" style="1" hidden="1"/>
     <col min="16137" max="16137" width="16" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="20.44140625" style="1" hidden="1"/>
-    <col min="16140" max="16141" width="11.44140625" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="20.42578125" style="1" hidden="1"/>
+    <col min="16140" max="16141" width="11.42578125" style="1" hidden="1"/>
     <col min="16142" max="16142" width="16" style="1" hidden="1"/>
-    <col min="16143" max="16145" width="20.44140625" style="1" hidden="1"/>
-    <col min="16146" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16143" max="16145" width="20.42578125" style="1" hidden="1"/>
+    <col min="16146" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2753,7 +2752,7 @@
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="F2" s="30" t="e">
-        <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E2,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>#N/A</v>
       </c>
       <c r="G2" s="4"/>
@@ -2800,7 +2799,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2822,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="30" t="str">
-        <f>LOOKUP(E3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E3,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
@@ -2869,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2891,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="30" t="str">
-        <f>LOOKUP(E4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E4,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
@@ -2938,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2960,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="30" t="str">
-        <f>LOOKUP(E5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E5,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
@@ -3007,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3029,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="30" t="str">
-        <f>LOOKUP(E6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E6,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
@@ -3076,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3098,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="30" t="str">
-        <f>LOOKUP(E7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E7,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
@@ -3145,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3167,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30" t="str">
-        <f>LOOKUP(E8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E8,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
@@ -3214,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3236,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="30" t="str">
-        <f>LOOKUP(E9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E9,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
@@ -3283,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3305,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="30" t="str">
-        <f>LOOKUP(E10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E10,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
@@ -3352,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3374,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="30" t="str">
-        <f>LOOKUP(E11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E11,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
@@ -3421,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3443,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="30" t="str">
-        <f>LOOKUP(E12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E12,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
@@ -3490,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3512,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="30" t="str">
-        <f>LOOKUP(E13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E13,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
@@ -3559,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3581,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="30" t="str">
-        <f>LOOKUP(E14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E14,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
@@ -3628,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3650,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="30" t="str">
-        <f>LOOKUP(E15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E15,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
@@ -3697,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3719,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="30" t="str">
-        <f>LOOKUP(E16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E16,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
@@ -3766,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3788,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="30" t="str">
-        <f>LOOKUP(E17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E17,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
@@ -3835,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3857,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="30" t="str">
-        <f>LOOKUP(E18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E18,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
@@ -3904,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3926,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="30" t="str">
-        <f>LOOKUP(E19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E19,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
@@ -3973,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3995,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="30" t="str">
-        <f>LOOKUP(E20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E20,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
@@ -4042,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4064,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="30" t="str">
-        <f>LOOKUP(E21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E21,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
@@ -4111,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4133,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="30" t="str">
-        <f>LOOKUP(E22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E22,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
@@ -4180,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4202,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="30" t="str">
-        <f>LOOKUP(E23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E23,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
@@ -4249,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4271,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="30" t="str">
-        <f>LOOKUP(E24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E24,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
@@ -4318,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4340,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="30" t="str">
-        <f>LOOKUP(E25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E25,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
@@ -4387,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4409,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="30" t="str">
-        <f>LOOKUP(E26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E26,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
@@ -4456,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4474,7 +4473,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4491,7 +4490,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4512,7 +4511,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4528,7 +4527,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="M31" s="31"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4570,7 +4569,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4590,7 +4589,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4630,7 +4629,7 @@
       <c r="M35" s="31"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4650,7 +4649,7 @@
       <c r="M36" s="31"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4670,52 +4669,52 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4725,7 +4724,7 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4743,27 +4742,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4779,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4814,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4847,7 +4846,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4879,7 +4878,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4911,7 +4910,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4943,7 +4942,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4975,7 +4974,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5007,7 +5006,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5039,7 +5038,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5071,7 +5070,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5103,7 +5102,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5135,7 +5134,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5167,7 +5166,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5199,7 +5198,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5231,7 +5230,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5263,7 +5262,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5295,7 +5294,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5327,7 +5326,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5359,7 +5358,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5391,7 +5390,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5423,7 +5422,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5455,7 +5454,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5487,7 +5486,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5519,7 +5518,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5551,7 +5550,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5583,7 +5582,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5615,7 +5614,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5631,7 +5630,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5650,7 +5649,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5680,7 +5679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5690,15 +5689,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5712,7 +5711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5835,7 +5834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5845,21 +5844,21 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5879,7 +5878,7 @@
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
-    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -5902,7 +5901,7 @@
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -7497,7 +7496,7 @@
       <c r="N29" s="58"/>
       <c r="O29" s="60"/>
     </row>
-    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
         <v>41</v>
       </c>
@@ -7516,7 +7515,7 @@
       <c r="N30" s="96"/>
       <c r="O30" s="96"/>
     </row>
-    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -7533,7 +7532,7 @@
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
     </row>
-    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -7550,7 +7549,7 @@
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
     </row>
-    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -7567,7 +7566,7 @@
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -7609,7 +7608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7619,24 +7618,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7665,7 +7664,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
@@ -7693,7 +7692,7 @@
       <c r="W2" s="99"/>
       <c r="X2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7722,7 +7721,7 @@
       <c r="W3" s="101"/>
       <c r="X3" s="101"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -7818,7 +7817,7 @@
       <c r="W5" s="98"/>
       <c r="X5" s="98"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7858,7 +7857,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7898,7 +7897,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7938,7 +7937,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7978,7 +7977,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8018,7 +8017,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8058,7 +8057,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8098,7 +8097,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8138,7 +8137,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8178,7 +8177,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8218,7 +8217,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8258,7 +8257,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8298,7 +8297,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8338,7 +8337,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8378,7 +8377,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8418,7 +8417,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8458,7 +8457,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8498,7 +8497,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8538,7 +8537,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8578,7 +8577,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8618,7 +8617,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8658,7 +8657,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8698,7 +8697,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8738,7 +8737,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8778,7 +8777,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8849,25 +8848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8911,7 +8910,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8929,7 +8928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8947,7 +8946,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8965,7 +8964,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8983,7 +8982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9001,7 +9000,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9019,7 +9018,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9037,7 +9036,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9055,7 +9054,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9073,7 +9072,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9091,7 +9090,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9109,7 +9108,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9127,7 +9126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9145,7 +9144,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9163,7 +9162,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9181,7 +9180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9199,7 +9198,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9217,7 +9216,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9235,7 +9234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9253,7 +9252,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9271,7 +9270,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9289,7 +9288,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9307,7 +9306,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9325,7 +9324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9346,21 +9345,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -9378,26 +9377,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -9463,7 +9462,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -9478,7 +9477,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -9493,7 +9492,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -9508,7 +9507,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -9523,7 +9522,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -9538,7 +9537,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -9549,7 +9548,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -9560,7 +9559,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -9571,7 +9570,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -9582,7 +9581,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -9593,7 +9592,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -9604,7 +9603,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9615,7 +9614,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9624,7 +9623,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -1250,6 +1250,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1503,7 +1504,7 @@
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
@@ -1806,7 +1807,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2133,8 +2134,8 @@
   </sheetPr>
   <dimension ref="A1:WVY59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5840,8 +5841,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5985,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!J2)</f>
+        <f>IF(Notenliste!J2=0," ",UPPER(Notenliste!J2))</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
@@ -5993,7 +5994,7 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="17" t="e">
-        <f>Notenliste!F2</f>
+        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"), "bestanden",IF(Notenliste!F2="KP"," ",Notenliste!F2))</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="17" t="str">
@@ -6005,7 +6006,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="O4" s="19" t="str">
-        <f>UPPER(Notenliste!L2)</f>
+        <f>IF(Notenliste!L2=0," ",UPPER(Notenliste!L2))</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
@@ -6046,16 +6047,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!J3)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J3=0," ",UPPER(Notenliste!J3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
         <v/>
       </c>
       <c r="L5" s="17" t="str">
-        <f>Notenliste!F3</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"), "bestanden",IF(Notenliste!F3="KP"," ",Notenliste!F3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M5" s="17">
         <f>Notenliste!E3</f>
@@ -6066,8 +6067,8 @@
         <v>0</v>
       </c>
       <c r="O5" s="19" t="str">
-        <f>UPPER(Notenliste!L3)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L3=0," ",UPPER(Notenliste!L3))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6107,16 +6108,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!J4)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J4=0," ",UPPER(Notenliste!J4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L6" s="17" t="str">
-        <f>Notenliste!F4</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"), "bestanden",IF(Notenliste!F4="KP"," ",Notenliste!F4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="17">
         <f>Notenliste!E4</f>
@@ -6127,8 +6128,8 @@
         <v>0</v>
       </c>
       <c r="O6" s="19" t="str">
-        <f>UPPER(Notenliste!L4)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L4=0," ",UPPER(Notenliste!L4))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6168,16 +6169,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!J5)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J5=0," ",UPPER(Notenliste!J5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="17" t="str">
-        <f>Notenliste!F5</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"), "bestanden",IF(Notenliste!F5="KP"," ",Notenliste!F5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M7" s="17">
         <f>Notenliste!E5</f>
@@ -6188,8 +6189,8 @@
         <v>0</v>
       </c>
       <c r="O7" s="19" t="str">
-        <f>UPPER(Notenliste!L5)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L5=0," ",UPPER(Notenliste!L5))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6229,16 +6230,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!J6)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J6=0," ",UPPER(Notenliste!J6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="17" t="str">
-        <f>Notenliste!F6</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"), "bestanden",IF(Notenliste!F6="KP"," ",Notenliste!F6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="17">
         <f>Notenliste!E6</f>
@@ -6249,8 +6250,8 @@
         <v>0</v>
       </c>
       <c r="O8" s="19" t="str">
-        <f>UPPER(Notenliste!L6)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L6=0," ",UPPER(Notenliste!L6))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6290,16 +6291,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!J7)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J7=0," ",UPPER(Notenliste!J7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L9" s="17" t="str">
-        <f>Notenliste!F7</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"), "bestanden",IF(Notenliste!F7="KP"," ",Notenliste!F7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M9" s="17">
         <f>Notenliste!E7</f>
@@ -6310,8 +6311,8 @@
         <v>0</v>
       </c>
       <c r="O9" s="19" t="str">
-        <f>UPPER(Notenliste!L7)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L7=0," ",UPPER(Notenliste!L7))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6351,16 +6352,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!J8)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J8=0," ",UPPER(Notenliste!J8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="17" t="str">
-        <f>Notenliste!F8</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"), "bestanden",IF(Notenliste!F8="KP"," ",Notenliste!F8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M10" s="17">
         <f>Notenliste!E8</f>
@@ -6371,8 +6372,8 @@
         <v>0</v>
       </c>
       <c r="O10" s="19" t="str">
-        <f>UPPER(Notenliste!L8)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L8=0," ",UPPER(Notenliste!L8))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6412,16 +6413,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!J9)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J9=0," ",UPPER(Notenliste!J9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="17" t="str">
-        <f>Notenliste!F9</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"), "bestanden",IF(Notenliste!F9="KP"," ",Notenliste!F9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="17">
         <f>Notenliste!E9</f>
@@ -6432,8 +6433,8 @@
         <v>0</v>
       </c>
       <c r="O11" s="19" t="str">
-        <f>UPPER(Notenliste!L9)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L9=0," ",UPPER(Notenliste!L9))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6473,16 +6474,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!J10)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J10=0," ",UPPER(Notenliste!J10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12" s="17" t="str">
-        <f>Notenliste!F10</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"), "bestanden",IF(Notenliste!F10="KP"," ",Notenliste!F10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M12" s="17">
         <f>Notenliste!E10</f>
@@ -6493,8 +6494,8 @@
         <v>0</v>
       </c>
       <c r="O12" s="19" t="str">
-        <f>UPPER(Notenliste!L10)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L10=0," ",UPPER(Notenliste!L10))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6534,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!J11)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J11=0," ",UPPER(Notenliste!J11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L13" s="17" t="str">
-        <f>Notenliste!F11</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"), "bestanden",IF(Notenliste!F11="KP"," ",Notenliste!F11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M13" s="17">
         <f>Notenliste!E11</f>
@@ -6554,8 +6555,8 @@
         <v>0</v>
       </c>
       <c r="O13" s="19" t="str">
-        <f>UPPER(Notenliste!L11)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L11=0," ",UPPER(Notenliste!L11))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6595,16 +6596,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!J12)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J12=0," ",UPPER(Notenliste!J12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L14" s="17" t="str">
-        <f>Notenliste!F12</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"), "bestanden",IF(Notenliste!F12="KP"," ",Notenliste!F12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="17">
         <f>Notenliste!E12</f>
@@ -6615,8 +6616,8 @@
         <v>0</v>
       </c>
       <c r="O14" s="19" t="str">
-        <f>UPPER(Notenliste!L12)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L12=0," ",UPPER(Notenliste!L12))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6656,16 +6657,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!J13)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J13=0," ",UPPER(Notenliste!J13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="17" t="str">
-        <f>Notenliste!F13</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"), "bestanden",IF(Notenliste!F13="KP"," ",Notenliste!F13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M15" s="17">
         <f>Notenliste!E13</f>
@@ -6676,8 +6677,8 @@
         <v>0</v>
       </c>
       <c r="O15" s="19" t="str">
-        <f>UPPER(Notenliste!L13)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L13=0," ",UPPER(Notenliste!L13))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6717,16 +6718,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!J14)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J14=0," ",UPPER(Notenliste!J14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L16" s="17" t="str">
-        <f>Notenliste!F14</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"), "bestanden",IF(Notenliste!F14="KP"," ",Notenliste!F14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M16" s="17">
         <f>Notenliste!E14</f>
@@ -6737,8 +6738,8 @@
         <v>0</v>
       </c>
       <c r="O16" s="19" t="str">
-        <f>UPPER(Notenliste!L14)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L14=0," ",UPPER(Notenliste!L14))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6778,16 +6779,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!J15)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J15=0," ",UPPER(Notenliste!J15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L17" s="17" t="str">
-        <f>Notenliste!F15</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"), "bestanden",IF(Notenliste!F15="KP"," ",Notenliste!F15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M17" s="17">
         <f>Notenliste!E15</f>
@@ -6798,8 +6799,8 @@
         <v>0</v>
       </c>
       <c r="O17" s="19" t="str">
-        <f>UPPER(Notenliste!L15)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L15=0," ",UPPER(Notenliste!L15))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6839,16 +6840,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!J16)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J16=0," ",UPPER(Notenliste!J16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L18" s="17" t="str">
-        <f>Notenliste!F16</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"), "bestanden",IF(Notenliste!F16="KP"," ",Notenliste!F16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M18" s="17">
         <f>Notenliste!E16</f>
@@ -6859,8 +6860,8 @@
         <v>0</v>
       </c>
       <c r="O18" s="19" t="str">
-        <f>UPPER(Notenliste!L16)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L16=0," ",UPPER(Notenliste!L16))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6900,16 +6901,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!J17)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J17=0," ",UPPER(Notenliste!J17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L19" s="17" t="str">
-        <f>Notenliste!F17</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"), "bestanden",IF(Notenliste!F17="KP"," ",Notenliste!F17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M19" s="17">
         <f>Notenliste!E17</f>
@@ -6920,8 +6921,8 @@
         <v>0</v>
       </c>
       <c r="O19" s="19" t="str">
-        <f>UPPER(Notenliste!L17)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L17=0," ",UPPER(Notenliste!L17))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -6961,16 +6962,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!J18)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J18=0," ",UPPER(Notenliste!J18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L20" s="17" t="str">
-        <f>Notenliste!F18</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"), "bestanden",IF(Notenliste!F18="KP"," ",Notenliste!F18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M20" s="17">
         <f>Notenliste!E18</f>
@@ -6981,8 +6982,8 @@
         <v>0</v>
       </c>
       <c r="O20" s="19" t="str">
-        <f>UPPER(Notenliste!L18)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L18=0," ",UPPER(Notenliste!L18))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7022,16 +7023,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!J19)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J19=0," ",UPPER(Notenliste!J19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L21" s="17" t="str">
-        <f>Notenliste!F19</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"), "bestanden",IF(Notenliste!F19="KP"," ",Notenliste!F19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="17">
         <f>Notenliste!E19</f>
@@ -7042,8 +7043,8 @@
         <v>0</v>
       </c>
       <c r="O21" s="19" t="str">
-        <f>UPPER(Notenliste!L19)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L19=0," ",UPPER(Notenliste!L19))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7083,16 +7084,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!J20)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J20=0," ",UPPER(Notenliste!J20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="17" t="str">
-        <f>Notenliste!F20</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"), "bestanden",IF(Notenliste!F20="KP"," ",Notenliste!F20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M22" s="17">
         <f>Notenliste!E20</f>
@@ -7103,8 +7104,8 @@
         <v>0</v>
       </c>
       <c r="O22" s="19" t="str">
-        <f>UPPER(Notenliste!L20)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L20=0," ",UPPER(Notenliste!L20))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7144,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!J21)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J21=0," ",UPPER(Notenliste!J21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L23" s="17" t="str">
-        <f>Notenliste!F21</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"), "bestanden",IF(Notenliste!F21="KP"," ",Notenliste!F21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="17">
         <f>Notenliste!E21</f>
@@ -7164,8 +7165,8 @@
         <v>0</v>
       </c>
       <c r="O23" s="19" t="str">
-        <f>UPPER(Notenliste!L21)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L21=0," ",UPPER(Notenliste!L21))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7205,16 +7206,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!J22)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J22=0," ",UPPER(Notenliste!J22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L24" s="17" t="str">
-        <f>Notenliste!F22</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"), "bestanden",IF(Notenliste!F22="KP"," ",Notenliste!F22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M24" s="17">
         <f>Notenliste!E22</f>
@@ -7225,8 +7226,8 @@
         <v>0</v>
       </c>
       <c r="O24" s="19" t="str">
-        <f>UPPER(Notenliste!L22)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L22=0," ",UPPER(Notenliste!L22))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7266,16 +7267,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!J23)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J23=0," ",UPPER(Notenliste!J23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L25" s="17" t="str">
-        <f>Notenliste!F23</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"), "bestanden",IF(Notenliste!F23="KP"," ",Notenliste!F23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="17">
         <f>Notenliste!E23</f>
@@ -7286,8 +7287,8 @@
         <v>0</v>
       </c>
       <c r="O25" s="19" t="str">
-        <f>UPPER(Notenliste!L23)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L23=0," ",UPPER(Notenliste!L23))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7327,16 +7328,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!J24)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J24=0," ",UPPER(Notenliste!J24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L26" s="17" t="str">
-        <f>Notenliste!F24</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"), "bestanden",IF(Notenliste!F24="KP"," ",Notenliste!F24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M26" s="17">
         <f>Notenliste!E24</f>
@@ -7347,8 +7348,8 @@
         <v>0</v>
       </c>
       <c r="O26" s="19" t="str">
-        <f>UPPER(Notenliste!L24)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L24=0," ",UPPER(Notenliste!L24))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7388,16 +7389,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!J25)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J25=0," ",UPPER(Notenliste!J25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27" s="17" t="str">
-        <f>Notenliste!F25</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"), "bestanden",IF(Notenliste!F25="KP"," ",Notenliste!F25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="17">
         <f>Notenliste!E25</f>
@@ -7408,8 +7409,8 @@
         <v>0</v>
       </c>
       <c r="O27" s="19" t="str">
-        <f>UPPER(Notenliste!L25)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L25=0," ",UPPER(Notenliste!L25))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -7449,16 +7450,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!J26)</f>
-        <v>0</v>
+        <f>IF(Notenliste!J26=0," ",UPPER(Notenliste!J26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L28" s="17" t="str">
-        <f>Notenliste!F26</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"), "bestanden",IF(Notenliste!F26="KP"," ",Notenliste!F26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M28" s="17">
         <f>Notenliste!E26</f>
@@ -7469,8 +7470,8 @@
         <v>0</v>
       </c>
       <c r="O28" s="19" t="str">
-        <f>UPPER(Notenliste!L26)</f>
-        <v>0</v>
+        <f>IF(Notenliste!L26=0," ",UPPER(Notenliste!L26))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -8852,7 +8853,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8902,7 +8903,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="68" t="e">
-        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
+        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="66" t="str">
@@ -8920,7 +8921,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="68" t="str">
-        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3)))</f>
+        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="66" t="str">
@@ -8938,7 +8939,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="68" t="str">
-        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4)))</f>
+        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="66" t="str">
@@ -8956,7 +8957,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="68" t="str">
-        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5)))</f>
+        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="66" t="str">
@@ -8974,7 +8975,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="68" t="str">
-        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6)))</f>
+        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="66" t="str">
@@ -8992,7 +8993,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="68" t="str">
-        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7)))</f>
+        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="66" t="str">
@@ -9010,7 +9011,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="68" t="str">
-        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8)))</f>
+        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="66" t="str">
@@ -9028,7 +9029,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="68" t="str">
-        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9)))</f>
+        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="66" t="str">
@@ -9046,7 +9047,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="68" t="str">
-        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10)))</f>
+        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="66" t="str">
@@ -9064,7 +9065,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="68" t="str">
-        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11)))</f>
+        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="66" t="str">
@@ -9082,7 +9083,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="68" t="str">
-        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12)))</f>
+        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="66" t="str">
@@ -9100,7 +9101,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="68" t="str">
-        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13)))</f>
+        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="66" t="str">
@@ -9118,7 +9119,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="68" t="str">
-        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14)))</f>
+        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="66" t="str">
@@ -9136,7 +9137,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="68" t="str">
-        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15)))</f>
+        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="66" t="str">
@@ -9154,7 +9155,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="68" t="str">
-        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16)))</f>
+        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="66" t="str">
@@ -9172,7 +9173,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="68" t="str">
-        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17)))</f>
+        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="66" t="str">
@@ -9190,7 +9191,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="68" t="str">
-        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18)))</f>
+        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="66" t="str">
@@ -9208,7 +9209,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="68" t="str">
-        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19)))</f>
+        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="66" t="str">
@@ -9226,7 +9227,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="68" t="str">
-        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20)))</f>
+        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="66" t="str">
@@ -9244,7 +9245,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="68" t="str">
-        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21)))</f>
+        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="66" t="str">
@@ -9262,7 +9263,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="68" t="str">
-        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22)))</f>
+        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="66" t="str">
@@ -9280,7 +9281,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="68" t="str">
-        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23)))</f>
+        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="66" t="str">
@@ -9298,7 +9299,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="68" t="str">
-        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24)))</f>
+        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="66" t="str">
@@ -9316,7 +9317,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="68" t="str">
-        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25)))</f>
+        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="66" t="str">
@@ -9334,7 +9335,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="68" t="str">
-        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26)))</f>
+        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="66" t="str">
@@ -9344,7 +9345,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A22B3-AF8E-4D17-9E90-640F556CD3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -23,12 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -524,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1125,8 +1126,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1222,7 +1223,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1250,7 +1251,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,45 +1473,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="7" name="Note" dataDxfId="14"/>
-    <tableColumn id="8" name="LP" dataDxfId="13"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="10" name="Telefon" dataDxfId="11"/>
-    <tableColumn id="11" name="bestanden" dataDxfId="10"/>
-    <tableColumn id="9" name="Teilnahmeschein" dataDxfId="9"/>
-    <tableColumn id="6" name="Schein erhalten" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Telefon" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="bestanden" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Teilnahmeschein" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",Notenliste!F2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,32 +1803,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="39" customWidth="1"/>
     <col min="12" max="12" width="15" style="39" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="13" max="13" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="G12" s="41"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="G13" s="41"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="G14" s="41"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="G15" s="41"/>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="G16" s="41"/>
       <c r="L16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="G17" s="41"/>
       <c r="L17" s="41"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2088,27 +2088,27 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2128,557 +2128,557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVY59"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" hidden="1"/>
-    <col min="16" max="16" width="5.140625" style="1" hidden="1"/>
-    <col min="17" max="17" width="6.7109375" style="2" hidden="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.109375" style="1" hidden="1"/>
+    <col min="17" max="17" width="6.6640625" style="2" hidden="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
     <col min="19" max="19" width="16" style="1" hidden="1"/>
-    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
-    <col min="21" max="245" width="11.42578125" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.42578125" style="1" hidden="1"/>
-    <col min="247" max="247" width="11.42578125" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.7109375" style="1" hidden="1"/>
-    <col min="249" max="249" width="21.7109375" style="1" hidden="1"/>
-    <col min="250" max="252" width="11.42578125" style="1" hidden="1"/>
+    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
+    <col min="21" max="245" width="11.44140625" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.44140625" style="1" hidden="1"/>
+    <col min="247" max="247" width="11.44140625" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.6640625" style="1" hidden="1"/>
+    <col min="249" max="249" width="21.6640625" style="1" hidden="1"/>
+    <col min="250" max="252" width="11.44140625" style="1" hidden="1"/>
     <col min="253" max="253" width="16" style="1" hidden="1"/>
-    <col min="254" max="254" width="20.42578125" style="1" hidden="1"/>
-    <col min="255" max="501" width="11.42578125" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.42578125" style="1" hidden="1"/>
-    <col min="503" max="503" width="11.42578125" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.7109375" style="1" hidden="1"/>
-    <col min="505" max="505" width="21.7109375" style="1" hidden="1"/>
-    <col min="506" max="508" width="11.42578125" style="1" hidden="1"/>
+    <col min="254" max="254" width="20.44140625" style="1" hidden="1"/>
+    <col min="255" max="501" width="11.44140625" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.44140625" style="1" hidden="1"/>
+    <col min="503" max="503" width="11.44140625" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.6640625" style="1" hidden="1"/>
+    <col min="505" max="505" width="21.6640625" style="1" hidden="1"/>
+    <col min="506" max="508" width="11.44140625" style="1" hidden="1"/>
     <col min="509" max="509" width="16" style="1" hidden="1"/>
-    <col min="510" max="510" width="20.42578125" style="1" hidden="1"/>
-    <col min="511" max="757" width="11.42578125" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.42578125" style="1" hidden="1"/>
-    <col min="759" max="759" width="11.42578125" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.7109375" style="1" hidden="1"/>
-    <col min="761" max="761" width="21.7109375" style="1" hidden="1"/>
-    <col min="762" max="764" width="11.42578125" style="1" hidden="1"/>
+    <col min="510" max="510" width="20.44140625" style="1" hidden="1"/>
+    <col min="511" max="757" width="11.44140625" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.44140625" style="1" hidden="1"/>
+    <col min="759" max="759" width="11.44140625" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.6640625" style="1" hidden="1"/>
+    <col min="761" max="761" width="21.6640625" style="1" hidden="1"/>
+    <col min="762" max="764" width="11.44140625" style="1" hidden="1"/>
     <col min="765" max="765" width="16" style="1" hidden="1"/>
-    <col min="766" max="766" width="20.42578125" style="1" hidden="1"/>
-    <col min="767" max="1013" width="11.42578125" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.42578125" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="11.42578125" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.7109375" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="21.7109375" style="1" hidden="1"/>
-    <col min="1018" max="1020" width="11.42578125" style="1" hidden="1"/>
+    <col min="766" max="766" width="20.44140625" style="1" hidden="1"/>
+    <col min="767" max="1013" width="11.44140625" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.44140625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="11.44140625" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.6640625" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="21.6640625" style="1" hidden="1"/>
+    <col min="1018" max="1020" width="11.44140625" style="1" hidden="1"/>
     <col min="1021" max="1021" width="16" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="20.42578125" style="1" hidden="1"/>
-    <col min="1023" max="1269" width="11.42578125" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.42578125" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="11.42578125" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.7109375" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="21.7109375" style="1" hidden="1"/>
-    <col min="1274" max="1276" width="11.42578125" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="20.44140625" style="1" hidden="1"/>
+    <col min="1023" max="1269" width="11.44140625" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.44140625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="11.44140625" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.6640625" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="21.6640625" style="1" hidden="1"/>
+    <col min="1274" max="1276" width="11.44140625" style="1" hidden="1"/>
     <col min="1277" max="1277" width="16" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="20.42578125" style="1" hidden="1"/>
-    <col min="1279" max="1525" width="11.42578125" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.42578125" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="11.42578125" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.7109375" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="21.7109375" style="1" hidden="1"/>
-    <col min="1530" max="1532" width="11.42578125" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="20.44140625" style="1" hidden="1"/>
+    <col min="1279" max="1525" width="11.44140625" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.44140625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="11.44140625" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.6640625" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="21.6640625" style="1" hidden="1"/>
+    <col min="1530" max="1532" width="11.44140625" style="1" hidden="1"/>
     <col min="1533" max="1533" width="16" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="20.42578125" style="1" hidden="1"/>
-    <col min="1535" max="1781" width="11.42578125" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.42578125" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="11.42578125" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.7109375" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="21.7109375" style="1" hidden="1"/>
-    <col min="1786" max="1788" width="11.42578125" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="20.44140625" style="1" hidden="1"/>
+    <col min="1535" max="1781" width="11.44140625" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.44140625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="11.44140625" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.6640625" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="21.6640625" style="1" hidden="1"/>
+    <col min="1786" max="1788" width="11.44140625" style="1" hidden="1"/>
     <col min="1789" max="1789" width="16" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="20.42578125" style="1" hidden="1"/>
-    <col min="1791" max="2037" width="11.42578125" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.42578125" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="11.42578125" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.7109375" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="21.7109375" style="1" hidden="1"/>
-    <col min="2042" max="2044" width="11.42578125" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="20.44140625" style="1" hidden="1"/>
+    <col min="1791" max="2037" width="11.44140625" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.44140625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="11.44140625" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.6640625" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="21.6640625" style="1" hidden="1"/>
+    <col min="2042" max="2044" width="11.44140625" style="1" hidden="1"/>
     <col min="2045" max="2045" width="16" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="20.42578125" style="1" hidden="1"/>
-    <col min="2047" max="2293" width="11.42578125" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.42578125" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="11.42578125" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.7109375" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="21.7109375" style="1" hidden="1"/>
-    <col min="2298" max="2300" width="11.42578125" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="20.44140625" style="1" hidden="1"/>
+    <col min="2047" max="2293" width="11.44140625" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.44140625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="11.44140625" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.6640625" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="21.6640625" style="1" hidden="1"/>
+    <col min="2298" max="2300" width="11.44140625" style="1" hidden="1"/>
     <col min="2301" max="2301" width="16" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="20.42578125" style="1" hidden="1"/>
-    <col min="2303" max="2549" width="11.42578125" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.42578125" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="11.42578125" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.7109375" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="21.7109375" style="1" hidden="1"/>
-    <col min="2554" max="2556" width="11.42578125" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="20.44140625" style="1" hidden="1"/>
+    <col min="2303" max="2549" width="11.44140625" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.44140625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="11.44140625" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.6640625" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="21.6640625" style="1" hidden="1"/>
+    <col min="2554" max="2556" width="11.44140625" style="1" hidden="1"/>
     <col min="2557" max="2557" width="16" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="20.42578125" style="1" hidden="1"/>
-    <col min="2559" max="2805" width="11.42578125" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.42578125" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="11.42578125" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.7109375" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="21.7109375" style="1" hidden="1"/>
-    <col min="2810" max="2812" width="11.42578125" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="20.44140625" style="1" hidden="1"/>
+    <col min="2559" max="2805" width="11.44140625" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.44140625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="11.44140625" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.6640625" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="21.6640625" style="1" hidden="1"/>
+    <col min="2810" max="2812" width="11.44140625" style="1" hidden="1"/>
     <col min="2813" max="2813" width="16" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="20.42578125" style="1" hidden="1"/>
-    <col min="2815" max="3061" width="11.42578125" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.42578125" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="11.42578125" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.7109375" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="21.7109375" style="1" hidden="1"/>
-    <col min="3066" max="3068" width="11.42578125" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="20.44140625" style="1" hidden="1"/>
+    <col min="2815" max="3061" width="11.44140625" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.44140625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="11.44140625" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.6640625" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="21.6640625" style="1" hidden="1"/>
+    <col min="3066" max="3068" width="11.44140625" style="1" hidden="1"/>
     <col min="3069" max="3069" width="16" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="20.42578125" style="1" hidden="1"/>
-    <col min="3071" max="3317" width="11.42578125" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.42578125" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="11.42578125" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.7109375" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="21.7109375" style="1" hidden="1"/>
-    <col min="3322" max="3324" width="11.42578125" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="20.44140625" style="1" hidden="1"/>
+    <col min="3071" max="3317" width="11.44140625" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.44140625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="11.44140625" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.6640625" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="21.6640625" style="1" hidden="1"/>
+    <col min="3322" max="3324" width="11.44140625" style="1" hidden="1"/>
     <col min="3325" max="3325" width="16" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="20.42578125" style="1" hidden="1"/>
-    <col min="3327" max="3573" width="11.42578125" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.42578125" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="11.42578125" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.7109375" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="21.7109375" style="1" hidden="1"/>
-    <col min="3578" max="3580" width="11.42578125" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="20.44140625" style="1" hidden="1"/>
+    <col min="3327" max="3573" width="11.44140625" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.44140625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="11.44140625" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.6640625" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="21.6640625" style="1" hidden="1"/>
+    <col min="3578" max="3580" width="11.44140625" style="1" hidden="1"/>
     <col min="3581" max="3581" width="16" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="20.42578125" style="1" hidden="1"/>
-    <col min="3583" max="3829" width="11.42578125" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.42578125" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="11.42578125" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.7109375" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="21.7109375" style="1" hidden="1"/>
-    <col min="3834" max="3836" width="11.42578125" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="20.44140625" style="1" hidden="1"/>
+    <col min="3583" max="3829" width="11.44140625" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.44140625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="11.44140625" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.6640625" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="21.6640625" style="1" hidden="1"/>
+    <col min="3834" max="3836" width="11.44140625" style="1" hidden="1"/>
     <col min="3837" max="3837" width="16" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="20.42578125" style="1" hidden="1"/>
-    <col min="3839" max="4085" width="11.42578125" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.42578125" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="11.42578125" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.7109375" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="21.7109375" style="1" hidden="1"/>
-    <col min="4090" max="4092" width="11.42578125" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="20.44140625" style="1" hidden="1"/>
+    <col min="3839" max="4085" width="11.44140625" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.44140625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="11.44140625" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.6640625" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="21.6640625" style="1" hidden="1"/>
+    <col min="4090" max="4092" width="11.44140625" style="1" hidden="1"/>
     <col min="4093" max="4093" width="16" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="20.42578125" style="1" hidden="1"/>
-    <col min="4095" max="4341" width="11.42578125" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.42578125" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="11.42578125" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.7109375" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="21.7109375" style="1" hidden="1"/>
-    <col min="4346" max="4348" width="11.42578125" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="20.44140625" style="1" hidden="1"/>
+    <col min="4095" max="4341" width="11.44140625" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.44140625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="11.44140625" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.6640625" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="21.6640625" style="1" hidden="1"/>
+    <col min="4346" max="4348" width="11.44140625" style="1" hidden="1"/>
     <col min="4349" max="4349" width="16" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="20.42578125" style="1" hidden="1"/>
-    <col min="4351" max="4597" width="11.42578125" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.42578125" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="11.42578125" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.7109375" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="21.7109375" style="1" hidden="1"/>
-    <col min="4602" max="4604" width="11.42578125" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="20.44140625" style="1" hidden="1"/>
+    <col min="4351" max="4597" width="11.44140625" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.44140625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="11.44140625" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.6640625" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="21.6640625" style="1" hidden="1"/>
+    <col min="4602" max="4604" width="11.44140625" style="1" hidden="1"/>
     <col min="4605" max="4605" width="16" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="20.42578125" style="1" hidden="1"/>
-    <col min="4607" max="4853" width="11.42578125" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.42578125" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="11.42578125" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.7109375" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="21.7109375" style="1" hidden="1"/>
-    <col min="4858" max="4860" width="11.42578125" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="20.44140625" style="1" hidden="1"/>
+    <col min="4607" max="4853" width="11.44140625" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.44140625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="11.44140625" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.6640625" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="21.6640625" style="1" hidden="1"/>
+    <col min="4858" max="4860" width="11.44140625" style="1" hidden="1"/>
     <col min="4861" max="4861" width="16" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="20.42578125" style="1" hidden="1"/>
-    <col min="4863" max="5109" width="11.42578125" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.42578125" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="11.42578125" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.7109375" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="21.7109375" style="1" hidden="1"/>
-    <col min="5114" max="5116" width="11.42578125" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="20.44140625" style="1" hidden="1"/>
+    <col min="4863" max="5109" width="11.44140625" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.44140625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="11.44140625" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.6640625" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="21.6640625" style="1" hidden="1"/>
+    <col min="5114" max="5116" width="11.44140625" style="1" hidden="1"/>
     <col min="5117" max="5117" width="16" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="20.42578125" style="1" hidden="1"/>
-    <col min="5119" max="5365" width="11.42578125" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.42578125" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="11.42578125" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.7109375" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="21.7109375" style="1" hidden="1"/>
-    <col min="5370" max="5372" width="11.42578125" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="20.44140625" style="1" hidden="1"/>
+    <col min="5119" max="5365" width="11.44140625" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.44140625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="11.44140625" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.6640625" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="21.6640625" style="1" hidden="1"/>
+    <col min="5370" max="5372" width="11.44140625" style="1" hidden="1"/>
     <col min="5373" max="5373" width="16" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="20.42578125" style="1" hidden="1"/>
-    <col min="5375" max="5621" width="11.42578125" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.42578125" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="11.42578125" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.7109375" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="21.7109375" style="1" hidden="1"/>
-    <col min="5626" max="5628" width="11.42578125" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="20.44140625" style="1" hidden="1"/>
+    <col min="5375" max="5621" width="11.44140625" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.44140625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="11.44140625" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.6640625" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="21.6640625" style="1" hidden="1"/>
+    <col min="5626" max="5628" width="11.44140625" style="1" hidden="1"/>
     <col min="5629" max="5629" width="16" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="20.42578125" style="1" hidden="1"/>
-    <col min="5631" max="5877" width="11.42578125" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.42578125" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="11.42578125" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.7109375" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="21.7109375" style="1" hidden="1"/>
-    <col min="5882" max="5884" width="11.42578125" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="20.44140625" style="1" hidden="1"/>
+    <col min="5631" max="5877" width="11.44140625" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.44140625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="11.44140625" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.6640625" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="21.6640625" style="1" hidden="1"/>
+    <col min="5882" max="5884" width="11.44140625" style="1" hidden="1"/>
     <col min="5885" max="5885" width="16" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="20.42578125" style="1" hidden="1"/>
-    <col min="5887" max="6133" width="11.42578125" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.42578125" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="11.42578125" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.7109375" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="21.7109375" style="1" hidden="1"/>
-    <col min="6138" max="6140" width="11.42578125" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="20.44140625" style="1" hidden="1"/>
+    <col min="5887" max="6133" width="11.44140625" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.44140625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="11.44140625" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.6640625" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="21.6640625" style="1" hidden="1"/>
+    <col min="6138" max="6140" width="11.44140625" style="1" hidden="1"/>
     <col min="6141" max="6141" width="16" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="20.42578125" style="1" hidden="1"/>
-    <col min="6143" max="6389" width="11.42578125" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.42578125" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="11.42578125" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.7109375" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="21.7109375" style="1" hidden="1"/>
-    <col min="6394" max="6396" width="11.42578125" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="20.44140625" style="1" hidden="1"/>
+    <col min="6143" max="6389" width="11.44140625" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.44140625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="11.44140625" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.6640625" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="21.6640625" style="1" hidden="1"/>
+    <col min="6394" max="6396" width="11.44140625" style="1" hidden="1"/>
     <col min="6397" max="6397" width="16" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="20.42578125" style="1" hidden="1"/>
-    <col min="6399" max="6645" width="11.42578125" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.42578125" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="11.42578125" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.7109375" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="21.7109375" style="1" hidden="1"/>
-    <col min="6650" max="6652" width="11.42578125" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="20.44140625" style="1" hidden="1"/>
+    <col min="6399" max="6645" width="11.44140625" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.44140625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="11.44140625" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.6640625" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="21.6640625" style="1" hidden="1"/>
+    <col min="6650" max="6652" width="11.44140625" style="1" hidden="1"/>
     <col min="6653" max="6653" width="16" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="20.42578125" style="1" hidden="1"/>
-    <col min="6655" max="6901" width="11.42578125" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.42578125" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="11.42578125" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.7109375" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="21.7109375" style="1" hidden="1"/>
-    <col min="6906" max="6908" width="11.42578125" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="20.44140625" style="1" hidden="1"/>
+    <col min="6655" max="6901" width="11.44140625" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.44140625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="11.44140625" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.6640625" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="21.6640625" style="1" hidden="1"/>
+    <col min="6906" max="6908" width="11.44140625" style="1" hidden="1"/>
     <col min="6909" max="6909" width="16" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="20.42578125" style="1" hidden="1"/>
-    <col min="6911" max="7157" width="11.42578125" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.42578125" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="11.42578125" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.7109375" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="21.7109375" style="1" hidden="1"/>
-    <col min="7162" max="7164" width="11.42578125" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="20.44140625" style="1" hidden="1"/>
+    <col min="6911" max="7157" width="11.44140625" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.44140625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="11.44140625" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.6640625" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="21.6640625" style="1" hidden="1"/>
+    <col min="7162" max="7164" width="11.44140625" style="1" hidden="1"/>
     <col min="7165" max="7165" width="16" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="20.42578125" style="1" hidden="1"/>
-    <col min="7167" max="7413" width="11.42578125" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.42578125" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="11.42578125" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.7109375" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="21.7109375" style="1" hidden="1"/>
-    <col min="7418" max="7420" width="11.42578125" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="20.44140625" style="1" hidden="1"/>
+    <col min="7167" max="7413" width="11.44140625" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.44140625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="11.44140625" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.6640625" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="21.6640625" style="1" hidden="1"/>
+    <col min="7418" max="7420" width="11.44140625" style="1" hidden="1"/>
     <col min="7421" max="7421" width="16" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="20.42578125" style="1" hidden="1"/>
-    <col min="7423" max="7669" width="11.42578125" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.42578125" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="11.42578125" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.7109375" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="21.7109375" style="1" hidden="1"/>
-    <col min="7674" max="7676" width="11.42578125" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="20.44140625" style="1" hidden="1"/>
+    <col min="7423" max="7669" width="11.44140625" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.44140625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="11.44140625" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.6640625" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="21.6640625" style="1" hidden="1"/>
+    <col min="7674" max="7676" width="11.44140625" style="1" hidden="1"/>
     <col min="7677" max="7677" width="16" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="20.42578125" style="1" hidden="1"/>
-    <col min="7679" max="7925" width="11.42578125" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.42578125" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="11.42578125" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.7109375" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="21.7109375" style="1" hidden="1"/>
-    <col min="7930" max="7932" width="11.42578125" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="20.44140625" style="1" hidden="1"/>
+    <col min="7679" max="7925" width="11.44140625" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.44140625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="11.44140625" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.6640625" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="21.6640625" style="1" hidden="1"/>
+    <col min="7930" max="7932" width="11.44140625" style="1" hidden="1"/>
     <col min="7933" max="7933" width="16" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="20.42578125" style="1" hidden="1"/>
-    <col min="7935" max="8181" width="11.42578125" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.42578125" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="11.42578125" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.7109375" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="21.7109375" style="1" hidden="1"/>
-    <col min="8186" max="8188" width="11.42578125" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="20.44140625" style="1" hidden="1"/>
+    <col min="7935" max="8181" width="11.44140625" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.44140625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="11.44140625" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.6640625" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="21.6640625" style="1" hidden="1"/>
+    <col min="8186" max="8188" width="11.44140625" style="1" hidden="1"/>
     <col min="8189" max="8189" width="16" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="20.42578125" style="1" hidden="1"/>
-    <col min="8191" max="8437" width="11.42578125" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.42578125" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="11.42578125" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.7109375" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="21.7109375" style="1" hidden="1"/>
-    <col min="8442" max="8444" width="11.42578125" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="20.44140625" style="1" hidden="1"/>
+    <col min="8191" max="8437" width="11.44140625" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.44140625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="11.44140625" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.6640625" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="21.6640625" style="1" hidden="1"/>
+    <col min="8442" max="8444" width="11.44140625" style="1" hidden="1"/>
     <col min="8445" max="8445" width="16" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="20.42578125" style="1" hidden="1"/>
-    <col min="8447" max="8693" width="11.42578125" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.42578125" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="11.42578125" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.7109375" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="21.7109375" style="1" hidden="1"/>
-    <col min="8698" max="8700" width="11.42578125" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="20.44140625" style="1" hidden="1"/>
+    <col min="8447" max="8693" width="11.44140625" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.44140625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="11.44140625" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.6640625" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="21.6640625" style="1" hidden="1"/>
+    <col min="8698" max="8700" width="11.44140625" style="1" hidden="1"/>
     <col min="8701" max="8701" width="16" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="20.42578125" style="1" hidden="1"/>
-    <col min="8703" max="8949" width="11.42578125" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.42578125" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="11.42578125" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.7109375" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="21.7109375" style="1" hidden="1"/>
-    <col min="8954" max="8956" width="11.42578125" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="20.44140625" style="1" hidden="1"/>
+    <col min="8703" max="8949" width="11.44140625" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.44140625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="11.44140625" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.6640625" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="21.6640625" style="1" hidden="1"/>
+    <col min="8954" max="8956" width="11.44140625" style="1" hidden="1"/>
     <col min="8957" max="8957" width="16" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="20.42578125" style="1" hidden="1"/>
-    <col min="8959" max="9205" width="11.42578125" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.42578125" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="11.42578125" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.7109375" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="21.7109375" style="1" hidden="1"/>
-    <col min="9210" max="9212" width="11.42578125" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="20.44140625" style="1" hidden="1"/>
+    <col min="8959" max="9205" width="11.44140625" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.44140625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="11.44140625" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.6640625" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="21.6640625" style="1" hidden="1"/>
+    <col min="9210" max="9212" width="11.44140625" style="1" hidden="1"/>
     <col min="9213" max="9213" width="16" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="20.42578125" style="1" hidden="1"/>
-    <col min="9215" max="9461" width="11.42578125" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.42578125" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="11.42578125" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.7109375" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="21.7109375" style="1" hidden="1"/>
-    <col min="9466" max="9468" width="11.42578125" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="20.44140625" style="1" hidden="1"/>
+    <col min="9215" max="9461" width="11.44140625" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.44140625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="11.44140625" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.6640625" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="21.6640625" style="1" hidden="1"/>
+    <col min="9466" max="9468" width="11.44140625" style="1" hidden="1"/>
     <col min="9469" max="9469" width="16" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="20.42578125" style="1" hidden="1"/>
-    <col min="9471" max="9717" width="11.42578125" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.42578125" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="11.42578125" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.7109375" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="21.7109375" style="1" hidden="1"/>
-    <col min="9722" max="9724" width="11.42578125" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="20.44140625" style="1" hidden="1"/>
+    <col min="9471" max="9717" width="11.44140625" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.44140625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="11.44140625" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.6640625" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="21.6640625" style="1" hidden="1"/>
+    <col min="9722" max="9724" width="11.44140625" style="1" hidden="1"/>
     <col min="9725" max="9725" width="16" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="20.42578125" style="1" hidden="1"/>
-    <col min="9727" max="9973" width="11.42578125" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.42578125" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="11.42578125" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.7109375" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="21.7109375" style="1" hidden="1"/>
-    <col min="9978" max="9980" width="11.42578125" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="20.44140625" style="1" hidden="1"/>
+    <col min="9727" max="9973" width="11.44140625" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.44140625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="11.44140625" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.6640625" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="21.6640625" style="1" hidden="1"/>
+    <col min="9978" max="9980" width="11.44140625" style="1" hidden="1"/>
     <col min="9981" max="9981" width="16" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="20.42578125" style="1" hidden="1"/>
-    <col min="9983" max="10229" width="11.42578125" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.42578125" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="11.42578125" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.7109375" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="21.7109375" style="1" hidden="1"/>
-    <col min="10234" max="10236" width="11.42578125" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="20.44140625" style="1" hidden="1"/>
+    <col min="9983" max="10229" width="11.44140625" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.44140625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="11.44140625" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.6640625" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="21.6640625" style="1" hidden="1"/>
+    <col min="10234" max="10236" width="11.44140625" style="1" hidden="1"/>
     <col min="10237" max="10237" width="16" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="20.42578125" style="1" hidden="1"/>
-    <col min="10239" max="10485" width="11.42578125" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.42578125" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="11.42578125" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.7109375" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="21.7109375" style="1" hidden="1"/>
-    <col min="10490" max="10492" width="11.42578125" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="20.44140625" style="1" hidden="1"/>
+    <col min="10239" max="10485" width="11.44140625" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.44140625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="11.44140625" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.6640625" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="21.6640625" style="1" hidden="1"/>
+    <col min="10490" max="10492" width="11.44140625" style="1" hidden="1"/>
     <col min="10493" max="10493" width="16" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="20.42578125" style="1" hidden="1"/>
-    <col min="10495" max="10741" width="11.42578125" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.42578125" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="11.42578125" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.7109375" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="21.7109375" style="1" hidden="1"/>
-    <col min="10746" max="10748" width="11.42578125" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="20.44140625" style="1" hidden="1"/>
+    <col min="10495" max="10741" width="11.44140625" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.44140625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="11.44140625" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.6640625" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="21.6640625" style="1" hidden="1"/>
+    <col min="10746" max="10748" width="11.44140625" style="1" hidden="1"/>
     <col min="10749" max="10749" width="16" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="20.42578125" style="1" hidden="1"/>
-    <col min="10751" max="10997" width="11.42578125" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.42578125" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="11.42578125" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.7109375" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="21.7109375" style="1" hidden="1"/>
-    <col min="11002" max="11004" width="11.42578125" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="20.44140625" style="1" hidden="1"/>
+    <col min="10751" max="10997" width="11.44140625" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.44140625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="11.44140625" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.6640625" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="21.6640625" style="1" hidden="1"/>
+    <col min="11002" max="11004" width="11.44140625" style="1" hidden="1"/>
     <col min="11005" max="11005" width="16" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="20.42578125" style="1" hidden="1"/>
-    <col min="11007" max="11253" width="11.42578125" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.42578125" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="11.42578125" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.7109375" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="21.7109375" style="1" hidden="1"/>
-    <col min="11258" max="11260" width="11.42578125" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="20.44140625" style="1" hidden="1"/>
+    <col min="11007" max="11253" width="11.44140625" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.44140625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="11.44140625" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.6640625" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="21.6640625" style="1" hidden="1"/>
+    <col min="11258" max="11260" width="11.44140625" style="1" hidden="1"/>
     <col min="11261" max="11261" width="16" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="20.42578125" style="1" hidden="1"/>
-    <col min="11263" max="11509" width="11.42578125" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.42578125" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="11.42578125" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.7109375" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="21.7109375" style="1" hidden="1"/>
-    <col min="11514" max="11516" width="11.42578125" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="20.44140625" style="1" hidden="1"/>
+    <col min="11263" max="11509" width="11.44140625" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.44140625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="11.44140625" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.6640625" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="21.6640625" style="1" hidden="1"/>
+    <col min="11514" max="11516" width="11.44140625" style="1" hidden="1"/>
     <col min="11517" max="11517" width="16" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="20.42578125" style="1" hidden="1"/>
-    <col min="11519" max="11765" width="11.42578125" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.42578125" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="11.42578125" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.7109375" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="21.7109375" style="1" hidden="1"/>
-    <col min="11770" max="11772" width="11.42578125" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="20.44140625" style="1" hidden="1"/>
+    <col min="11519" max="11765" width="11.44140625" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.44140625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="11.44140625" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.6640625" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="21.6640625" style="1" hidden="1"/>
+    <col min="11770" max="11772" width="11.44140625" style="1" hidden="1"/>
     <col min="11773" max="11773" width="16" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="20.42578125" style="1" hidden="1"/>
-    <col min="11775" max="12021" width="11.42578125" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.42578125" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="11.42578125" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.7109375" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="21.7109375" style="1" hidden="1"/>
-    <col min="12026" max="12028" width="11.42578125" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="20.44140625" style="1" hidden="1"/>
+    <col min="11775" max="12021" width="11.44140625" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.44140625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="11.44140625" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.6640625" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="21.6640625" style="1" hidden="1"/>
+    <col min="12026" max="12028" width="11.44140625" style="1" hidden="1"/>
     <col min="12029" max="12029" width="16" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="20.42578125" style="1" hidden="1"/>
-    <col min="12031" max="12277" width="11.42578125" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.42578125" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="11.42578125" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.7109375" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="21.7109375" style="1" hidden="1"/>
-    <col min="12282" max="12284" width="11.42578125" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="20.44140625" style="1" hidden="1"/>
+    <col min="12031" max="12277" width="11.44140625" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.44140625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="11.44140625" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.6640625" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="21.6640625" style="1" hidden="1"/>
+    <col min="12282" max="12284" width="11.44140625" style="1" hidden="1"/>
     <col min="12285" max="12285" width="16" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="20.42578125" style="1" hidden="1"/>
-    <col min="12287" max="12533" width="11.42578125" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.42578125" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="11.42578125" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.7109375" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="21.7109375" style="1" hidden="1"/>
-    <col min="12538" max="12540" width="11.42578125" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="20.44140625" style="1" hidden="1"/>
+    <col min="12287" max="12533" width="11.44140625" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.44140625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="11.44140625" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.6640625" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="21.6640625" style="1" hidden="1"/>
+    <col min="12538" max="12540" width="11.44140625" style="1" hidden="1"/>
     <col min="12541" max="12541" width="16" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="20.42578125" style="1" hidden="1"/>
-    <col min="12543" max="12789" width="11.42578125" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.42578125" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="11.42578125" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.7109375" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="21.7109375" style="1" hidden="1"/>
-    <col min="12794" max="12796" width="11.42578125" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="20.44140625" style="1" hidden="1"/>
+    <col min="12543" max="12789" width="11.44140625" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.44140625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="11.44140625" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.6640625" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="21.6640625" style="1" hidden="1"/>
+    <col min="12794" max="12796" width="11.44140625" style="1" hidden="1"/>
     <col min="12797" max="12797" width="16" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="20.42578125" style="1" hidden="1"/>
-    <col min="12799" max="13045" width="11.42578125" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.42578125" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="11.42578125" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.7109375" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="21.7109375" style="1" hidden="1"/>
-    <col min="13050" max="13052" width="11.42578125" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="20.44140625" style="1" hidden="1"/>
+    <col min="12799" max="13045" width="11.44140625" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.44140625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="11.44140625" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.6640625" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="21.6640625" style="1" hidden="1"/>
+    <col min="13050" max="13052" width="11.44140625" style="1" hidden="1"/>
     <col min="13053" max="13053" width="16" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="20.42578125" style="1" hidden="1"/>
-    <col min="13055" max="13301" width="11.42578125" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.42578125" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="11.42578125" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.7109375" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="21.7109375" style="1" hidden="1"/>
-    <col min="13306" max="13308" width="11.42578125" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="20.44140625" style="1" hidden="1"/>
+    <col min="13055" max="13301" width="11.44140625" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.44140625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="11.44140625" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.6640625" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="21.6640625" style="1" hidden="1"/>
+    <col min="13306" max="13308" width="11.44140625" style="1" hidden="1"/>
     <col min="13309" max="13309" width="16" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="20.42578125" style="1" hidden="1"/>
-    <col min="13311" max="13557" width="11.42578125" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.42578125" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="11.42578125" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.7109375" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="21.7109375" style="1" hidden="1"/>
-    <col min="13562" max="13564" width="11.42578125" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="20.44140625" style="1" hidden="1"/>
+    <col min="13311" max="13557" width="11.44140625" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.44140625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="11.44140625" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.6640625" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="21.6640625" style="1" hidden="1"/>
+    <col min="13562" max="13564" width="11.44140625" style="1" hidden="1"/>
     <col min="13565" max="13565" width="16" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="20.42578125" style="1" hidden="1"/>
-    <col min="13567" max="13813" width="11.42578125" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.42578125" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="11.42578125" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.7109375" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="21.7109375" style="1" hidden="1"/>
-    <col min="13818" max="13820" width="11.42578125" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="20.44140625" style="1" hidden="1"/>
+    <col min="13567" max="13813" width="11.44140625" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.44140625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="11.44140625" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.6640625" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="21.6640625" style="1" hidden="1"/>
+    <col min="13818" max="13820" width="11.44140625" style="1" hidden="1"/>
     <col min="13821" max="13821" width="16" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="20.42578125" style="1" hidden="1"/>
-    <col min="13823" max="14069" width="11.42578125" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.42578125" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="11.42578125" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.7109375" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="21.7109375" style="1" hidden="1"/>
-    <col min="14074" max="14076" width="11.42578125" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="20.44140625" style="1" hidden="1"/>
+    <col min="13823" max="14069" width="11.44140625" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.44140625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="11.44140625" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.6640625" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="21.6640625" style="1" hidden="1"/>
+    <col min="14074" max="14076" width="11.44140625" style="1" hidden="1"/>
     <col min="14077" max="14077" width="16" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="20.42578125" style="1" hidden="1"/>
-    <col min="14079" max="14325" width="11.42578125" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.42578125" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="11.42578125" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.7109375" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="21.7109375" style="1" hidden="1"/>
-    <col min="14330" max="14332" width="11.42578125" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="20.44140625" style="1" hidden="1"/>
+    <col min="14079" max="14325" width="11.44140625" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.44140625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="11.44140625" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.6640625" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="21.6640625" style="1" hidden="1"/>
+    <col min="14330" max="14332" width="11.44140625" style="1" hidden="1"/>
     <col min="14333" max="14333" width="16" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="20.42578125" style="1" hidden="1"/>
-    <col min="14335" max="14581" width="11.42578125" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.42578125" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="11.42578125" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.7109375" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="21.7109375" style="1" hidden="1"/>
-    <col min="14586" max="14588" width="11.42578125" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="20.44140625" style="1" hidden="1"/>
+    <col min="14335" max="14581" width="11.44140625" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.44140625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="11.44140625" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.6640625" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="21.6640625" style="1" hidden="1"/>
+    <col min="14586" max="14588" width="11.44140625" style="1" hidden="1"/>
     <col min="14589" max="14589" width="16" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="20.42578125" style="1" hidden="1"/>
-    <col min="14591" max="14837" width="11.42578125" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.42578125" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="11.42578125" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.7109375" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="21.7109375" style="1" hidden="1"/>
-    <col min="14842" max="14844" width="11.42578125" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="20.44140625" style="1" hidden="1"/>
+    <col min="14591" max="14837" width="11.44140625" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.44140625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="11.44140625" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.6640625" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="21.6640625" style="1" hidden="1"/>
+    <col min="14842" max="14844" width="11.44140625" style="1" hidden="1"/>
     <col min="14845" max="14845" width="16" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="20.42578125" style="1" hidden="1"/>
-    <col min="14847" max="15093" width="11.42578125" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.42578125" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="11.42578125" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.7109375" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="21.7109375" style="1" hidden="1"/>
-    <col min="15098" max="15100" width="11.42578125" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="20.44140625" style="1" hidden="1"/>
+    <col min="14847" max="15093" width="11.44140625" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.44140625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="11.44140625" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.6640625" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="21.6640625" style="1" hidden="1"/>
+    <col min="15098" max="15100" width="11.44140625" style="1" hidden="1"/>
     <col min="15101" max="15101" width="16" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="20.42578125" style="1" hidden="1"/>
-    <col min="15103" max="15349" width="11.42578125" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.42578125" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="11.42578125" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.7109375" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="21.7109375" style="1" hidden="1"/>
-    <col min="15354" max="15356" width="11.42578125" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="20.44140625" style="1" hidden="1"/>
+    <col min="15103" max="15349" width="11.44140625" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.44140625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="11.44140625" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.6640625" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="21.6640625" style="1" hidden="1"/>
+    <col min="15354" max="15356" width="11.44140625" style="1" hidden="1"/>
     <col min="15357" max="15357" width="16" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="20.42578125" style="1" hidden="1"/>
-    <col min="15359" max="15605" width="11.42578125" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.42578125" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="11.42578125" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.7109375" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="21.7109375" style="1" hidden="1"/>
-    <col min="15610" max="15612" width="11.42578125" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="20.44140625" style="1" hidden="1"/>
+    <col min="15359" max="15605" width="11.44140625" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.44140625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="11.44140625" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.6640625" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="21.6640625" style="1" hidden="1"/>
+    <col min="15610" max="15612" width="11.44140625" style="1" hidden="1"/>
     <col min="15613" max="15613" width="16" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="20.42578125" style="1" hidden="1"/>
-    <col min="15615" max="15861" width="11.42578125" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.42578125" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="11.42578125" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.7109375" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="21.7109375" style="1" hidden="1"/>
-    <col min="15866" max="15868" width="11.42578125" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="20.44140625" style="1" hidden="1"/>
+    <col min="15615" max="15861" width="11.44140625" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.44140625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="11.44140625" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.6640625" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="21.6640625" style="1" hidden="1"/>
+    <col min="15866" max="15868" width="11.44140625" style="1" hidden="1"/>
     <col min="15869" max="15869" width="16" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="20.42578125" style="1" hidden="1"/>
-    <col min="15871" max="16117" width="11.42578125" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.42578125" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="11.42578125" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.7109375" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="21.7109375" style="1" hidden="1"/>
-    <col min="16122" max="16124" width="11.42578125" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="20.44140625" style="1" hidden="1"/>
+    <col min="15871" max="16117" width="11.44140625" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.44140625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="11.44140625" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.6640625" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="21.6640625" style="1" hidden="1"/>
+    <col min="16122" max="16124" width="11.44140625" style="1" hidden="1"/>
     <col min="16125" max="16125" width="16" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="20.42578125" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.42578125" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="15.7109375" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="21.7109375" style="1" hidden="1"/>
-    <col min="16134" max="16136" width="11.42578125" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="20.44140625" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="15.6640625" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="21.6640625" style="1" hidden="1"/>
+    <col min="16134" max="16136" width="11.44140625" style="1" hidden="1"/>
     <col min="16137" max="16137" width="16" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="20.42578125" style="1" hidden="1"/>
-    <col min="16140" max="16141" width="11.42578125" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="20.44140625" style="1" hidden="1"/>
+    <col min="16140" max="16141" width="11.44140625" style="1" hidden="1"/>
     <col min="16142" max="16142" width="16" style="1" hidden="1"/>
-    <col min="16143" max="16145" width="20.42578125" style="1" hidden="1"/>
-    <col min="16146" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16143" max="16145" width="20.44140625" style="1" hidden="1"/>
+    <col min="16146" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2800,7 +2800,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4474,7 +4474,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4512,7 +4512,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4528,7 +4528,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="M31" s="31"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="M35" s="31"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="M36" s="31"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4670,52 +4670,52 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4725,7 +4725,7 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4743,27 +4743,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4779,7 +4779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5631,7 +5631,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5680,7 +5680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5690,15 +5690,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5712,7 +5712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5835,31 +5835,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.6640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5879,7 +5879,7 @@
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
-    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="94" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -5902,7 +5902,7 @@
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5990,27 +5990,27 @@
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
-        <f>IF(L4&lt;=4,"X","")</f>
+        <f>IF(OR(L4&lt;=4, L4="bestanden"),"X","")</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="17" t="e">
-        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"), "bestanden",IF(Notenliste!F2="KP"," ",Notenliste!F2))</f>
+        <f>IF(Notenliste!F2="KP","",IF(OR(Notenliste!H2="x", Notenliste!H2="X"), "bestanden",Notenliste!F2))</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="17" t="str">
         <f>Notenliste!E2</f>
         <v>attendance.sanitized_grade</v>
       </c>
-      <c r="N4" s="17" t="str">
-        <f>Notenliste!I2</f>
-        <v>attendance.ects_points</v>
+      <c r="N4" s="17" t="e">
+        <f>IF(Notenliste!F2="KP","",Notenliste!I2)</f>
+        <v>#N/A</v>
       </c>
       <c r="O4" s="19" t="str">
         <f>IF(Notenliste!L2=0," ",UPPER(Notenliste!L2))</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6051,27 +6051,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="17" t="str">
-        <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
+        <f t="shared" ref="K5:K28" si="0">IF(OR(L5&lt;=4, L5="bestanden"),"X","")</f>
         <v/>
       </c>
       <c r="L5" s="17" t="str">
-        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"), "bestanden",IF(Notenliste!F3="KP"," ",Notenliste!F3))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F3="KP","",IF(OR(Notenliste!H3="x", Notenliste!H3="X"), "bestanden",Notenliste!F3))</f>
+        <v/>
       </c>
       <c r="M5" s="17">
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="17">
-        <f>Notenliste!I3</f>
-        <v>0</v>
+      <c r="N5" s="17" t="str">
+        <f>IF(Notenliste!F3="KP","",Notenliste!I3)</f>
+        <v/>
       </c>
       <c r="O5" s="19" t="str">
         <f>IF(Notenliste!L3=0," ",UPPER(Notenliste!L3))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6116,23 +6116,23 @@
         <v/>
       </c>
       <c r="L6" s="17" t="str">
-        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"), "bestanden",IF(Notenliste!F4="KP"," ",Notenliste!F4))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F4="KP","",IF(OR(Notenliste!H4="x", Notenliste!H4="X"), "bestanden",Notenliste!F4))</f>
+        <v/>
       </c>
       <c r="M6" s="17">
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="17">
-        <f>Notenliste!I4</f>
-        <v>0</v>
+      <c r="N6" s="17" t="str">
+        <f>IF(Notenliste!F4="KP","",Notenliste!I4)</f>
+        <v/>
       </c>
       <c r="O6" s="19" t="str">
         <f>IF(Notenliste!L4=0," ",UPPER(Notenliste!L4))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6177,23 +6177,23 @@
         <v/>
       </c>
       <c r="L7" s="17" t="str">
-        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"), "bestanden",IF(Notenliste!F5="KP"," ",Notenliste!F5))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F5="KP","",IF(OR(Notenliste!H5="x", Notenliste!H5="X"), "bestanden",Notenliste!F5))</f>
+        <v/>
       </c>
       <c r="M7" s="17">
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17">
-        <f>Notenliste!I5</f>
-        <v>0</v>
+      <c r="N7" s="17" t="str">
+        <f>IF(Notenliste!F5="KP","",Notenliste!I5)</f>
+        <v/>
       </c>
       <c r="O7" s="19" t="str">
         <f>IF(Notenliste!L5=0," ",UPPER(Notenliste!L5))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6238,23 +6238,23 @@
         <v/>
       </c>
       <c r="L8" s="17" t="str">
-        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"), "bestanden",IF(Notenliste!F6="KP"," ",Notenliste!F6))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F6="KP","",IF(OR(Notenliste!H6="x", Notenliste!H6="X"), "bestanden",Notenliste!F6))</f>
+        <v/>
       </c>
       <c r="M8" s="17">
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="17">
-        <f>Notenliste!I6</f>
-        <v>0</v>
+      <c r="N8" s="17" t="str">
+        <f>IF(Notenliste!F6="KP","",Notenliste!I6)</f>
+        <v/>
       </c>
       <c r="O8" s="19" t="str">
         <f>IF(Notenliste!L6=0," ",UPPER(Notenliste!L6))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6299,23 +6299,23 @@
         <v/>
       </c>
       <c r="L9" s="17" t="str">
-        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"), "bestanden",IF(Notenliste!F7="KP"," ",Notenliste!F7))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F7="KP","",IF(OR(Notenliste!H7="x", Notenliste!H7="X"), "bestanden",Notenliste!F7))</f>
+        <v/>
       </c>
       <c r="M9" s="17">
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17">
-        <f>Notenliste!I7</f>
-        <v>0</v>
+      <c r="N9" s="17" t="str">
+        <f>IF(Notenliste!F7="KP","",Notenliste!I7)</f>
+        <v/>
       </c>
       <c r="O9" s="19" t="str">
         <f>IF(Notenliste!L7=0," ",UPPER(Notenliste!L7))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6360,23 +6360,23 @@
         <v/>
       </c>
       <c r="L10" s="17" t="str">
-        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"), "bestanden",IF(Notenliste!F8="KP"," ",Notenliste!F8))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F8="KP","",IF(OR(Notenliste!H8="x", Notenliste!H8="X"), "bestanden",Notenliste!F8))</f>
+        <v/>
       </c>
       <c r="M10" s="17">
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="17">
-        <f>Notenliste!I8</f>
-        <v>0</v>
+      <c r="N10" s="17" t="str">
+        <f>IF(Notenliste!F8="KP","",Notenliste!I8)</f>
+        <v/>
       </c>
       <c r="O10" s="19" t="str">
         <f>IF(Notenliste!L8=0," ",UPPER(Notenliste!L8))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6421,23 +6421,23 @@
         <v/>
       </c>
       <c r="L11" s="17" t="str">
-        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"), "bestanden",IF(Notenliste!F9="KP"," ",Notenliste!F9))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F9="KP","",IF(OR(Notenliste!H9="x", Notenliste!H9="X"), "bestanden",Notenliste!F9))</f>
+        <v/>
       </c>
       <c r="M11" s="17">
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="17">
-        <f>Notenliste!I9</f>
-        <v>0</v>
+      <c r="N11" s="17" t="str">
+        <f>IF(Notenliste!F9="KP","",Notenliste!I9)</f>
+        <v/>
       </c>
       <c r="O11" s="19" t="str">
         <f>IF(Notenliste!L9=0," ",UPPER(Notenliste!L9))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6482,23 +6482,23 @@
         <v/>
       </c>
       <c r="L12" s="17" t="str">
-        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"), "bestanden",IF(Notenliste!F10="KP"," ",Notenliste!F10))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F10="KP","",IF(OR(Notenliste!H10="x", Notenliste!H10="X"), "bestanden",Notenliste!F10))</f>
+        <v/>
       </c>
       <c r="M12" s="17">
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="17">
-        <f>Notenliste!I10</f>
-        <v>0</v>
+      <c r="N12" s="17" t="str">
+        <f>IF(Notenliste!F10="KP","",Notenliste!I10)</f>
+        <v/>
       </c>
       <c r="O12" s="19" t="str">
         <f>IF(Notenliste!L10=0," ",UPPER(Notenliste!L10))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6543,23 +6543,23 @@
         <v/>
       </c>
       <c r="L13" s="17" t="str">
-        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"), "bestanden",IF(Notenliste!F11="KP"," ",Notenliste!F11))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F11="KP","",IF(OR(Notenliste!H11="x", Notenliste!H11="X"), "bestanden",Notenliste!F11))</f>
+        <v/>
       </c>
       <c r="M13" s="17">
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="17">
-        <f>Notenliste!I11</f>
-        <v>0</v>
+      <c r="N13" s="17" t="str">
+        <f>IF(Notenliste!F11="KP","",Notenliste!I11)</f>
+        <v/>
       </c>
       <c r="O13" s="19" t="str">
         <f>IF(Notenliste!L11=0," ",UPPER(Notenliste!L11))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6604,23 +6604,23 @@
         <v/>
       </c>
       <c r="L14" s="17" t="str">
-        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"), "bestanden",IF(Notenliste!F12="KP"," ",Notenliste!F12))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F12="KP","",IF(OR(Notenliste!H12="x", Notenliste!H12="X"), "bestanden",Notenliste!F12))</f>
+        <v/>
       </c>
       <c r="M14" s="17">
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="17">
-        <f>Notenliste!I12</f>
-        <v>0</v>
+      <c r="N14" s="17" t="str">
+        <f>IF(Notenliste!F12="KP","",Notenliste!I12)</f>
+        <v/>
       </c>
       <c r="O14" s="19" t="str">
         <f>IF(Notenliste!L12=0," ",UPPER(Notenliste!L12))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6665,23 +6665,23 @@
         <v/>
       </c>
       <c r="L15" s="17" t="str">
-        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"), "bestanden",IF(Notenliste!F13="KP"," ",Notenliste!F13))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F13="KP","",IF(OR(Notenliste!H13="x", Notenliste!H13="X"), "bestanden",Notenliste!F13))</f>
+        <v/>
       </c>
       <c r="M15" s="17">
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="17">
-        <f>Notenliste!I13</f>
-        <v>0</v>
+      <c r="N15" s="17" t="str">
+        <f>IF(Notenliste!F13="KP","",Notenliste!I13)</f>
+        <v/>
       </c>
       <c r="O15" s="19" t="str">
         <f>IF(Notenliste!L13=0," ",UPPER(Notenliste!L13))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6726,23 +6726,23 @@
         <v/>
       </c>
       <c r="L16" s="17" t="str">
-        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"), "bestanden",IF(Notenliste!F14="KP"," ",Notenliste!F14))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F14="KP","",IF(OR(Notenliste!H14="x", Notenliste!H14="X"), "bestanden",Notenliste!F14))</f>
+        <v/>
       </c>
       <c r="M16" s="17">
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="17">
-        <f>Notenliste!I14</f>
-        <v>0</v>
+      <c r="N16" s="17" t="str">
+        <f>IF(Notenliste!F14="KP","",Notenliste!I14)</f>
+        <v/>
       </c>
       <c r="O16" s="19" t="str">
         <f>IF(Notenliste!L14=0," ",UPPER(Notenliste!L14))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6787,23 +6787,23 @@
         <v/>
       </c>
       <c r="L17" s="17" t="str">
-        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"), "bestanden",IF(Notenliste!F15="KP"," ",Notenliste!F15))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F15="KP","",IF(OR(Notenliste!H15="x", Notenliste!H15="X"), "bestanden",Notenliste!F15))</f>
+        <v/>
       </c>
       <c r="M17" s="17">
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17">
-        <f>Notenliste!I15</f>
-        <v>0</v>
+      <c r="N17" s="17" t="str">
+        <f>IF(Notenliste!F15="KP","",Notenliste!I15)</f>
+        <v/>
       </c>
       <c r="O17" s="19" t="str">
         <f>IF(Notenliste!L15=0," ",UPPER(Notenliste!L15))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6848,23 +6848,23 @@
         <v/>
       </c>
       <c r="L18" s="17" t="str">
-        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"), "bestanden",IF(Notenliste!F16="KP"," ",Notenliste!F16))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F16="KP","",IF(OR(Notenliste!H16="x", Notenliste!H16="X"), "bestanden",Notenliste!F16))</f>
+        <v/>
       </c>
       <c r="M18" s="17">
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="17">
-        <f>Notenliste!I16</f>
-        <v>0</v>
+      <c r="N18" s="17" t="str">
+        <f>IF(Notenliste!F16="KP","",Notenliste!I16)</f>
+        <v/>
       </c>
       <c r="O18" s="19" t="str">
         <f>IF(Notenliste!L16=0," ",UPPER(Notenliste!L16))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6909,23 +6909,23 @@
         <v/>
       </c>
       <c r="L19" s="17" t="str">
-        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"), "bestanden",IF(Notenliste!F17="KP"," ",Notenliste!F17))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F17="KP","",IF(OR(Notenliste!H17="x", Notenliste!H17="X"), "bestanden",Notenliste!F17))</f>
+        <v/>
       </c>
       <c r="M19" s="17">
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="17">
-        <f>Notenliste!I17</f>
-        <v>0</v>
+      <c r="N19" s="17" t="str">
+        <f>IF(Notenliste!F17="KP","",Notenliste!I17)</f>
+        <v/>
       </c>
       <c r="O19" s="19" t="str">
         <f>IF(Notenliste!L17=0," ",UPPER(Notenliste!L17))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6970,23 +6970,23 @@
         <v/>
       </c>
       <c r="L20" s="17" t="str">
-        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"), "bestanden",IF(Notenliste!F18="KP"," ",Notenliste!F18))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F18="KP","",IF(OR(Notenliste!H18="x", Notenliste!H18="X"), "bestanden",Notenliste!F18))</f>
+        <v/>
       </c>
       <c r="M20" s="17">
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="17">
-        <f>Notenliste!I18</f>
-        <v>0</v>
+      <c r="N20" s="17" t="str">
+        <f>IF(Notenliste!F18="KP","",Notenliste!I18)</f>
+        <v/>
       </c>
       <c r="O20" s="19" t="str">
         <f>IF(Notenliste!L18=0," ",UPPER(Notenliste!L18))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7031,23 +7031,23 @@
         <v/>
       </c>
       <c r="L21" s="17" t="str">
-        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"), "bestanden",IF(Notenliste!F19="KP"," ",Notenliste!F19))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F19="KP","",IF(OR(Notenliste!H19="x", Notenliste!H19="X"), "bestanden",Notenliste!F19))</f>
+        <v/>
       </c>
       <c r="M21" s="17">
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17">
-        <f>Notenliste!I19</f>
-        <v>0</v>
+      <c r="N21" s="17" t="str">
+        <f>IF(Notenliste!F19="KP","",Notenliste!I19)</f>
+        <v/>
       </c>
       <c r="O21" s="19" t="str">
         <f>IF(Notenliste!L19=0," ",UPPER(Notenliste!L19))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7092,23 +7092,23 @@
         <v/>
       </c>
       <c r="L22" s="17" t="str">
-        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"), "bestanden",IF(Notenliste!F20="KP"," ",Notenliste!F20))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F20="KP","",IF(OR(Notenliste!H20="x", Notenliste!H20="X"), "bestanden",Notenliste!F20))</f>
+        <v/>
       </c>
       <c r="M22" s="17">
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="17">
-        <f>Notenliste!I20</f>
-        <v>0</v>
+      <c r="N22" s="17" t="str">
+        <f>IF(Notenliste!F20="KP","",Notenliste!I20)</f>
+        <v/>
       </c>
       <c r="O22" s="19" t="str">
         <f>IF(Notenliste!L20=0," ",UPPER(Notenliste!L20))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7153,23 +7153,23 @@
         <v/>
       </c>
       <c r="L23" s="17" t="str">
-        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"), "bestanden",IF(Notenliste!F21="KP"," ",Notenliste!F21))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F21="KP","",IF(OR(Notenliste!H21="x", Notenliste!H21="X"), "bestanden",Notenliste!F21))</f>
+        <v/>
       </c>
       <c r="M23" s="17">
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="17">
-        <f>Notenliste!I21</f>
-        <v>0</v>
+      <c r="N23" s="17" t="str">
+        <f>IF(Notenliste!F21="KP","",Notenliste!I21)</f>
+        <v/>
       </c>
       <c r="O23" s="19" t="str">
         <f>IF(Notenliste!L21=0," ",UPPER(Notenliste!L21))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7214,23 +7214,23 @@
         <v/>
       </c>
       <c r="L24" s="17" t="str">
-        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"), "bestanden",IF(Notenliste!F22="KP"," ",Notenliste!F22))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F22="KP","",IF(OR(Notenliste!H22="x", Notenliste!H22="X"), "bestanden",Notenliste!F22))</f>
+        <v/>
       </c>
       <c r="M24" s="17">
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="17">
-        <f>Notenliste!I22</f>
-        <v>0</v>
+      <c r="N24" s="17" t="str">
+        <f>IF(Notenliste!F22="KP","",Notenliste!I22)</f>
+        <v/>
       </c>
       <c r="O24" s="19" t="str">
         <f>IF(Notenliste!L22=0," ",UPPER(Notenliste!L22))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7275,23 +7275,23 @@
         <v/>
       </c>
       <c r="L25" s="17" t="str">
-        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"), "bestanden",IF(Notenliste!F23="KP"," ",Notenliste!F23))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F23="KP","",IF(OR(Notenliste!H23="x", Notenliste!H23="X"), "bestanden",Notenliste!F23))</f>
+        <v/>
       </c>
       <c r="M25" s="17">
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="17">
-        <f>Notenliste!I23</f>
-        <v>0</v>
+      <c r="N25" s="17" t="str">
+        <f>IF(Notenliste!F23="KP","",Notenliste!I23)</f>
+        <v/>
       </c>
       <c r="O25" s="19" t="str">
         <f>IF(Notenliste!L23=0," ",UPPER(Notenliste!L23))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7336,23 +7336,23 @@
         <v/>
       </c>
       <c r="L26" s="17" t="str">
-        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"), "bestanden",IF(Notenliste!F24="KP"," ",Notenliste!F24))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F24="KP","",IF(OR(Notenliste!H24="x", Notenliste!H24="X"), "bestanden",Notenliste!F24))</f>
+        <v/>
       </c>
       <c r="M26" s="17">
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="17">
-        <f>Notenliste!I24</f>
-        <v>0</v>
+      <c r="N26" s="17" t="str">
+        <f>IF(Notenliste!F24="KP","",Notenliste!I24)</f>
+        <v/>
       </c>
       <c r="O26" s="19" t="str">
         <f>IF(Notenliste!L24=0," ",UPPER(Notenliste!L24))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7397,23 +7397,23 @@
         <v/>
       </c>
       <c r="L27" s="17" t="str">
-        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"), "bestanden",IF(Notenliste!F25="KP"," ",Notenliste!F25))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F25="KP","",IF(OR(Notenliste!H25="x", Notenliste!H25="X"), "bestanden",Notenliste!F25))</f>
+        <v/>
       </c>
       <c r="M27" s="17">
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="17">
-        <f>Notenliste!I25</f>
-        <v>0</v>
+      <c r="N27" s="17" t="str">
+        <f>IF(Notenliste!F25="KP","",Notenliste!I25)</f>
+        <v/>
       </c>
       <c r="O27" s="19" t="str">
         <f>IF(Notenliste!L25=0," ",UPPER(Notenliste!L25))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7458,23 +7458,23 @@
         <v/>
       </c>
       <c r="L28" s="17" t="str">
-        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"), "bestanden",IF(Notenliste!F26="KP"," ",Notenliste!F26))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F26="KP","",IF(OR(Notenliste!H26="x", Notenliste!H26="X"), "bestanden",Notenliste!F26))</f>
+        <v/>
       </c>
       <c r="M28" s="17">
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="17">
-        <f>Notenliste!I26</f>
-        <v>0</v>
+      <c r="N28" s="17" t="str">
+        <f>IF(Notenliste!F26="KP","",Notenliste!I26)</f>
+        <v/>
       </c>
       <c r="O28" s="19" t="str">
         <f>IF(Notenliste!L26=0," ",UPPER(Notenliste!L26))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -7497,7 +7497,7 @@
       <c r="N29" s="58"/>
       <c r="O29" s="60"/>
     </row>
-    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="96" t="s">
         <v>41</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="N30" s="96"/>
       <c r="O30" s="96"/>
     </row>
-    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -7533,7 +7533,7 @@
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
     </row>
-    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -7550,7 +7550,7 @@
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
     </row>
-    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -7567,7 +7567,7 @@
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7619,24 +7619,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7665,7 +7665,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="W2" s="99"/>
       <c r="X2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7722,7 +7722,7 @@
       <c r="W3" s="101"/>
       <c r="X3" s="101"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -7818,7 +7818,7 @@
       <c r="W5" s="98"/>
       <c r="X5" s="98"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8058,7 +8058,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8458,7 +8458,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8849,25 +8849,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8903,7 +8903,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="68" t="e">
-        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",Notenliste!F2))))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="66" t="str">
@@ -8911,7 +8911,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8921,7 +8921,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="68" t="str">
-        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",IF(OR(Notenliste!H3="x", Notenliste!H3="X"),"bestanden",Notenliste!F3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="66" t="str">
@@ -8929,7 +8929,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8939,7 +8939,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="68" t="str">
-        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",IF(OR(Notenliste!H4="x", Notenliste!H4="X"),"bestanden",Notenliste!F4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="66" t="str">
@@ -8947,7 +8947,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8957,7 +8957,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="68" t="str">
-        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",IF(OR(Notenliste!H5="x", Notenliste!H5="X"),"bestanden",Notenliste!F5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="66" t="str">
@@ -8965,7 +8965,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8975,7 +8975,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="68" t="str">
-        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",IF(OR(Notenliste!H6="x", Notenliste!H6="X"),"bestanden",Notenliste!F6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="66" t="str">
@@ -8983,7 +8983,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8993,7 +8993,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="68" t="str">
-        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",IF(OR(Notenliste!H7="x", Notenliste!H7="X"),"bestanden",Notenliste!F7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="66" t="str">
@@ -9001,7 +9001,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9011,7 +9011,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="68" t="str">
-        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",IF(OR(Notenliste!H8="x", Notenliste!H8="X"),"bestanden",Notenliste!F8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="66" t="str">
@@ -9019,7 +9019,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9029,7 +9029,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="68" t="str">
-        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",IF(OR(Notenliste!H9="x", Notenliste!H9="X"),"bestanden",Notenliste!F9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="66" t="str">
@@ -9037,7 +9037,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9047,7 +9047,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="68" t="str">
-        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",IF(OR(Notenliste!H10="x", Notenliste!H10="X"),"bestanden",Notenliste!F10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="66" t="str">
@@ -9055,7 +9055,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9065,7 +9065,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="68" t="str">
-        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",IF(OR(Notenliste!H11="x", Notenliste!H11="X"),"bestanden",Notenliste!F11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="66" t="str">
@@ -9073,7 +9073,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9083,7 +9083,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="68" t="str">
-        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",IF(OR(Notenliste!H12="x", Notenliste!H12="X"),"bestanden",Notenliste!F12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="66" t="str">
@@ -9091,7 +9091,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9101,7 +9101,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="68" t="str">
-        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",IF(OR(Notenliste!H13="x", Notenliste!H13="X"),"bestanden",Notenliste!F13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="66" t="str">
@@ -9109,7 +9109,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9119,7 +9119,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="68" t="str">
-        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",IF(OR(Notenliste!H14="x", Notenliste!H14="X"),"bestanden",Notenliste!F14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="66" t="str">
@@ -9127,7 +9127,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9137,7 +9137,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="68" t="str">
-        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",IF(OR(Notenliste!H15="x", Notenliste!H15="X"),"bestanden",Notenliste!F15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="66" t="str">
@@ -9145,7 +9145,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9155,7 +9155,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="68" t="str">
-        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",IF(OR(Notenliste!H16="x", Notenliste!H16="X"),"bestanden",Notenliste!F16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="66" t="str">
@@ -9163,7 +9163,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9173,7 +9173,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="68" t="str">
-        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",IF(OR(Notenliste!H17="x", Notenliste!H17="X"),"bestanden",Notenliste!F17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="66" t="str">
@@ -9181,7 +9181,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9191,7 +9191,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="68" t="str">
-        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",IF(OR(Notenliste!H18="x", Notenliste!H18="X"),"bestanden",Notenliste!F18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="66" t="str">
@@ -9199,7 +9199,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9209,7 +9209,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="68" t="str">
-        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",IF(OR(Notenliste!H19="x", Notenliste!H19="X"),"bestanden",Notenliste!F19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="66" t="str">
@@ -9217,7 +9217,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9227,7 +9227,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="68" t="str">
-        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",IF(OR(Notenliste!H20="x", Notenliste!H20="X"),"bestanden",Notenliste!F20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="66" t="str">
@@ -9235,7 +9235,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9245,7 +9245,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="68" t="str">
-        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",IF(OR(Notenliste!H21="x", Notenliste!H21="X"),"bestanden",Notenliste!F21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="66" t="str">
@@ -9253,7 +9253,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9263,7 +9263,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="68" t="str">
-        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",IF(OR(Notenliste!H22="x", Notenliste!H22="X"),"bestanden",Notenliste!F22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="66" t="str">
@@ -9271,7 +9271,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9281,7 +9281,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="68" t="str">
-        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",IF(OR(Notenliste!H23="x", Notenliste!H23="X"),"bestanden",Notenliste!F23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="66" t="str">
@@ -9289,7 +9289,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9299,7 +9299,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="68" t="str">
-        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",IF(OR(Notenliste!H24="x", Notenliste!H24="X"),"bestanden",Notenliste!F24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="66" t="str">
@@ -9307,7 +9307,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9317,7 +9317,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="68" t="str">
-        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",IF(OR(Notenliste!H25="x", Notenliste!H25="X"),"bestanden",Notenliste!F25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="66" t="str">
@@ -9325,7 +9325,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9335,7 +9335,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="68" t="str">
-        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",IF(OR(Notenliste!H26="x", Notenliste!H26="X"),"bestanden",Notenliste!F26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="66" t="str">
@@ -9346,21 +9346,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -9378,26 +9378,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>
